--- a/dox/COM106 - Share Submissions (Responses).xlsx
+++ b/dox/COM106 - Share Submissions (Responses).xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2592" uniqueCount="656">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="685">
   <si>
     <t>Timestamp</t>
   </si>
@@ -289,6 +289,15 @@
     <t>caption</t>
   </si>
   <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Aleksander Parks</t>
+  </si>
+  <si>
     <t>steve@sunyit.edu</t>
   </si>
   <si>
@@ -304,54 +313,108 @@
     <t>https://goo.gl/forms/xgsoWet1RtWZtliT2</t>
   </si>
   <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Samantha Rishe</t>
+  </si>
+  <si>
+    <t>Seth VanDerbeck</t>
+  </si>
+  <si>
+    <t>Briana Ruiz</t>
+  </si>
+  <si>
     <t>rishes@sunyit.edu</t>
   </si>
   <si>
-    <t>Samantha Rishe</t>
-  </si>
-  <si>
     <t>https://docs.google.com/a/sunyit.edu/document/d/1Dj6Cith2tVYys_Rxwgx59R_dgOITIKf8e7g0xpP2ZB8/edit?usp=sharing</t>
   </si>
   <si>
+    <t>Michael Robinson</t>
+  </si>
+  <si>
+    <t>Thomas Gross</t>
+  </si>
+  <si>
+    <t>Brandon Lavoie</t>
+  </si>
+  <si>
+    <t>chris</t>
+  </si>
+  <si>
+    <t>Devonte Griffiths</t>
+  </si>
+  <si>
     <t>https://docs.google.com/a/sunyit.edu/document/d/1DnZHFGgxzJVUvgehECkV4eVDp4X_rf5uvZDRI-DEvpg/edit?usp=sharing</t>
   </si>
   <si>
+    <t>Ismar Omeragic</t>
+  </si>
+  <si>
+    <t>Jacob Rush</t>
+  </si>
+  <si>
     <t>koehlea@sunyit.edu</t>
   </si>
   <si>
     <t>Aleksander Parks``</t>
   </si>
   <si>
+    <t>Jason Harrington</t>
+  </si>
+  <si>
+    <t>Joseph Elahi</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/14S6dyAhYmkaWOOhKD2qFDK9XDIZ8ZtSBujWCjpdJWa8/edit?usp=sharing</t>
   </si>
   <si>
+    <t>Joshua Moskowitz</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>Kyle Frenette</t>
+  </si>
+  <si>
+    <t>Lorenzo Kwolek</t>
+  </si>
+  <si>
+    <t>justin d</t>
+  </si>
+  <si>
     <t>kwolekl@sunyit.edu</t>
   </si>
   <si>
-    <t>Lorenzo Kwolek</t>
+    <t>Nicholas A. Miller</t>
   </si>
   <si>
     <t>Project 1: Digital Autobiography</t>
   </si>
   <si>
+    <t>Reynaldo Mercado</t>
+  </si>
+  <si>
     <t>https://docs.google.com/document/d/1hQRveBLyFPrtnZvwEwefWMupkG5duaG_7f2yNpVU7aA/edit?usp=sharing</t>
   </si>
   <si>
+    <t>Robert Santos</t>
+  </si>
+  <si>
     <t>elahij@sunyit.edu</t>
   </si>
   <si>
-    <t>Joseph Elahi</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1OdaXTDLTUvNk9_x28nvxT2iCIFn0d-sJ-pxnQfR9jIk/edit?usp=sharing</t>
   </si>
   <si>
     <t>ruizb@sunyit.edu</t>
   </si>
   <si>
-    <t>Briana Ruiz</t>
-  </si>
-  <si>
     <t>https://docs.google.com/a/sunyit.edu/document/d/1NC555_Tz6wPE2W_So2RXGs7yTv58rkqtuvQIrQdmynU/edit?usp=sharing</t>
   </si>
   <si>
@@ -367,27 +430,18 @@
     <t>grosst@sunyit.edu</t>
   </si>
   <si>
-    <t>Thomas Gross</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1XLon_jaWv0i4eEZvI4En3Wj6pRxxqxp1MvZEjkZ-w6M/edit?usp=sharing</t>
   </si>
   <si>
     <t>robinsm7@sunyit.edu</t>
   </si>
   <si>
-    <t>Michael Robinson</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1WWG071MfxcZGs-RDxNmjQ5sTUT16aWJCFB1XQ2BHEbw/edit</t>
   </si>
   <si>
     <t>millern3@sunyit.edu</t>
   </si>
   <si>
-    <t>Nicholas A. Miller</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1yebnLQ9NKCensKH79Ez33TsDXMuzqHGijA-lEZqODF4/edit?usp=sharing</t>
   </si>
   <si>
@@ -415,9 +469,6 @@
     <t>harrinjj@sunyit.edu</t>
   </si>
   <si>
-    <t>Jason Harrington</t>
-  </si>
-  <si>
     <t>https://docs.google.com/a/sunyit.edu/document/d/1G2b9tbH-va5MGQyFt9XK7FlL6i5cTB8VL7Io_XNbWNI/edit?usp=sharing</t>
   </si>
   <si>
@@ -433,15 +484,9 @@
     <t>santosr@sunyit.edu</t>
   </si>
   <si>
-    <t>Robert Santos</t>
-  </si>
-  <si>
     <t>https://docs.google.com/a/sunyit.edu/document/d/1avBrhIprTCnJNmB8XQFaN6enlj9QivI6_wQRNWqQQro/edit?usp=drivesdk</t>
   </si>
   <si>
-    <t>Kyle Frenette</t>
-  </si>
-  <si>
     <t>cristaj@sunyit.edu</t>
   </si>
   <si>
@@ -457,9 +502,6 @@
     <t>vanders1@sunyit.edu</t>
   </si>
   <si>
-    <t>Seth VanDerbeck</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/164woQk9nzbVZsAK45DhGzHWwqKuzZghEUFexrhipUQY/edit?usp=sharing</t>
   </si>
   <si>
@@ -478,18 +520,12 @@
     <t>https://docs.google.com/a/sunyit.edu/document/d/1qr6hgxKEVNpG68gG49yOnTGcFyfZIHz_uycKQB2nBRI/edit?usp=sharing</t>
   </si>
   <si>
-    <t>Aleksander Parks</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1opA8__49okWdKVvNqtOl3kf1KFSbjTkppkbBXrUBs3c/edit?usp=sharing</t>
   </si>
   <si>
     <t>mercadr@sunyit.edu</t>
   </si>
   <si>
-    <t>Reynaldo Mercado</t>
-  </si>
-  <si>
     <t>https://docs.google.com/presentation/d/1IsNmfQx7YMNovFhu43zQYqbNqEbAPSeM3gOT9xsj1qw/edit?usp=sharing</t>
   </si>
   <si>
@@ -502,9 +538,6 @@
     <t>omeragi@sunyit.edu</t>
   </si>
   <si>
-    <t>Ismar Omeragic</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1WtvgXudhBjJr8TTSdbO7ugzSiU3NrWW8RlT9bvL17mo/edit</t>
   </si>
   <si>
@@ -532,9 +565,6 @@
     <t>griffidj@sunyit.edu</t>
   </si>
   <si>
-    <t>Devonte Griffiths</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1K5Mn_m8PZ7HtcbYeUrwzR9s9q3oWnztwkm99G6iHDqo/edit?usp=sharing</t>
   </si>
   <si>
@@ -547,9 +577,6 @@
     <t>rushj@sunyit.edu</t>
   </si>
   <si>
-    <t>Jacob Rush</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1WMVEOgMVZhIAnBfrMjvGkwTYYnIgosEOpdHeE4dx2gA/edit?usp=sharing</t>
   </si>
   <si>
@@ -571,9 +598,6 @@
     <t>lavoieb@sunyit.edu</t>
   </si>
   <si>
-    <t>Brandon Lavoie</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1-Ni2YJGqguB_BGB_dRd34ZWcRWxXF7kEjGP0n2srFDg/edit</t>
   </si>
   <si>
@@ -646,30 +670,6 @@
     <t>https://www.powtoon.com/online-presentation/fjBQkgVJ9Vp/part-2/?mode=movie#/</t>
   </si>
   <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>chris</t>
-  </si>
-  <si>
-    <t>thomas</t>
-  </si>
-  <si>
-    <t>Joshua Moskowitz</t>
-  </si>
-  <si>
-    <t>justin</t>
-  </si>
-  <si>
-    <t>justin d</t>
-  </si>
-  <si>
     <t>https://docs.google.com/a/sunyit.edu/presentation/d/1zesrGKXgAGFrfK7KygMGu8KE3XQ5hEEooVTvgPYJTDQ/edit?usp=sharing</t>
   </si>
   <si>
@@ -2222,6 +2222,93 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/1LE1Zh0bOSDARPnnGWRw4zQjjErjsr0a_nAbzH7eInHA/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1UIvrvBW4rJBu6bo0S3X_3ksLbWxXBKV9ArpGt364BJM/edit</t>
+  </si>
+  <si>
+    <t>80/20 rule</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1mCM_clY6J6ZLNRmd_cuNbiGnaZu4RHyra1lD6FK7MMQ/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/a/sunyit.edu/document/d/10FY0OOpyEr369xL0WdW11UVdg3MdLVPaNc2ShJxNLMo/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>Cognitive Dissonance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirmation </t>
+  </si>
+  <si>
+    <t>https://rishes.wixsite.com/cheerleading</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1wxyjVge2YN_FU9dHW_jQw6kPGhVrXBenN8zTEIk7_Bg/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hierarchy of Needs </t>
+  </si>
+  <si>
+    <t>Propositional Density</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/a/sunyit.edu/document/d/1Wigv4MCpHvj1DzukfskpFOXEZPBOWpfBwJe0Eor6Q6g/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.icloud.com/attachment/?u=https%3A%2F%2Fcvws.icloud-content.com%2FB%2FAShSv5jTU_QzvxejY05AUG4r0-XYATWQ-Ub1Gw5ewyN_t-I-Jglf0rUT%2F%24%7Bf%7D%3Fo%3DAu7wdP0pPH4Xumek0iqfu5sDOTCSA-fq7zb8jvuv16ZC%26v%3D1%26x%3D3%26a%3DBf5QDUTMsBi1A8n0PwEA_wHIAP9LAX6s%26e%3D1513789948%26k%3D%24%7Buk%7D%26fl%3D%26r%3DC905CCB6-76CB-44E4-AEAD-46CC4364AB9E-1%26ckc%3Dcom.apple.largeattachment%26ckz%3DE23E5A9D-BD97-40B7-A24F-78E8454FA235%26p%3D22%26s%3Dbb1MU-DZ7LfSAFMScub0kQ2A9vk&amp;uk=AgcYGu8_Rvi3jBzPyrWMkw&amp;f=My%20Movie.mp4&amp;sz=28680777</t>
+  </si>
+  <si>
+    <t>Justin C</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/a/sunyit.edu/document/d/1XZz8D8CJN2AAT71_tmvOwPccgzrQ-hOYTEuORt4f9t0/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>ABS</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>ACB</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1D8XRESaL8Tr0bhfX8j-Q2sX_E0FaHy2dRf1v54hsSdE/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Archetypes </t>
+  </si>
+  <si>
+    <t>Garbage in-Garbage out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Picture Superiority Effect </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/13xmzy4gBNS_Edt1nPaLfPUYol_eY9vmwVOEziSNLxiA/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>Dunning-Kruger Effect</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1tlDwgBuzS8h98qxS1OvIUfv1vvkbs5dN5i6dVz3Vebk/edit</t>
+  </si>
+  <si>
+    <t>Mimicry and Prototyping</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1XdsCghlT2IcJuZjEqFYagf0BA2Z7DRFcvVzD5QJR9ag/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/19mfQVb8Ubdf3q1vx8X7RZszzw_n_SHsvkbhT5QJ5OgM/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibility </t>
+  </si>
+  <si>
+    <t>Expectation Effect</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2482,19 +2569,19 @@
         <v>42977.47652435185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -2509,19 +2596,19 @@
         <v>42977.5126252662</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -2536,19 +2623,19 @@
         <v>42977.51276545139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
@@ -2563,19 +2650,19 @@
         <v>42977.512782986116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -2590,19 +2677,19 @@
         <v>42977.51282373843</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
@@ -2617,19 +2704,19 @@
         <v>42977.514136631944</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -2644,19 +2731,19 @@
         <v>42977.51414791666</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
@@ -2671,19 +2758,19 @@
         <v>42977.514236504634</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
@@ -2698,19 +2785,19 @@
         <v>42977.51424278935</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
@@ -2725,19 +2812,19 @@
         <v>42977.5144069213</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
@@ -2752,19 +2839,19 @@
         <v>42977.51522537037</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
@@ -2779,19 +2866,19 @@
         <v>42977.51535204861</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -2806,19 +2893,19 @@
         <v>42977.519048125</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
@@ -2833,19 +2920,19 @@
         <v>42977.51954361111</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
@@ -2860,19 +2947,19 @@
         <v>42977.52107516203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
@@ -2887,19 +2974,19 @@
         <v>42977.52262145834</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
@@ -2914,19 +3001,19 @@
         <v>42977.53003309028</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -2941,19 +3028,19 @@
         <v>42977.644854259255</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -2968,19 +3055,19 @@
         <v>42977.77237605324</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
@@ -2995,19 +3082,19 @@
         <v>42977.85496556713</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
@@ -3022,19 +3109,19 @@
         <v>42978.5807827199</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
@@ -3049,19 +3136,19 @@
         <v>42978.85489141203</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
@@ -3076,19 +3163,19 @@
         <v>42978.86182122685</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
@@ -3103,19 +3190,19 @@
         <v>42978.86613916667</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
@@ -3130,19 +3217,19 @@
         <v>42978.900903483795</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
@@ -3157,19 +3244,19 @@
         <v>42991.89821458333</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
@@ -3184,19 +3271,19 @@
         <v>42978.98871560185</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
@@ -3211,19 +3298,19 @@
         <v>42979.386249884265</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
@@ -3238,19 +3325,19 @@
         <v>42979.45260171297</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
@@ -3265,19 +3352,19 @@
         <v>42979.472461944446</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
@@ -3292,19 +3379,19 @@
         <v>42979.48516773148</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
@@ -3319,19 +3406,19 @@
         <v>42979.50422831019</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
@@ -3346,19 +3433,19 @@
         <v>42979.60285877315</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="5"/>
@@ -3373,19 +3460,19 @@
         <v>42979.66814349537</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="5"/>
@@ -3400,19 +3487,19 @@
         <v>42979.8324583912</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="5"/>
@@ -3427,19 +3514,19 @@
         <v>42979.8604953125</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="5"/>
@@ -3454,19 +3541,19 @@
         <v>42983.41199011574</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="5"/>
@@ -3481,19 +3568,19 @@
         <v>42984.45545958333</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="5"/>
@@ -3508,19 +3595,19 @@
         <v>42984.510367083334</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
@@ -3535,19 +3622,19 @@
         <v>42984.534895868055</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
@@ -3562,19 +3649,19 @@
         <v>42984.54790497685</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
@@ -3589,19 +3676,19 @@
         <v>42984.56299842593</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
@@ -3616,19 +3703,19 @@
         <v>42984.568960370365</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
@@ -3643,19 +3730,19 @@
         <v>42984.920466678246</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
@@ -3670,19 +3757,19 @@
         <v>42985.66404517361</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
@@ -3697,19 +3784,19 @@
         <v>42985.665856493055</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
@@ -3724,19 +3811,19 @@
         <v>42985.73683637731</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
@@ -3751,19 +3838,19 @@
         <v>42985.798882372685</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
@@ -3778,19 +3865,19 @@
         <v>42985.885241875</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
@@ -3805,19 +3892,19 @@
         <v>42985.91414184027</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
@@ -3832,19 +3919,19 @@
         <v>42985.93806489583</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G52" s="5"/>
       <c r="H52" s="5"/>
@@ -3859,19 +3946,19 @@
         <v>42986.428835625</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="5"/>
@@ -3886,19 +3973,19 @@
         <v>42986.446669375</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C54" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="5"/>
@@ -3913,19 +4000,19 @@
         <v>42986.45487799769</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="5"/>
@@ -3940,19 +4027,19 @@
         <v>42986.457562766205</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="5"/>
@@ -3967,19 +4054,19 @@
         <v>42986.47779809027</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="5"/>
@@ -3994,19 +4081,19 @@
         <v>42986.864307905096</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="G58" s="5"/>
       <c r="H58" s="5"/>
@@ -4021,19 +4108,19 @@
         <v>42986.878628900464</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G59" s="5"/>
       <c r="H59" s="5"/>
@@ -4048,19 +4135,19 @@
         <v>42986.96649155093</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="G60" s="5"/>
       <c r="H60" s="5"/>
@@ -4075,19 +4162,19 @@
         <v>42986.97037380787</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -4102,19 +4189,19 @@
         <v>42988.89763712963</v>
       </c>
       <c r="B62" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C62" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>93</v>
-      </c>
       <c r="F62" s="4" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -4129,19 +4216,19 @@
         <v>42990.45970872685</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -4156,19 +4243,19 @@
         <v>42990.76214673611</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="5"/>
@@ -4183,19 +4270,19 @@
         <v>42990.87266833334</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
@@ -4210,19 +4297,19 @@
         <v>42990.87338417824</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="5"/>
@@ -4237,16 +4324,16 @@
         <v>42990.918149097226</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F67" s="4" t="s">
         <v>137</v>
@@ -4264,16 +4351,16 @@
         <v>42990.9730096875</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F68" s="4" t="s">
         <v>138</v>
@@ -4291,16 +4378,16 @@
         <v>42990.9808762037</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F69" s="4" t="s">
         <v>139</v>
@@ -4318,16 +4405,16 @@
         <v>42990.99362606481</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>140</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F70" s="4" t="s">
         <v>141</v>
@@ -4345,16 +4432,16 @@
         <v>42991.08832072916</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F71" s="4" t="s">
         <v>142</v>
@@ -4372,16 +4459,16 @@
         <v>42991.505969363425</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F72" s="4" t="s">
         <v>143</v>
@@ -4399,16 +4486,16 @@
         <v>42991.52066527778</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>144</v>
@@ -4426,16 +4513,16 @@
         <v>42991.54149703703</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>145</v>
@@ -4453,13 +4540,13 @@
         <v>42991.54237865741</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>146</v>
@@ -4483,13 +4570,13 @@
         <v>148</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>149</v>
@@ -4510,13 +4597,13 @@
         <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>150</v>
@@ -4534,16 +4621,16 @@
         <v>42991.75092872685</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>151</v>
@@ -4561,13 +4648,13 @@
         <v>42991.85687971065</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>146</v>
@@ -4588,16 +4675,16 @@
         <v>42991.870863923614</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>153</v>
@@ -4615,16 +4702,16 @@
         <v>42991.87206616898</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>154</v>
@@ -4642,16 +4729,16 @@
         <v>42991.8979440625</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>155</v>
@@ -4669,16 +4756,16 @@
         <v>42991.99660442129</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>156</v>
@@ -4696,16 +4783,16 @@
         <v>42991.99735826389</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>156</v>
@@ -4723,13 +4810,13 @@
         <v>42992.40794709491</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>146</v>
@@ -4750,13 +4837,13 @@
         <v>42992.712311724536</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>146</v>
@@ -4777,13 +4864,13 @@
         <v>42992.97761108796</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>146</v>
@@ -4804,13 +4891,13 @@
         <v>42993.033810925925</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>146</v>
@@ -4831,13 +4918,13 @@
         <v>42993.495321712966</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>146</v>
@@ -4858,13 +4945,13 @@
         <v>42993.649967627316</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>146</v>
@@ -4885,13 +4972,13 @@
         <v>42993.765578136576</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>146</v>
@@ -4912,13 +4999,13 @@
         <v>42993.82066262732</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>146</v>
@@ -4939,13 +5026,13 @@
         <v>42993.927877870374</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>146</v>
@@ -4966,16 +5053,16 @@
         <v>42994.81872634259</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>167</v>
@@ -4993,16 +5080,16 @@
         <v>42995.53680260417</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>168</v>
@@ -5023,13 +5110,13 @@
         <v>148</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>169</v>
@@ -5050,10 +5137,10 @@
         <v>148</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>146</v>
@@ -5074,16 +5161,16 @@
         <v>42996.32159869213</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>171</v>
@@ -5101,16 +5188,16 @@
         <v>42996.51386398148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>172</v>
@@ -5128,16 +5215,16 @@
         <v>42996.63120967592</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E100" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>173</v>
@@ -5155,16 +5242,16 @@
         <v>42996.661870185184</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>174</v>
@@ -5182,16 +5269,16 @@
         <v>42996.74573278935</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>175</v>
@@ -5209,13 +5296,13 @@
         <v>43026.54227721065</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>146</v>
@@ -5242,16 +5329,16 @@
         <v>42997.54833979167</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>180</v>
@@ -5269,16 +5356,16 @@
         <v>42997.67555732639</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>181</v>
@@ -5296,16 +5383,16 @@
         <v>42997.804888865736</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>182</v>
@@ -5323,16 +5410,16 @@
         <v>42997.81239038194</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D107" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>183</v>
@@ -5350,16 +5437,16 @@
         <v>42997.857809837966</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>184</v>
@@ -5377,16 +5464,16 @@
         <v>42997.86643135417</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>185</v>
@@ -5404,7 +5491,7 @@
         <v>42998.04351944444</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>186</v>
@@ -5413,7 +5500,7 @@
         <v>166</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>187</v>
@@ -5431,7 +5518,7 @@
         <v>42998.04690887731</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>188</v>
@@ -5440,7 +5527,7 @@
         <v>166</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>189</v>
@@ -5458,16 +5545,16 @@
         <v>42998.37458596065</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>190</v>
@@ -5485,16 +5572,16 @@
         <v>42998.37676442129</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>191</v>
@@ -5512,16 +5599,16 @@
         <v>42998.38166079861</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>192</v>
@@ -5542,13 +5629,13 @@
         <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>193</v>
@@ -5566,16 +5653,16 @@
         <v>42998.50779091435</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D116" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>194</v>
@@ -5593,13 +5680,13 @@
         <v>42998.535242349535</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>146</v>
@@ -5620,16 +5707,16 @@
         <v>42998.54419594907</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>196</v>
@@ -5647,16 +5734,16 @@
         <v>42998.58504841435</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>188</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>197</v>
@@ -5674,16 +5761,16 @@
         <v>42998.943790324076</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>198</v>
@@ -5701,13 +5788,13 @@
         <v>42999.43447146991</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>146</v>
@@ -5728,16 +5815,16 @@
         <v>42999.67965388889</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>200</v>
@@ -5755,16 +5842,16 @@
         <v>42999.990791874996</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E123" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>201</v>
@@ -5782,16 +5869,16 @@
         <v>43003.50071064815</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>202</v>
@@ -5812,13 +5899,13 @@
         <v>148</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>193</v>
@@ -5836,16 +5923,16 @@
         <v>43003.52842699074</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>203</v>
@@ -5863,7 +5950,7 @@
         <v>43003.54070604166</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>204</v>
@@ -5872,7 +5959,7 @@
         <v>166</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>205</v>
@@ -5890,16 +5977,16 @@
         <v>43003.54181190972</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D128" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>206</v>
@@ -5917,16 +6004,16 @@
         <v>43005.50324385417</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D129" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>207</v>
@@ -5950,13 +6037,13 @@
         <v>43003.910115520834</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C130" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D130" s="2" t="s">
         <v>45</v>
-      </c>
-      <c r="D130" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>146</v>
@@ -5977,16 +6064,16 @@
         <v>43005.50431103009</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F131" s="4" t="s">
         <v>212</v>
@@ -6010,16 +6097,16 @@
         <v>43005.503540798614</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F132" s="4" t="s">
         <v>216</v>
@@ -6043,16 +6130,16 @@
         <v>43004.73214638889</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>220</v>
@@ -6070,16 +6157,16 @@
         <v>43005.5037099537</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>221</v>
@@ -6103,16 +6190,16 @@
         <v>43005.504199953706</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F135" s="4" t="s">
         <v>224</v>
@@ -6136,16 +6223,16 @@
         <v>43004.79810296296</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F136" s="4" t="s">
         <v>228</v>
@@ -6163,16 +6250,16 @@
         <v>43004.88278158565</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F137" s="4" t="s">
         <v>229</v>
@@ -6190,16 +6277,16 @@
         <v>43004.90225034722</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F138" s="4" t="s">
         <v>230</v>
@@ -6217,16 +6304,16 @@
         <v>43005.50366528935</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F139" s="4" t="s">
         <v>231</v>
@@ -6250,16 +6337,16 @@
         <v>43005.50354509259</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F140" s="4" t="s">
         <v>235</v>
@@ -6283,16 +6370,16 @@
         <v>43005.503576296294</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F141" s="4" t="s">
         <v>205</v>
@@ -6316,16 +6403,16 @@
         <v>43005.50350979167</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F142" s="4" t="s">
         <v>239</v>
@@ -6349,16 +6436,16 @@
         <v>43005.50720474537</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F143" s="4" t="s">
         <v>242</v>
@@ -6382,16 +6469,16 @@
         <v>43005.50378284723</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F144" s="10" t="s">
         <v>246</v>
@@ -6415,16 +6502,16 @@
         <v>43005.50429373843</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F145" s="10" t="s">
         <v>229</v>
@@ -6448,16 +6535,16 @@
         <v>43005.53185990741</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F146" s="10" t="s">
         <v>252</v>
@@ -6481,16 +6568,16 @@
         <v>43005.56415423611</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F147" s="10" t="s">
         <v>256</v>
@@ -6514,16 +6601,16 @@
         <v>43005.58337097222</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F148" s="10" t="s">
         <v>259</v>
@@ -6547,16 +6634,16 @@
         <v>43005.77984811342</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F149" s="10" t="s">
         <v>261</v>
@@ -6583,13 +6670,13 @@
         <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F150" s="10" t="s">
         <v>265</v>
@@ -6613,16 +6700,16 @@
         <v>43009.99049107639</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>268</v>
@@ -6646,16 +6733,16 @@
         <v>43010.51722775463</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D152" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F152" s="10" t="s">
         <v>272</v>
@@ -6679,16 +6766,16 @@
         <v>43010.52071275463</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D153" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>275</v>
@@ -6712,16 +6799,16 @@
         <v>43010.52400666667</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D154" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F154" s="10" t="s">
         <v>279</v>
@@ -6745,16 +6832,16 @@
         <v>43010.55374548611</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D155" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F155" s="10" t="s">
         <v>280</v>
@@ -6778,7 +6865,7 @@
         <v>43010.5549415625</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>204</v>
@@ -6787,7 +6874,7 @@
         <v>166</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>282</v>
@@ -6811,16 +6898,16 @@
         <v>43010.55524587963</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F157" s="10" t="s">
         <v>284</v>
@@ -6844,16 +6931,16 @@
         <v>43010.94430621528</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>285</v>
@@ -6877,16 +6964,16 @@
         <v>43011.471380462965</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D159" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F159" s="10" t="s">
         <v>287</v>
@@ -6910,16 +6997,16 @@
         <v>43011.589116400464</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F160" s="10" t="s">
         <v>288</v>
@@ -6943,16 +7030,16 @@
         <v>43011.59041145833</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F161" s="10" t="s">
         <v>289</v>
@@ -6976,16 +7063,16 @@
         <v>43011.59107056713</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F162" s="10" t="s">
         <v>291</v>
@@ -7009,10 +7096,10 @@
         <v>43011.7673365625</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>166</v>
@@ -7042,16 +7129,16 @@
         <v>43011.9846315162</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F164" s="10" t="s">
         <v>296</v>
@@ -7075,16 +7162,16 @@
         <v>43012.00973524306</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D165" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F165" s="10" t="s">
         <v>298</v>
@@ -7108,16 +7195,16 @@
         <v>43012.068620011574</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F166" s="10" t="s">
         <v>300</v>
@@ -7141,16 +7228,16 @@
         <v>43012.38656850695</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F167" s="10" t="s">
         <v>301</v>
@@ -7174,16 +7261,16 @@
         <v>43012.435817233796</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F168" s="10" t="s">
         <v>302</v>
@@ -7210,13 +7297,13 @@
         <v>148</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F169" s="10" t="s">
         <v>303</v>
@@ -7240,16 +7327,16 @@
         <v>43012.46554774306</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F170" s="10" t="s">
         <v>304</v>
@@ -7273,16 +7360,16 @@
         <v>43012.49022175926</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F171" s="10" t="s">
         <v>306</v>
@@ -7306,16 +7393,16 @@
         <v>43012.51250438657</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F172" s="10" t="s">
         <v>307</v>
@@ -7339,16 +7426,16 @@
         <v>43012.51441134259</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D173" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F173" s="10" t="s">
         <v>309</v>
@@ -7372,16 +7459,16 @@
         <v>43012.570735960646</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D174" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F174" s="10" t="s">
         <v>310</v>
@@ -7405,16 +7492,16 @@
         <v>43012.65116015046</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>311</v>
@@ -7438,16 +7525,16 @@
         <v>43012.783497638884</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>313</v>
@@ -7471,10 +7558,10 @@
         <v>43013.44444622685</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>166</v>
@@ -7504,7 +7591,7 @@
         <v>43019.547127337966</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>318</v>
@@ -7537,16 +7624,16 @@
         <v>43013.83130535879</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F179" s="10" t="s">
         <v>322</v>
@@ -7570,10 +7657,10 @@
         <v>43013.90081957176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>166</v>
@@ -7603,16 +7690,16 @@
         <v>43019.546787060186</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F181" s="10" t="s">
         <v>327</v>
@@ -7636,10 +7723,10 @@
         <v>43014.993305254626</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>166</v>
@@ -7669,10 +7756,10 @@
         <v>43015.00131944445</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>166</v>
@@ -7702,10 +7789,10 @@
         <v>43015.006222199074</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>166</v>
@@ -7735,16 +7822,16 @@
         <v>43017.579228125</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F185" s="10" t="s">
         <v>334</v>
@@ -7768,16 +7855,16 @@
         <v>43017.60535539352</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F186" s="10" t="s">
         <v>336</v>
@@ -7801,16 +7888,16 @@
         <v>43017.99478155092</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F187" s="10" t="s">
         <v>337</v>
@@ -7834,10 +7921,10 @@
         <v>43026.54158099537</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>166</v>
@@ -7867,10 +7954,10 @@
         <v>43018.717048819446</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>166</v>
@@ -7900,16 +7987,16 @@
         <v>43018.74108216436</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F190" s="10" t="s">
         <v>345</v>
@@ -7933,16 +8020,16 @@
         <v>43018.744236666666</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F191" s="10" t="s">
         <v>347</v>
@@ -7966,16 +8053,16 @@
         <v>43018.85538133101</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F192" s="10" t="s">
         <v>348</v>
@@ -7999,16 +8086,16 @@
         <v>43018.869787592594</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F193" s="10" t="s">
         <v>350</v>
@@ -8032,16 +8119,16 @@
         <v>43019.5480981713</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F194" s="10" t="s">
         <v>352</v>
@@ -8065,16 +8152,16 @@
         <v>43018.923878368056</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F195" s="10" t="s">
         <v>354</v>
@@ -8098,10 +8185,10 @@
         <v>43018.924242928246</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>166</v>
@@ -8131,16 +8218,16 @@
         <v>43018.93092641204</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F197" s="10" t="s">
         <v>360</v>
@@ -8164,16 +8251,16 @@
         <v>43019.01685533565</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F198" s="10" t="s">
         <v>361</v>
@@ -8197,16 +8284,16 @@
         <v>43019.41689545139</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F199" s="10" t="s">
         <v>362</v>
@@ -8230,16 +8317,16 @@
         <v>43019.50744347222</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F200" s="10" t="s">
         <v>363</v>
@@ -8259,10 +8346,10 @@
         <v>43019.51188740741</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D201" s="2" t="s">
         <v>166</v>
@@ -8288,16 +8375,16 @@
         <v>43019.51382144676</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F202" s="10" t="s">
         <v>366</v>
@@ -8317,16 +8404,16 @@
         <v>43019.51391576389</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F203" s="10" t="s">
         <v>369</v>
@@ -8346,16 +8433,16 @@
         <v>43019.516128449075</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D204" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F204" s="10" t="s">
         <v>370</v>
@@ -8375,16 +8462,16 @@
         <v>43019.52330152778</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D205" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F205" s="10" t="s">
         <v>373</v>
@@ -8404,16 +8491,16 @@
         <v>43019.536861863424</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F206" s="10" t="s">
         <v>376</v>
@@ -8433,16 +8520,16 @@
         <v>43019.54587099537</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F207" s="10" t="s">
         <v>377</v>
@@ -8465,13 +8552,13 @@
         <v>148</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F208" s="10" t="s">
         <v>378</v>
@@ -8482,16 +8569,16 @@
         <v>43019.55115490741</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F209" s="10" t="s">
         <v>379</v>
@@ -8502,10 +8589,10 @@
         <v>43019.55569923611</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>312</v>
@@ -8531,16 +8618,16 @@
         <v>43019.561216608796</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D211" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F211" s="10" t="s">
         <v>383</v>
@@ -8551,16 +8638,16 @@
         <v>43019.562005879634</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F212" s="10" t="s">
         <v>384</v>
@@ -8571,16 +8658,16 @@
         <v>43019.562426793986</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D213" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F213" s="10" t="s">
         <v>385</v>
@@ -8594,13 +8681,13 @@
         <v>148</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F214" s="10" t="s">
         <v>386</v>
@@ -8620,10 +8707,10 @@
         <v>43019.57211138889</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D215" s="2" t="s">
         <v>166</v>
@@ -8649,16 +8736,16 @@
         <v>43019.5753684838</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F216" s="10" t="s">
         <v>392</v>
@@ -8678,16 +8765,16 @@
         <v>43019.63576039352</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D217" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F217" s="10" t="s">
         <v>395</v>
@@ -8707,16 +8794,16 @@
         <v>43019.65219359954</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F218" s="10" t="s">
         <v>397</v>
@@ -8736,16 +8823,16 @@
         <v>43019.858925162036</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F219" s="10" t="s">
         <v>398</v>
@@ -8756,16 +8843,16 @@
         <v>43020.002041631946</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F220" s="10" t="s">
         <v>399</v>
@@ -8785,10 +8872,10 @@
         <v>43020.03231289352</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>312</v>
@@ -8814,16 +8901,16 @@
         <v>43020.0329134375</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F222" s="10" t="s">
         <v>402</v>
@@ -8834,16 +8921,16 @@
         <v>43020.462382638885</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F223" s="10" t="s">
         <v>403</v>
@@ -8854,10 +8941,10 @@
         <v>43020.463665393516</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>312</v>
@@ -8883,10 +8970,10 @@
         <v>43020.616478275464</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D225" s="2" t="s">
         <v>166</v>
@@ -8912,16 +8999,16 @@
         <v>43020.66075369213</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F226" s="10" t="s">
         <v>410</v>
@@ -8932,16 +9019,16 @@
         <v>43026.54439957176</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F227" s="10" t="s">
         <v>411</v>
@@ -8952,16 +9039,16 @@
         <v>43020.84590479167</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F228" s="10" t="s">
         <v>412</v>
@@ -8972,16 +9059,16 @@
         <v>43020.89322266204</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F229" s="10" t="s">
         <v>413</v>
@@ -8992,16 +9079,16 @@
         <v>43021.435977754634</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F230" s="10" t="s">
         <v>414</v>
@@ -9012,16 +9099,16 @@
         <v>43021.526422407405</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F231" s="10" t="s">
         <v>412</v>
@@ -9032,16 +9119,16 @@
         <v>43021.64554784722</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D232" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F232" s="10" t="s">
         <v>415</v>
@@ -9061,16 +9148,16 @@
         <v>43021.79754672454</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D233" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F233" s="10" t="s">
         <v>416</v>
@@ -9081,16 +9168,16 @@
         <v>43021.8395447338</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F234" s="10" t="s">
         <v>417</v>
@@ -9101,10 +9188,10 @@
         <v>43021.84116202546</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>312</v>
@@ -9130,16 +9217,16 @@
         <v>43021.84535013889</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F236" s="10" t="s">
         <v>420</v>
@@ -9150,16 +9237,16 @@
         <v>43021.896234479165</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F237" s="10" t="s">
         <v>421</v>
@@ -9179,16 +9266,16 @@
         <v>43021.89728605324</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F238" s="10" t="s">
         <v>424</v>
@@ -9199,10 +9286,10 @@
         <v>43021.90280473379</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>312</v>
@@ -9228,16 +9315,16 @@
         <v>43021.90302092592</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F240" s="10" t="s">
         <v>427</v>
@@ -9248,16 +9335,16 @@
         <v>43021.90920052084</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F241" s="10" t="s">
         <v>428</v>
@@ -9268,16 +9355,16 @@
         <v>43022.00342447917</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F242" s="10" t="s">
         <v>429</v>
@@ -9288,16 +9375,16 @@
         <v>43022.00513085648</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F243" s="10" t="s">
         <v>430</v>
@@ -9308,16 +9395,16 @@
         <v>43022.074284884264</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F244" s="10" t="s">
         <v>431</v>
@@ -9328,16 +9415,16 @@
         <v>43022.628012256944</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D245" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F245" s="10" t="s">
         <v>432</v>
@@ -9351,13 +9438,13 @@
         <v>148</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F246" s="10" t="s">
         <v>433</v>
@@ -9368,10 +9455,10 @@
         <v>43023.83268636574</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>312</v>
@@ -9397,10 +9484,10 @@
         <v>43024.33152092593</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>312</v>
@@ -9426,10 +9513,10 @@
         <v>43024.44808800926</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>312</v>
@@ -9455,16 +9542,16 @@
         <v>43024.48969649305</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D250" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F250" s="10" t="s">
         <v>441</v>
@@ -9475,10 +9562,10 @@
         <v>43024.49883965278</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>312</v>
@@ -9504,16 +9591,16 @@
         <v>43024.50035461805</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F252" s="10" t="s">
         <v>444</v>
@@ -9524,16 +9611,16 @@
         <v>43024.501311099535</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F253" s="10" t="s">
         <v>445</v>
@@ -9544,10 +9631,10 @@
         <v>43024.52253594907</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>312</v>
@@ -9573,10 +9660,10 @@
         <v>43024.555921747684</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>312</v>
@@ -9602,10 +9689,10 @@
         <v>43024.68594789352</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D256" s="2" t="s">
         <v>312</v>
@@ -9631,10 +9718,10 @@
         <v>43024.91192126158</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>312</v>
@@ -9660,16 +9747,16 @@
         <v>43025.37717532407</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D258" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F258" s="10" t="s">
         <v>454</v>
@@ -9680,10 +9767,10 @@
         <v>43026.54074780093</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>312</v>
@@ -9712,7 +9799,7 @@
         <v>148</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>312</v>
@@ -9738,10 +9825,10 @@
         <v>43026.51953056713</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D261" s="2" t="s">
         <v>312</v>
@@ -9758,10 +9845,10 @@
         <v>43026.52007337963</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>312</v>
@@ -9778,10 +9865,10 @@
         <v>43026.52280494213</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D263" s="2" t="s">
         <v>312</v>
@@ -9798,10 +9885,10 @@
         <v>43026.523798483795</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>312</v>
@@ -9818,10 +9905,10 @@
         <v>43026.52573724537</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>312</v>
@@ -9838,10 +9925,10 @@
         <v>43026.53666435185</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>312</v>
@@ -9858,16 +9945,16 @@
         <v>43026.54224909723</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F267" s="10" t="s">
         <v>465</v>
@@ -9878,10 +9965,10 @@
         <v>43026.543893194445</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>312</v>
@@ -9898,10 +9985,10 @@
         <v>43026.544518124996</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>312</v>
@@ -9918,10 +10005,10 @@
         <v>43026.54783081019</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>312</v>
@@ -9938,10 +10025,10 @@
         <v>43026.549209791665</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>312</v>
@@ -9958,10 +10045,10 @@
         <v>43026.55111572916</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>312</v>
@@ -9978,10 +10065,10 @@
         <v>43026.55393393518</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>312</v>
@@ -9998,10 +10085,10 @@
         <v>43026.55477453704</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D274" s="2" t="s">
         <v>312</v>
@@ -10018,13 +10105,13 @@
         <v>43026.55903909722</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>459</v>
@@ -10041,7 +10128,7 @@
         <v>148</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>312</v>
@@ -10058,7 +10145,7 @@
         <v>43026.563311805556</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C277" s="10" t="s">
         <v>474</v>
@@ -10078,10 +10165,10 @@
         <v>43026.57119640046</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="D278" s="2" t="s">
         <v>312</v>
@@ -10098,10 +10185,10 @@
         <v>43026.57258736111</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>312</v>
@@ -10118,10 +10205,10 @@
         <v>43026.69709483796</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D280" s="2" t="s">
         <v>166</v>
@@ -10138,10 +10225,10 @@
         <v>43028.560511076386</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>312</v>
@@ -10158,16 +10245,16 @@
         <v>43028.59977497685</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F282" s="10" t="s">
         <v>479</v>
@@ -10178,7 +10265,7 @@
         <v>43028.6368469213</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>204</v>
@@ -10187,7 +10274,7 @@
         <v>478</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F283" s="10" t="s">
         <v>480</v>
@@ -10198,16 +10285,16 @@
         <v>43031.66131591435</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F284" s="10" t="s">
         <v>481</v>
@@ -10227,10 +10314,10 @@
         <v>43028.945846504634</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>166</v>
@@ -10256,13 +10343,13 @@
         <v>43029.676997511575</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>146</v>
@@ -10285,10 +10372,10 @@
         <v>43029.6776196412</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>166</v>
@@ -10314,10 +10401,10 @@
         <v>43029.67823138888</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>312</v>
@@ -10343,16 +10430,16 @@
         <v>43030.47476391203</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D289" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F289" s="10" t="s">
         <v>489</v>
@@ -10363,16 +10450,16 @@
         <v>43030.49553944444</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F290" s="10" t="s">
         <v>490</v>
@@ -10383,16 +10470,16 @@
         <v>43030.58100958333</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F291" s="10" t="s">
         <v>491</v>
@@ -10403,16 +10490,16 @@
         <v>43030.67156337963</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D292" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F292" s="10" t="s">
         <v>416</v>
@@ -10423,16 +10510,16 @@
         <v>43030.73747548611</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F293" s="10" t="s">
         <v>492</v>
@@ -10452,16 +10539,16 @@
         <v>43030.74758064815</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F294" s="10" t="s">
         <v>494</v>
@@ -10472,10 +10559,10 @@
         <v>43030.85618753472</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>312</v>
@@ -10495,7 +10582,7 @@
         <v>148</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>312</v>
@@ -10512,7 +10599,7 @@
         <v>43030.9195615162</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>496</v>
@@ -10532,16 +10619,16 @@
         <v>43031.19446233797</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F298" s="10" t="s">
         <v>498</v>
@@ -10552,10 +10639,10 @@
         <v>43031.19700688658</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>312</v>
@@ -10572,16 +10659,16 @@
         <v>43031.41916146991</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F300" s="10" t="s">
         <v>499</v>
@@ -10592,10 +10679,10 @@
         <v>43031.42140475694</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>312</v>
@@ -10612,16 +10699,16 @@
         <v>43031.43852675926</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F302" s="10" t="s">
         <v>428</v>
@@ -10632,16 +10719,16 @@
         <v>43031.48629148148</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D303" s="2" t="s">
         <v>312</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F303" s="10" t="s">
         <v>501</v>
@@ -10652,10 +10739,10 @@
         <v>43031.49697032408</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D304" s="2" t="s">
         <v>312</v>
@@ -10681,16 +10768,16 @@
         <v>43031.497684988426</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F305" s="10" t="s">
         <v>505</v>
@@ -10701,10 +10788,10 @@
         <v>43031.50041255787</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>312</v>
@@ -10721,16 +10808,16 @@
         <v>43031.50455438657</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F307" s="10" t="s">
         <v>507</v>
@@ -10741,16 +10828,16 @@
         <v>43031.50925232639</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F308" s="10" t="s">
         <v>508</v>
@@ -10761,16 +10848,16 @@
         <v>43031.561786412036</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F309" s="10" t="s">
         <v>509</v>
@@ -10781,16 +10868,16 @@
         <v>43031.61383609954</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F310" s="10" t="s">
         <v>510</v>
@@ -10801,16 +10888,16 @@
         <v>43031.912585868056</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F311" s="10" t="s">
         <v>511</v>
@@ -10821,16 +10908,16 @@
         <v>43032.5206047338</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F312" s="10" t="s">
         <v>512</v>
@@ -10841,16 +10928,16 @@
         <v>43032.99550744213</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F313" s="10" t="s">
         <v>513</v>
@@ -10861,16 +10948,16 @@
         <v>43032.99762083333</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F314" s="10" t="s">
         <v>514</v>
@@ -10890,16 +10977,16 @@
         <v>43033.358326608795</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F315" s="10" t="s">
         <v>505</v>
@@ -10910,16 +10997,16 @@
         <v>43033.54516336806</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D316" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F316" s="10" t="s">
         <v>516</v>
@@ -10930,16 +11017,16 @@
         <v>43033.646682569444</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D317" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F317" s="10" t="s">
         <v>517</v>
@@ -10959,16 +11046,16 @@
         <v>43034.77754913195</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F318" s="10" t="s">
         <v>519</v>
@@ -10988,16 +11075,16 @@
         <v>43034.87407457176</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F319" s="10" t="s">
         <v>522</v>
@@ -11011,13 +11098,13 @@
         <v>148</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F320" s="10" t="s">
         <v>523</v>
@@ -11028,16 +11115,16 @@
         <v>43035.488702511575</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F321" s="10" t="s">
         <v>524</v>
@@ -11057,16 +11144,16 @@
         <v>43035.58076141204</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F322" s="10" t="s">
         <v>527</v>
@@ -11086,16 +11173,16 @@
         <v>43035.89623333333</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F323" s="10" t="s">
         <v>529</v>
@@ -11115,16 +11202,16 @@
         <v>43035.95083642361</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F324" s="10" t="s">
         <v>532</v>
@@ -11144,16 +11231,16 @@
         <v>43035.97062211805</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F325" s="10" t="s">
         <v>534</v>
@@ -11173,16 +11260,16 @@
         <v>43036.08861064815</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F326" s="10" t="s">
         <v>536</v>
@@ -11202,16 +11289,16 @@
         <v>43036.61391186343</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F327" s="10" t="s">
         <v>538</v>
@@ -11234,13 +11321,13 @@
         <v>148</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F328" s="10" t="s">
         <v>541</v>
@@ -11260,16 +11347,16 @@
         <v>43037.789648101854</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F329" s="10" t="s">
         <v>543</v>
@@ -11289,16 +11376,16 @@
         <v>43038.450335625</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D330" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E330" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F330" s="10" t="s">
         <v>547</v>
@@ -11309,16 +11396,16 @@
         <v>43038.50887469907</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D331" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F331" s="10" t="s">
         <v>548</v>
@@ -11338,16 +11425,16 @@
         <v>43038.572815555555</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E332" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F332" s="10" t="s">
         <v>549</v>
@@ -11367,16 +11454,16 @@
         <v>43039.47887841435</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F333" s="10" t="s">
         <v>550</v>
@@ -11396,16 +11483,16 @@
         <v>43040.444380127316</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E334" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F334" s="10" t="s">
         <v>553</v>
@@ -11425,16 +11512,16 @@
         <v>43040.54547708333</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E335" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F335" s="10" t="s">
         <v>555</v>
@@ -11454,16 +11541,16 @@
         <v>43040.567200590274</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D336" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E336" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F336" s="10" t="s">
         <v>556</v>
@@ -11483,16 +11570,16 @@
         <v>43040.66362327547</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E337" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F337" s="10" t="s">
         <v>557</v>
@@ -11503,16 +11590,16 @@
         <v>43040.78313142361</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D338" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E338" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F338" s="10" t="s">
         <v>556</v>
@@ -11532,16 +11619,16 @@
         <v>43042.563635370374</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D339" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F339" s="10" t="s">
         <v>558</v>
@@ -11552,16 +11639,16 @@
         <v>43043.92511630787</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D340" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E340" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F340" s="10" t="s">
         <v>559</v>
@@ -11581,7 +11668,7 @@
         <v>43044.63906642361</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C341" s="2" t="s">
         <v>560</v>
@@ -11590,7 +11677,7 @@
         <v>478</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F341" s="10" t="s">
         <v>561</v>
@@ -11601,7 +11688,7 @@
         <v>43044.8148319676</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>562</v>
@@ -11610,7 +11697,7 @@
         <v>478</v>
       </c>
       <c r="E342" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F342" s="10" t="s">
         <v>563</v>
@@ -11621,16 +11708,16 @@
         <v>43044.96002486111</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E343" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F343" s="10" t="s">
         <v>564</v>
@@ -11641,16 +11728,16 @@
         <v>43045.00009217593</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E344" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F344" s="10" t="s">
         <v>565</v>
@@ -11661,7 +11748,7 @@
         <v>43045.38586394676</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>204</v>
@@ -11670,7 +11757,7 @@
         <v>478</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F345" s="10" t="s">
         <v>566</v>
@@ -11681,16 +11768,16 @@
         <v>43045.38966777778</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F346" s="10" t="s">
         <v>567</v>
@@ -11701,16 +11788,16 @@
         <v>43045.41269819444</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F347" s="10" t="s">
         <v>500</v>
@@ -11724,13 +11811,13 @@
         <v>148</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F348" s="10" t="s">
         <v>568</v>
@@ -11741,16 +11828,16 @@
         <v>43045.43686393519</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F349" s="10" t="s">
         <v>569</v>
@@ -11761,16 +11848,16 @@
         <v>43045.44946429398</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D350" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E350" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F350" s="10" t="s">
         <v>570</v>
@@ -11781,16 +11868,16 @@
         <v>43045.65402591435</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E351" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F351" s="10" t="s">
         <v>571</v>
@@ -11801,10 +11888,10 @@
         <v>43045.51156105324</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D352" s="2" t="s">
         <v>478</v>
@@ -11830,16 +11917,16 @@
         <v>43045.51345013889</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E353" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F353" s="10" t="s">
         <v>574</v>
@@ -11850,16 +11937,16 @@
         <v>43045.52378555556</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E354" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F354" s="10" t="s">
         <v>575</v>
@@ -11870,16 +11957,16 @@
         <v>43045.52861920139</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D355" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E355" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F355" s="10" t="s">
         <v>559</v>
@@ -11890,16 +11977,16 @@
         <v>43045.586945312505</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E356" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F356" s="10" t="s">
         <v>576</v>
@@ -11910,16 +11997,16 @@
         <v>43045.97632221065</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E357" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F357" s="10" t="s">
         <v>577</v>
@@ -11930,16 +12017,16 @@
         <v>43045.99785025463</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E358" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F358" s="10" t="s">
         <v>569</v>
@@ -11950,16 +12037,16 @@
         <v>43046.86798005787</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E359" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F359" s="10" t="s">
         <v>578</v>
@@ -11970,10 +12057,10 @@
         <v>43047.4243496875</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>478</v>
@@ -11999,16 +12086,16 @@
         <v>43047.434439398145</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>478</v>
       </c>
       <c r="E361" s="2" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="F361" s="10" t="s">
         <v>582</v>
@@ -12019,10 +12106,10 @@
         <v>43047.50520775463</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>478</v>
@@ -12051,7 +12138,7 @@
         <v>148</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>478</v>
@@ -12077,10 +12164,10 @@
         <v>43047.540973483796</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C364" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D364" s="2" t="s">
         <v>478</v>
@@ -12106,10 +12193,10 @@
         <v>43047.57144770834</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>478</v>
@@ -12135,7 +12222,7 @@
         <v>43047.57513902777</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C366" s="2" t="s">
         <v>204</v>
@@ -12164,10 +12251,10 @@
         <v>43047.575841956015</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>478</v>
@@ -12193,16 +12280,16 @@
         <v>43047.651928287036</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E368" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F368" s="10" t="s">
         <v>595</v>
@@ -12213,10 +12300,10 @@
         <v>43047.795450439815</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>478</v>
@@ -12242,10 +12329,10 @@
         <v>43047.87969291667</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>478</v>
@@ -12271,10 +12358,10 @@
         <v>43047.91191354167</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>478</v>
@@ -12300,7 +12387,7 @@
         <v>43047.9770677662</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>318</v>
@@ -12329,10 +12416,10 @@
         <v>43048.00483693287</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>478</v>
@@ -12358,10 +12445,10 @@
         <v>43051.62869398148</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C374" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D374" s="2" t="s">
         <v>478</v>
@@ -12387,10 +12474,10 @@
         <v>43051.66866548611</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>478</v>
@@ -12416,16 +12503,16 @@
         <v>43052.51854121528</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E376" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F376" s="10" t="s">
         <v>609</v>
@@ -12436,16 +12523,16 @@
         <v>43052.53387097223</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E377" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F377" s="10" t="s">
         <v>610</v>
@@ -12456,16 +12543,16 @@
         <v>43052.53607833333</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E378" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F378" s="10" t="s">
         <v>611</v>
@@ -12476,16 +12563,16 @@
         <v>43052.536592951394</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C379" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D379" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E379" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F379" s="10" t="s">
         <v>612</v>
@@ -12496,16 +12583,16 @@
         <v>43052.53835965278</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E380" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F380" s="10" t="s">
         <v>613</v>
@@ -12516,16 +12603,16 @@
         <v>43052.53864890046</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E381" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F381" s="10" t="s">
         <v>614</v>
@@ -12539,13 +12626,13 @@
         <v>148</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E382" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F382" s="10" t="s">
         <v>615</v>
@@ -12556,16 +12643,16 @@
         <v>43052.54220011574</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E383" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F383" s="10" t="s">
         <v>616</v>
@@ -12576,16 +12663,16 @@
         <v>43052.543441331014</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="D384" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E384" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F384" s="10" t="s">
         <v>617</v>
@@ -12596,16 +12683,16 @@
         <v>43052.545527002316</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E385" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F385" s="10" t="s">
         <v>618</v>
@@ -12616,7 +12703,7 @@
         <v>43052.55542392361</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="C386" s="10" t="s">
         <v>619</v>
@@ -12625,7 +12712,7 @@
         <v>594</v>
       </c>
       <c r="E386" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F386" s="10" t="s">
         <v>619</v>
@@ -12636,16 +12723,16 @@
         <v>43052.55634836806</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D387" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E387" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F387" s="10" t="s">
         <v>620</v>
@@ -12656,16 +12743,16 @@
         <v>43052.561686817135</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E388" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F388" s="10" t="s">
         <v>621</v>
@@ -12676,16 +12763,16 @@
         <v>43052.56469395834</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E389" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F389" s="10" t="s">
         <v>595</v>
@@ -12696,16 +12783,16 @@
         <v>43052.566043831015</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E390" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F390" s="10" t="s">
         <v>618</v>
@@ -12716,16 +12803,16 @@
         <v>43052.89890017361</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E391" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F391" s="10" t="s">
         <v>622</v>
@@ -12736,16 +12823,16 @@
         <v>43052.944222175924</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E392" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F392" s="10" t="s">
         <v>623</v>
@@ -12756,16 +12843,16 @@
         <v>43054.49057556713</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E393" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F393" s="10" t="s">
         <v>624</v>
@@ -12776,16 +12863,16 @@
         <v>43054.52588543981</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E394" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F394" s="10" t="s">
         <v>625</v>
@@ -12796,10 +12883,10 @@
         <v>43054.526605983796</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="D395" s="2" t="s">
         <v>594</v>
@@ -12825,16 +12912,16 @@
         <v>43054.52734673611</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E396" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F396" s="10" t="s">
         <v>628</v>
@@ -12845,16 +12932,16 @@
         <v>43054.54825180555</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D397" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E397" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F397" s="10" t="s">
         <v>629</v>
@@ -12874,16 +12961,16 @@
         <v>43054.549208530094</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E398" s="2" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="F398" s="10" t="s">
         <v>630</v>
@@ -12894,16 +12981,16 @@
         <v>43054.54994515046</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E399" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F399" s="10" t="s">
         <v>631</v>
@@ -12923,10 +13010,10 @@
         <v>43054.928422557874</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>594</v>
@@ -12952,16 +13039,16 @@
         <v>43054.99740569445</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E401" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F401" s="10" t="s">
         <v>635</v>
@@ -12981,10 +13068,10 @@
         <v>43055.000045925924</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>594</v>
@@ -13010,10 +13097,10 @@
         <v>43056.63682659723</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>478</v>
@@ -13039,10 +13126,10 @@
         <v>43056.971715844906</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>594</v>
@@ -13065,19 +13152,19 @@
     </row>
     <row r="405">
       <c r="A405" s="3">
-        <v>43059.13589903935</v>
+        <v>43059.4973124074</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E405" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F405" s="10" t="s">
         <v>644</v>
@@ -13097,16 +13184,16 @@
         <v>43059.165201932876</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>51</v>
+        <v>69</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E406" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F406" s="10" t="s">
         <v>646</v>
@@ -13126,10 +13213,10 @@
         <v>43059.41277306713</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>594</v>
@@ -13155,16 +13242,16 @@
         <v>43059.439957372684</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E408" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F408" s="10" t="s">
         <v>649</v>
@@ -13184,16 +13271,16 @@
         <v>43059.46703878472</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E409" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F409" s="10" t="s">
         <v>651</v>
@@ -13213,16 +13300,16 @@
         <v>43059.46734488426</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>594</v>
       </c>
       <c r="E410" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="F410" s="10" t="s">
         <v>654</v>
@@ -13238,43 +13325,363 @@
       </c>
     </row>
     <row r="411">
-      <c r="F411" s="1"/>
+      <c r="A411" s="3">
+        <v>43059.493680659725</v>
+      </c>
+      <c r="B411" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C411" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D411" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E411" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F411" s="10" t="s">
+        <v>655</v>
+      </c>
+      <c r="G411" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="H411" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="I411" s="2" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="412">
-      <c r="F412" s="1"/>
+      <c r="A412" s="3">
+        <v>43059.4982827662</v>
+      </c>
+      <c r="B412" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C412" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D412" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E412" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F412" s="10" t="s">
+        <v>657</v>
+      </c>
+      <c r="G412" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="H412" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I412" s="2" t="s">
+        <v>286</v>
+      </c>
     </row>
     <row r="413">
-      <c r="F413" s="1"/>
+      <c r="A413" s="3">
+        <v>43059.50196253472</v>
+      </c>
+      <c r="B413" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C413" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D413" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E413" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F413" s="10" t="s">
+        <v>658</v>
+      </c>
+      <c r="G413" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="H413" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="I413" s="2" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="414">
-      <c r="F414" s="1"/>
+      <c r="A414" s="3">
+        <v>43059.502047835645</v>
+      </c>
+      <c r="B414" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C414" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D414" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E414" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F414" s="10" t="s">
+        <v>661</v>
+      </c>
     </row>
     <row r="415">
-      <c r="F415" s="1"/>
+      <c r="A415" s="3">
+        <v>43059.505162789355</v>
+      </c>
+      <c r="B415" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C415" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D415" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E415" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F415" s="10" t="s">
+        <v>662</v>
+      </c>
+      <c r="G415" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="H415" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="I415" s="2" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="416">
-      <c r="F416" s="1"/>
+      <c r="A416" s="3">
+        <v>43059.51192844908</v>
+      </c>
+      <c r="B416" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C416" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D416" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E416" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F416" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="G416" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H416" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="I416" s="2" t="s">
+        <v>394</v>
+      </c>
     </row>
     <row r="417">
-      <c r="F417" s="1"/>
+      <c r="A417" s="3">
+        <v>43059.51377266204</v>
+      </c>
+      <c r="B417" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C417" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F417" s="10" t="s">
+        <v>666</v>
+      </c>
     </row>
     <row r="418">
-      <c r="F418" s="1"/>
+      <c r="A418" s="3">
+        <v>43059.513889131944</v>
+      </c>
+      <c r="B418" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C418" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D418" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E418" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F418" s="10" t="s">
+        <v>668</v>
+      </c>
+      <c r="G418" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="H418" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="I418" s="2" t="s">
+        <v>671</v>
+      </c>
     </row>
     <row r="419">
-      <c r="F419" s="1"/>
+      <c r="A419" s="3">
+        <v>43059.51641927083</v>
+      </c>
+      <c r="B419" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C419" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D419" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E419" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F419" s="10" t="s">
+        <v>672</v>
+      </c>
+      <c r="G419" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="H419" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="I419" s="2" t="s">
+        <v>675</v>
+      </c>
     </row>
     <row r="420">
-      <c r="F420" s="1"/>
+      <c r="A420" s="3">
+        <v>43059.534291874996</v>
+      </c>
+      <c r="B420" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C420" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D420" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E420" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F420" s="10" t="s">
+        <v>676</v>
+      </c>
+      <c r="G420" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="H420" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="I420" s="2" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="421">
-      <c r="F421" s="1"/>
+      <c r="A421" s="3">
+        <v>43059.5343033449</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E421" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F421" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="G421" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H421" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="I421" s="2" t="s">
+        <v>679</v>
+      </c>
     </row>
     <row r="422">
-      <c r="F422" s="1"/>
+      <c r="A422" s="3">
+        <v>43065.74079520833</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C422" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D422" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E422" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F422" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="G422" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="H422" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="I422" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="423">
-      <c r="F423" s="1"/>
+      <c r="A423" s="3">
+        <v>43066.51617924769</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C423" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D423" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E423" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F423" s="10" t="s">
+        <v>681</v>
+      </c>
+      <c r="G423" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="H423" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="I423" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="424">
       <c r="F424" s="1"/>
@@ -13536,6 +13943,45 @@
     </row>
     <row r="510">
       <c r="F510" s="1"/>
+    </row>
+    <row r="511">
+      <c r="F511" s="1"/>
+    </row>
+    <row r="512">
+      <c r="F512" s="1"/>
+    </row>
+    <row r="513">
+      <c r="F513" s="1"/>
+    </row>
+    <row r="514">
+      <c r="F514" s="1"/>
+    </row>
+    <row r="515">
+      <c r="F515" s="1"/>
+    </row>
+    <row r="516">
+      <c r="F516" s="1"/>
+    </row>
+    <row r="517">
+      <c r="F517" s="1"/>
+    </row>
+    <row r="518">
+      <c r="F518" s="1"/>
+    </row>
+    <row r="519">
+      <c r="F519" s="1"/>
+    </row>
+    <row r="520">
+      <c r="F520" s="1"/>
+    </row>
+    <row r="521">
+      <c r="F521" s="1"/>
+    </row>
+    <row r="522">
+      <c r="F522" s="1"/>
+    </row>
+    <row r="523">
+      <c r="F523" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -13950,9 +14396,22 @@
     <hyperlink r:id="rId410" ref="F408"/>
     <hyperlink r:id="rId411" ref="F409"/>
     <hyperlink r:id="rId412" ref="F410"/>
+    <hyperlink r:id="rId413" ref="F411"/>
+    <hyperlink r:id="rId414" ref="F412"/>
+    <hyperlink r:id="rId415" ref="F413"/>
+    <hyperlink r:id="rId416" ref="F414"/>
+    <hyperlink r:id="rId417" ref="F415"/>
+    <hyperlink r:id="rId418" ref="F416"/>
+    <hyperlink r:id="rId419" ref="F417"/>
+    <hyperlink r:id="rId420" ref="F418"/>
+    <hyperlink r:id="rId421" ref="F419"/>
+    <hyperlink r:id="rId422" ref="F420"/>
+    <hyperlink r:id="rId423" ref="F421"/>
+    <hyperlink r:id="rId424" ref="F422"/>
+    <hyperlink r:id="rId425" ref="F423"/>
   </hyperlinks>
-  <drawing r:id="rId413"/>
-  <legacyDrawing r:id="rId414"/>
+  <drawing r:id="rId426"/>
+  <legacyDrawing r:id="rId427"/>
 </worksheet>
 </file>
 
@@ -13973,7 +14432,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2">
         <v>2.0</v>
@@ -13981,7 +14440,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>3.0</v>
@@ -13989,15 +14448,15 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="B5">
         <v>4.0</v>
@@ -14005,7 +14464,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B6">
         <v>11.0</v>
@@ -14013,7 +14472,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="B7">
         <v>13.0</v>
@@ -14021,23 +14480,23 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B8">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B9">
-        <v>16.0</v>
+        <v>17.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="B10">
         <v>17.0</v>
@@ -14045,23 +14504,23 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="B11">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="B12">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>18.0</v>
@@ -14069,7 +14528,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="B14">
         <v>19.0</v>
@@ -14077,7 +14536,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>148</v>
       </c>
       <c r="B15">
         <v>19.0</v>
@@ -14085,15 +14544,15 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>148</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B17">
         <v>20.0</v>
@@ -14101,7 +14560,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B18">
         <v>20.0</v>
@@ -14109,23 +14568,23 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="B19">
-        <v>20.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B20">
-        <v>21.0</v>
+        <v>22.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>22.0</v>
@@ -14133,7 +14592,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>22.0</v>
@@ -14141,7 +14600,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B23">
         <v>23.0</v>
@@ -14149,34 +14608,34 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B24">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="B25">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B26">
-        <v>24.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>655</v>
+        <v>684</v>
       </c>
       <c r="B27">
-        <v>409.0</v>
+        <v>422.0</v>
       </c>
     </row>
   </sheetData>
@@ -14193,15 +14652,15 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>129</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>130</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="6" t="s">
-        <v>73</v>
+        <v>12</v>
       </c>
       <c r="B2" s="6">
         <v>1.0</v>
@@ -14209,7 +14668,7 @@
     </row>
     <row r="3">
       <c r="A3" s="6" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6">
         <v>1.0</v>
@@ -14217,7 +14676,7 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="6">
         <v>1.0</v>
@@ -14225,7 +14684,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
@@ -14233,7 +14692,7 @@
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B6" s="7">
         <v>2.0</v>
@@ -14241,7 +14700,7 @@
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B7" s="7">
         <v>2.0</v>
@@ -14249,7 +14708,7 @@
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7">
         <v>2.0</v>
@@ -14257,7 +14716,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>104</v>
+        <v>26</v>
       </c>
       <c r="B9" s="2">
         <v>3.0</v>
@@ -14265,7 +14724,7 @@
     </row>
     <row r="10">
       <c r="A10" s="6" t="s">
-        <v>132</v>
+        <v>27</v>
       </c>
       <c r="B10" s="6">
         <v>3.0</v>
@@ -14273,7 +14732,7 @@
     </row>
     <row r="11">
       <c r="A11" s="8" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B11" s="8">
         <v>3.0</v>
@@ -14281,7 +14740,7 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="B12" s="9">
         <v>3.0</v>
@@ -14289,7 +14748,7 @@
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="B13" s="7">
         <v>4.0</v>
@@ -14297,7 +14756,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="B14" s="2">
         <v>4.0</v>
@@ -14305,7 +14764,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="B15" s="2">
         <v>4.0</v>
@@ -14313,7 +14772,7 @@
     </row>
     <row r="16">
       <c r="A16" s="6" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6">
         <v>4.0</v>
@@ -14321,7 +14780,7 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="B17" s="2">
         <v>5.0</v>
@@ -14329,7 +14788,7 @@
     </row>
     <row r="18">
       <c r="A18" s="6" t="s">
-        <v>135</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6">
         <v>5.0</v>
@@ -14337,7 +14796,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B19" s="2">
         <v>5.0</v>
@@ -14345,7 +14804,7 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="B20" s="2">
         <v>5.0</v>
@@ -14353,7 +14812,7 @@
     </row>
     <row r="21">
       <c r="A21" s="6" t="s">
-        <v>136</v>
+        <v>42</v>
       </c>
       <c r="B21" s="6">
         <v>6.0</v>
@@ -14361,7 +14820,7 @@
     </row>
     <row r="22">
       <c r="A22" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B22" s="8">
         <v>6.0</v>
@@ -14369,7 +14828,7 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2">
         <v>6.0</v>
@@ -14377,7 +14836,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2">
         <v>6.0</v>

--- a/dox/COM106 - Share Submissions (Responses).xlsx
+++ b/dox/COM106 - Share Submissions (Responses).xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2690" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="688">
   <si>
     <t>Timestamp</t>
   </si>
@@ -280,24 +280,36 @@
     <t>Principle of Design 1</t>
   </si>
   <si>
+    <t>who</t>
+  </si>
+  <si>
     <t>Principle of Design 2</t>
   </si>
   <si>
+    <t>group</t>
+  </si>
+  <si>
     <t>Principle of Design 3</t>
   </si>
   <si>
     <t>caption</t>
   </si>
   <si>
-    <t>who</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
     <t>Aleksander Parks</t>
   </si>
   <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>Samantha Rishe</t>
+  </si>
+  <si>
+    <t>Seth VanDerbeck</t>
+  </si>
+  <si>
+    <t>Briana Ruiz</t>
+  </si>
+  <si>
     <t>steve@sunyit.edu</t>
   </si>
   <si>
@@ -313,16 +325,58 @@
     <t>https://goo.gl/forms/xgsoWet1RtWZtliT2</t>
   </si>
   <si>
-    <t>max</t>
-  </si>
-  <si>
-    <t>Samantha Rishe</t>
-  </si>
-  <si>
-    <t>Seth VanDerbeck</t>
-  </si>
-  <si>
-    <t>Briana Ruiz</t>
+    <t>Michael Robinson</t>
+  </si>
+  <si>
+    <t>Thomas Gross</t>
+  </si>
+  <si>
+    <t>Brandon Lavoie</t>
+  </si>
+  <si>
+    <t>chris</t>
+  </si>
+  <si>
+    <t>Devonte Griffiths</t>
+  </si>
+  <si>
+    <t>Ismar Omeragic</t>
+  </si>
+  <si>
+    <t>Jacob Rush</t>
+  </si>
+  <si>
+    <t>Jason Harrington</t>
+  </si>
+  <si>
+    <t>Joseph Elahi</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>Joshua Moskowitz</t>
+  </si>
+  <si>
+    <t>justin</t>
+  </si>
+  <si>
+    <t>Kyle Frenette</t>
+  </si>
+  <si>
+    <t>Lorenzo Kwolek</t>
+  </si>
+  <si>
+    <t>justin d</t>
+  </si>
+  <si>
+    <t>Nicholas A. Miller</t>
+  </si>
+  <si>
+    <t>Reynaldo Mercado</t>
+  </si>
+  <si>
+    <t>Robert Santos</t>
   </si>
   <si>
     <t>rishes@sunyit.edu</t>
@@ -331,81 +385,27 @@
     <t>https://docs.google.com/a/sunyit.edu/document/d/1Dj6Cith2tVYys_Rxwgx59R_dgOITIKf8e7g0xpP2ZB8/edit?usp=sharing</t>
   </si>
   <si>
-    <t>Michael Robinson</t>
-  </si>
-  <si>
-    <t>Thomas Gross</t>
-  </si>
-  <si>
-    <t>Brandon Lavoie</t>
-  </si>
-  <si>
-    <t>chris</t>
-  </si>
-  <si>
-    <t>Devonte Griffiths</t>
-  </si>
-  <si>
     <t>https://docs.google.com/a/sunyit.edu/document/d/1DnZHFGgxzJVUvgehECkV4eVDp4X_rf5uvZDRI-DEvpg/edit?usp=sharing</t>
   </si>
   <si>
-    <t>Ismar Omeragic</t>
-  </si>
-  <si>
-    <t>Jacob Rush</t>
-  </si>
-  <si>
     <t>koehlea@sunyit.edu</t>
   </si>
   <si>
     <t>Aleksander Parks``</t>
   </si>
   <si>
-    <t>Jason Harrington</t>
-  </si>
-  <si>
-    <t>Joseph Elahi</t>
-  </si>
-  <si>
-    <t>thomas</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/14S6dyAhYmkaWOOhKD2qFDK9XDIZ8ZtSBujWCjpdJWa8/edit?usp=sharing</t>
   </si>
   <si>
-    <t>Joshua Moskowitz</t>
-  </si>
-  <si>
-    <t>justin</t>
-  </si>
-  <si>
-    <t>Kyle Frenette</t>
-  </si>
-  <si>
-    <t>Lorenzo Kwolek</t>
-  </si>
-  <si>
-    <t>justin d</t>
-  </si>
-  <si>
     <t>kwolekl@sunyit.edu</t>
   </si>
   <si>
-    <t>Nicholas A. Miller</t>
-  </si>
-  <si>
     <t>Project 1: Digital Autobiography</t>
   </si>
   <si>
-    <t>Reynaldo Mercado</t>
-  </si>
-  <si>
     <t>https://docs.google.com/document/d/1hQRveBLyFPrtnZvwEwefWMupkG5duaG_7f2yNpVU7aA/edit?usp=sharing</t>
   </si>
   <si>
-    <t>Robert Santos</t>
-  </si>
-  <si>
     <t>elahij@sunyit.edu</t>
   </si>
   <si>
@@ -2309,6 +2309,15 @@
   </si>
   <si>
     <t>Expectation Effect</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/a/sunyit.edu/document/d/1oe594rjR9heW3-fpxd7C4emPjQwUtOPAkGbTfW2mQGQ/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>Veblen effect</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Inverted pyramid</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2391,22 +2400,22 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
@@ -2555,206 +2564,206 @@
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>42977.47652435185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J199" si="1">C2&amp;" "&amp;D2&amp;" "&amp;E2</f>
         <v>Steve Schneider Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>42977.5126252662</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>42977.51276545139</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
         <v>Steve Schneider Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>42977.512782986116</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks`` Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>42977.51282373843</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Testing</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>42977.514136631944</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Testing</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>42977.51414791666</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
         <v>Briana Ruiz Project 1: Digital Autobiography Testing</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>42977.514236504634</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2764,105 +2773,105 @@
         <v>54</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
         <v>Cesar Marte Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>42977.51424278935</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>42977.5144069213</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>42977.51522537037</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
       <c r="J12" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 1: Digital Autobiography Testing</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>42977.51535204861</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -2872,24 +2881,24 @@
         <v>63</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>42977.519048125</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2899,51 +2908,51 @@
         <v>66</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>42977.51954361111</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 1: Digital Autobiography Testing</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>42977.52107516203</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -2953,78 +2962,78 @@
         <v>72</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>42977.52262145834</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Testing the forms submissions Testing</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>42977.53003309028</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Testing</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>42977.644854259255</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3034,78 +3043,78 @@
         <v>77</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
         <v>Justin Cristaldi Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>42977.77237605324</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>42977.85496556713</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>42978.5807827199</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3115,159 +3124,159 @@
         <v>83</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
       <c r="J22" t="str">
         <f t="shared" si="1"/>
         <v>Justin Delossantos Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>42978.85489141203</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>42978.86182122685</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>42978.86613916667</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>42978.900903483795</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
       <c r="J26" t="str">
         <f t="shared" si="1"/>
         <v>Briana Ruiz Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>42991.89821458333</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
       <c r="J27" t="str">
         <f t="shared" si="1"/>
         <v>Reynaldo Mercado Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>42978.98871560185</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3277,78 +3286,78 @@
         <v>54</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
         <v>Cesar Marte Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>42979.386249884265</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>42979.45260171297</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>42979.472461944446</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3358,24 +3367,24 @@
         <v>77</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
         <v>Justin Cristaldi Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>42979.48516773148</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3385,78 +3394,78 @@
         <v>66</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>42979.50422831019</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>42979.60285877315</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
       <c r="J34" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>42979.66814349537</v>
       </c>
       <c r="B35" s="2" t="s">
@@ -3466,132 +3475,132 @@
         <v>98</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington  Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>42979.8324583912</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
       <c r="J36" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>42979.8604953125</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
       <c r="J37" t="str">
         <f t="shared" si="1"/>
         <v>Devonte Griffiths Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>42983.41199011574</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
       <c r="J38" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>42984.45545958333</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
       <c r="J39" t="str">
         <f t="shared" si="1"/>
         <v>Jacob Rush Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>42984.510367083334</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -3601,24 +3610,24 @@
         <v>108</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
       <c r="J40" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>42984.534895868055</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -3628,24 +3637,24 @@
         <v>108</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
       <c r="J41" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>42984.54790497685</v>
       </c>
       <c r="B42" s="2" t="s">
@@ -3655,78 +3664,78 @@
         <v>63</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
       <c r="J42" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>42984.56299842593</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
       <c r="J43" t="str">
         <f t="shared" si="1"/>
         <v>Brandon Lavoie Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>42984.568960370365</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
       <c r="J44" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>42984.920466678246</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -3736,240 +3745,240 @@
         <v>66</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
       <c r="J45" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>42985.66404517361</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
       <c r="J46" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>42985.665856493055</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
       <c r="J47" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>42985.73683637731</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
       <c r="J48" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>42985.798882372685</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
       <c r="J49" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>42985.885241875</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
       <c r="J50" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>42985.91414184027</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
       <c r="J51" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>42985.93806489583</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
       <c r="J52" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="4">
         <v>42986.428835625</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="G53" s="5"/>
-      <c r="H53" s="5"/>
-      <c r="I53" s="5"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
       <c r="J53" t="str">
         <f t="shared" si="1"/>
         <v>Briana Ruiz Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="4">
         <v>42986.446669375</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -3979,267 +3988,267 @@
         <v>63</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="5"/>
-      <c r="H54" s="5"/>
-      <c r="I54" s="5"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
       <c r="J54" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="4">
         <v>42986.45487799769</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
       <c r="J55" t="str">
         <f t="shared" si="1"/>
         <v>Jacob Rush Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="4">
         <v>42986.457562766205</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
       <c r="J56" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="3">
+      <c r="A57" s="4">
         <v>42986.47779809027</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
       <c r="J57" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="4">
         <v>42986.864307905096</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
       <c r="J58" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="4">
         <v>42986.878628900464</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
       <c r="J59" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="3">
+      <c r="A60" s="4">
         <v>42986.96649155093</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
       <c r="J60" t="str">
         <f t="shared" si="1"/>
         <v>Reynaldo Mercado Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="4">
         <v>42986.97037380787</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="5"/>
-      <c r="H61" s="5"/>
-      <c r="I61" s="5"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
       <c r="J61" t="str">
         <f t="shared" si="1"/>
         <v>Devonte Griffiths Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="4">
         <v>42988.89763712963</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
       <c r="J62" t="str">
         <f t="shared" si="1"/>
         <v>Brandon Lavoie Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="4">
         <v>42990.45970872685</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
       <c r="J63" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="3">
+      <c r="A64" s="4">
         <v>42990.76214673611</v>
       </c>
       <c r="B64" s="2" t="s">
@@ -4249,159 +4258,159 @@
         <v>108</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
       <c r="J64" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="3">
+      <c r="A65" s="4">
         <v>42990.87266833334</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
       <c r="J65" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="3">
+      <c r="A66" s="4">
         <v>42990.87338417824</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>135</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="G66" s="5"/>
-      <c r="H66" s="5"/>
-      <c r="I66" s="5"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
       <c r="J66" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek (Part 2) Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="4">
         <v>42990.918149097226</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
       <c r="J67" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="3">
+      <c r="A68" s="4">
         <v>42990.9730096875</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
       <c r="J68" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="3">
+      <c r="A69" s="4">
         <v>42990.9808762037</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="G69" s="5"/>
-      <c r="H69" s="5"/>
-      <c r="I69" s="5"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
       <c r="J69" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="3">
+      <c r="A70" s="4">
         <v>42990.99362606481</v>
       </c>
       <c r="B70" s="2" t="s">
@@ -4411,132 +4420,132 @@
         <v>140</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="G70" s="5"/>
-      <c r="H70" s="5"/>
-      <c r="I70" s="5"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
       <c r="J70" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDFerbeck Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="3">
+      <c r="A71" s="4">
         <v>42991.08832072916</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
       <c r="J71" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="3">
+      <c r="A72" s="4">
         <v>42991.505969363425</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="G72" s="5"/>
-      <c r="H72" s="5"/>
-      <c r="I72" s="5"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
       <c r="J72" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="3">
+      <c r="A73" s="4">
         <v>42991.52066527778</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
       <c r="J73" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="3">
+      <c r="A74" s="4">
         <v>42991.54149703703</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F74" s="4" t="s">
+      <c r="F74" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G74" s="5"/>
-      <c r="H74" s="5"/>
-      <c r="I74" s="5"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
       <c r="J74" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="3">
+      <c r="A75" s="4">
         <v>42991.54237865741</v>
       </c>
       <c r="B75" s="2" t="s">
@@ -4546,78 +4555,78 @@
         <v>108</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="4" t="s">
+      <c r="F75" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
       <c r="J75" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="3">
+      <c r="A76" s="4">
         <v>42991.72949979166</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F76" s="4" t="s">
+      <c r="F76" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G76" s="5"/>
-      <c r="H76" s="5"/>
-      <c r="I76" s="5"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
       <c r="J76" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 1: Digital Autobiography Design</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="3">
+      <c r="A77" s="4">
         <v>42991.7335202199</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F77" s="4" t="s">
+      <c r="F77" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
       <c r="J77" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 1: Digital Autobiography Conceptualization</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="3">
+      <c r="A78" s="4">
         <v>42991.75092872685</v>
       </c>
       <c r="B78" s="2" t="s">
@@ -4627,348 +4636,348 @@
         <v>66</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F78" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
       <c r="J78" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="3">
+      <c r="A79" s="4">
         <v>42991.85687971065</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="4" t="s">
+      <c r="F79" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
       <c r="J79" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="3">
+      <c r="A80" s="4">
         <v>42991.870863923614</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F80" s="4" t="s">
+      <c r="F80" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
       <c r="J80" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="3">
+      <c r="A81" s="4">
         <v>42991.87206616898</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F81" s="4" t="s">
+      <c r="F81" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="G81" s="5"/>
-      <c r="H81" s="5"/>
-      <c r="I81" s="5"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
       <c r="J81" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="3">
+      <c r="A82" s="4">
         <v>42991.8979440625</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F82" s="4" t="s">
+      <c r="F82" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
       <c r="J82" t="str">
         <f t="shared" si="1"/>
         <v>Reynaldo Mercado Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="3">
+      <c r="A83" s="4">
         <v>42991.99660442129</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F83" s="4" t="s">
+      <c r="F83" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G83" s="5"/>
-      <c r="H83" s="5"/>
-      <c r="I83" s="5"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
       <c r="J83" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="3">
+      <c r="A84" s="4">
         <v>42991.99735826389</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F84" s="4" t="s">
+      <c r="F84" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G84" s="5"/>
-      <c r="H84" s="5"/>
-      <c r="I84" s="5"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
       <c r="J84" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="3">
+      <c r="A85" s="4">
         <v>42992.40794709491</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
       <c r="J85" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="3">
+      <c r="A86" s="4">
         <v>42992.712311724536</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="4" t="s">
+      <c r="F86" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="G86" s="5"/>
-      <c r="H86" s="5"/>
-      <c r="I86" s="5"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
       <c r="J86" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="3">
+      <c r="A87" s="4">
         <v>42992.97761108796</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F87" s="4" t="s">
+      <c r="F87" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="G87" s="5"/>
-      <c r="H87" s="5"/>
-      <c r="I87" s="5"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
       <c r="J87" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="3">
+      <c r="A88" s="4">
         <v>42993.033810925925</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F88" s="4" t="s">
+      <c r="F88" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
       <c r="J88" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="3">
+      <c r="A89" s="4">
         <v>42993.495321712966</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F89" s="4" t="s">
+      <c r="F89" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
       <c r="J89" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="3">
+      <c r="A90" s="4">
         <v>42993.649967627316</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F90" s="4" t="s">
+      <c r="F90" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
       <c r="J90" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="3">
+      <c r="A91" s="4">
         <v>42993.765578136576</v>
       </c>
       <c r="B91" s="2" t="s">
@@ -4978,193 +4987,193 @@
         <v>66</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F91" s="4" t="s">
+      <c r="F91" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
       <c r="J91" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="3">
+      <c r="A92" s="4">
         <v>42993.82066262732</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F92" s="4" t="s">
+      <c r="F92" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
       <c r="J92" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="3">
+      <c r="A93" s="4">
         <v>42993.927877870374</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F93" s="4" t="s">
+      <c r="F93" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
       <c r="J93" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="3">
+      <c r="A94" s="4">
         <v>42994.81872634259</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G94" s="5"/>
-      <c r="H94" s="5"/>
-      <c r="I94" s="5"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
       <c r="J94" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 2: Digital World Testing</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="3">
+      <c r="A95" s="4">
         <v>42995.53680260417</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="G95" s="5"/>
-      <c r="H95" s="5"/>
-      <c r="I95" s="5"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
       <c r="J95" t="str">
         <f t="shared" si="1"/>
         <v>Jacob Rush Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="3">
+      <c r="A96" s="4">
         <v>42995.66447233796</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F96" s="4" t="s">
+      <c r="F96" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G96" s="5"/>
-      <c r="H96" s="5"/>
-      <c r="I96" s="5"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
       <c r="J96" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="3">
+      <c r="A97" s="4">
         <v>42996.007332187495</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F97" s="4" t="s">
+      <c r="F97" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
       <c r="J97" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="3">
+      <c r="A98" s="4">
         <v>42996.32159869213</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>166</v>
@@ -5172,19 +5181,19 @@
       <c r="E98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F98" s="4" t="s">
+      <c r="F98" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
       <c r="J98" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="3">
+      <c r="A99" s="4">
         <v>42996.51386398148</v>
       </c>
       <c r="B99" s="2" t="s">
@@ -5199,19 +5208,19 @@
       <c r="E99" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F99" s="4" t="s">
+      <c r="F99" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="G99" s="5"/>
-      <c r="H99" s="5"/>
-      <c r="I99" s="5"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
       <c r="J99" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="3">
+      <c r="A100" s="4">
         <v>42996.63120967592</v>
       </c>
       <c r="B100" s="2" t="s">
@@ -5221,24 +5230,24 @@
         <v>63</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F100" s="4" t="s">
+      <c r="F100" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="G100" s="5"/>
-      <c r="H100" s="5"/>
-      <c r="I100" s="5"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="8"/>
+      <c r="I100" s="8"/>
       <c r="J100" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="3">
+      <c r="A101" s="4">
         <v>42996.661870185184</v>
       </c>
       <c r="B101" s="2" t="s">
@@ -5253,26 +5262,26 @@
       <c r="E101" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F101" s="4" t="s">
+      <c r="F101" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G101" s="5"/>
-      <c r="H101" s="5"/>
-      <c r="I101" s="5"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="8"/>
+      <c r="I101" s="8"/>
       <c r="J101" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="3">
+      <c r="A102" s="4">
         <v>42996.74573278935</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>166</v>
@@ -5280,34 +5289,34 @@
       <c r="E102" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F102" s="4" t="s">
+      <c r="F102" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G102" s="5"/>
-      <c r="H102" s="5"/>
-      <c r="I102" s="5"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="8"/>
+      <c r="I102" s="8"/>
       <c r="J102" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="3">
+      <c r="A103" s="4">
         <v>43026.54227721065</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F103" s="4" t="s">
+      <c r="F103" s="6" t="s">
         <v>176</v>
       </c>
       <c r="G103" s="2" t="s">
@@ -5325,14 +5334,14 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="3">
+      <c r="A104" s="4">
         <v>42997.54833979167</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>166</v>
@@ -5340,26 +5349,26 @@
       <c r="E104" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F104" s="4" t="s">
+      <c r="F104" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="G104" s="5"/>
-      <c r="H104" s="5"/>
-      <c r="I104" s="5"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="8"/>
+      <c r="I104" s="8"/>
       <c r="J104" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="3">
+      <c r="A105" s="4">
         <v>42997.67555732639</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>166</v>
@@ -5367,26 +5376,26 @@
       <c r="E105" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F105" s="4" t="s">
+      <c r="F105" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
       <c r="J105" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="3">
+      <c r="A106" s="4">
         <v>42997.804888865736</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D106" s="2" t="s">
         <v>166</v>
@@ -5394,19 +5403,19 @@
       <c r="E106" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F106" s="4" t="s">
+      <c r="F106" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="G106" s="5"/>
-      <c r="H106" s="5"/>
-      <c r="I106" s="5"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
       <c r="J106" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="3">
+      <c r="A107" s="4">
         <v>42997.81239038194</v>
       </c>
       <c r="B107" s="2" t="s">
@@ -5421,26 +5430,26 @@
       <c r="E107" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F107" s="4" t="s">
+      <c r="F107" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="8"/>
+      <c r="I107" s="8"/>
       <c r="J107" t="str">
         <f t="shared" si="1"/>
         <v>Justin Delossantos Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="3">
+      <c r="A108" s="4">
         <v>42997.857809837966</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D108" s="2" t="s">
         <v>166</v>
@@ -5448,26 +5457,26 @@
       <c r="E108" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F108" s="4" t="s">
+      <c r="F108" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="G108" s="5"/>
-      <c r="H108" s="5"/>
-      <c r="I108" s="5"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="8"/>
+      <c r="I108" s="8"/>
       <c r="J108" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="3">
+      <c r="A109" s="4">
         <v>42997.86643135417</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D109" s="2" t="s">
         <v>166</v>
@@ -5475,19 +5484,19 @@
       <c r="E109" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F109" s="4" t="s">
+      <c r="F109" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="8"/>
+      <c r="I109" s="8"/>
       <c r="J109" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="3">
+      <c r="A110" s="4">
         <v>42998.04351944444</v>
       </c>
       <c r="B110" s="2" t="s">
@@ -5502,19 +5511,19 @@
       <c r="E110" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F110" s="4" t="s">
+      <c r="F110" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="G110" s="5"/>
-      <c r="H110" s="5"/>
-      <c r="I110" s="5"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="8"/>
+      <c r="I110" s="8"/>
       <c r="J110" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinsom Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="3">
+      <c r="A111" s="4">
         <v>42998.04690887731</v>
       </c>
       <c r="B111" s="2" t="s">
@@ -5529,26 +5538,26 @@
       <c r="E111" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F111" s="4" t="s">
+      <c r="F111" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="G111" s="5"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="8"/>
+      <c r="I111" s="8"/>
       <c r="J111" t="str">
         <f t="shared" si="1"/>
         <v>Briana Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="3">
+      <c r="A112" s="4">
         <v>42998.37458596065</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>166</v>
@@ -5556,26 +5565,26 @@
       <c r="E112" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F112" s="4" t="s">
+      <c r="F112" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="G112" s="5"/>
-      <c r="H112" s="5"/>
-      <c r="I112" s="5"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8"/>
+      <c r="I112" s="8"/>
       <c r="J112" t="str">
         <f t="shared" si="1"/>
         <v>Devonte Griffiths Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="3">
+      <c r="A113" s="4">
         <v>42998.37676442129</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>166</v>
@@ -5583,26 +5592,26 @@
       <c r="E113" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F113" s="4" t="s">
+      <c r="F113" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="8"/>
+      <c r="I113" s="8"/>
       <c r="J113" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="3">
+      <c r="A114" s="4">
         <v>42998.38166079861</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D114" s="2" t="s">
         <v>166</v>
@@ -5610,26 +5619,26 @@
       <c r="E114" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F114" s="4" t="s">
+      <c r="F114" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="8"/>
+      <c r="I114" s="8"/>
       <c r="J114" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="3">
+      <c r="A115" s="4">
         <v>42998.44613087963</v>
       </c>
       <c r="B115" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D115" s="2" t="s">
         <v>166</v>
@@ -5637,23 +5646,23 @@
       <c r="E115" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F115" s="4" t="s">
+      <c r="F115" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G115" s="5"/>
-      <c r="H115" s="5"/>
-      <c r="I115" s="5"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
       <c r="J115" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="3">
+      <c r="A116" s="4">
         <v>42998.50779091435</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>12</v>
@@ -5664,53 +5673,53 @@
       <c r="E116" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F116" s="4" t="s">
+      <c r="F116" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="8"/>
+      <c r="I116" s="8"/>
       <c r="J116" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="3">
+      <c r="A117" s="4">
         <v>42998.535242349535</v>
       </c>
       <c r="B117" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F117" s="4" t="s">
+      <c r="F117" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="8"/>
+      <c r="I117" s="8"/>
       <c r="J117" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="3">
+      <c r="A118" s="4">
         <v>42998.54419594907</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>166</v>
@@ -5718,19 +5727,19 @@
       <c r="E118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="4" t="s">
+      <c r="F118" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="G118" s="5"/>
-      <c r="H118" s="5"/>
-      <c r="I118" s="5"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="8"/>
+      <c r="I118" s="8"/>
       <c r="J118" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="3">
+      <c r="A119" s="4">
         <v>42998.58504841435</v>
       </c>
       <c r="B119" s="2" t="s">
@@ -5740,31 +5749,31 @@
         <v>188</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F119" s="4" t="s">
+      <c r="F119" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="8"/>
+      <c r="I119" s="8"/>
       <c r="J119" t="str">
         <f t="shared" si="1"/>
         <v>Briana Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="3">
+      <c r="A120" s="4">
         <v>42998.943790324076</v>
       </c>
       <c r="B120" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D120" s="2" t="s">
         <v>166</v>
@@ -5772,80 +5781,80 @@
       <c r="E120" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F120" s="4" t="s">
+      <c r="F120" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G120" s="5"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="5"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="8"/>
+      <c r="I120" s="8"/>
       <c r="J120" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="3">
+      <c r="A121" s="4">
         <v>42999.43447146991</v>
       </c>
       <c r="B121" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F121" s="4" t="s">
+      <c r="F121" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="G121" s="5"/>
-      <c r="H121" s="5"/>
-      <c r="I121" s="5"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="8"/>
+      <c r="I121" s="8"/>
       <c r="J121" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="3">
+      <c r="A122" s="4">
         <v>42999.67965388889</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F122" s="4" t="s">
+      <c r="F122" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="G122" s="5"/>
-      <c r="H122" s="5"/>
-      <c r="I122" s="5"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="8"/>
+      <c r="I122" s="8"/>
       <c r="J122" t="str">
         <f t="shared" si="1"/>
         <v>Devonte Griffiths Project 1: Digital Autobiography Production</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="3">
+      <c r="A123" s="4">
         <v>42999.990791874996</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>166</v>
@@ -5853,26 +5862,26 @@
       <c r="E123" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F123" s="4" t="s">
+      <c r="F123" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="8"/>
+      <c r="I123" s="8"/>
       <c r="J123" t="str">
         <f t="shared" si="1"/>
         <v>Reynaldo Mercado Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="3">
+      <c r="A124" s="4">
         <v>43003.50071064815</v>
       </c>
       <c r="B124" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>166</v>
@@ -5880,26 +5889,26 @@
       <c r="E124" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F124" s="4" t="s">
+      <c r="F124" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="G124" s="5"/>
-      <c r="H124" s="5"/>
-      <c r="I124" s="5"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
       <c r="J124" t="str">
         <f t="shared" si="1"/>
         <v>Jacob Rush Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="3">
+      <c r="A125" s="4">
         <v>43003.52701972223</v>
       </c>
       <c r="B125" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D125" s="2" t="s">
         <v>166</v>
@@ -5907,26 +5916,26 @@
       <c r="E125" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F125" s="4" t="s">
+      <c r="F125" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="8"/>
       <c r="J125" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="3">
+      <c r="A126" s="4">
         <v>43003.52842699074</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>166</v>
@@ -5934,19 +5943,19 @@
       <c r="E126" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F126" s="4" t="s">
+      <c r="F126" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="G126" s="5"/>
-      <c r="H126" s="5"/>
-      <c r="I126" s="5"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="8"/>
+      <c r="I126" s="8"/>
       <c r="J126" t="str">
         <f t="shared" si="1"/>
         <v>Brandon Lavoie Project 2: Digital World Conceptualization</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="3">
+      <c r="A127" s="4">
         <v>43003.54070604166</v>
       </c>
       <c r="B127" s="2" t="s">
@@ -5961,19 +5970,19 @@
       <c r="E127" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F127" s="4" t="s">
+      <c r="F127" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="G127" s="5"/>
-      <c r="H127" s="5"/>
-      <c r="I127" s="5"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="8"/>
+      <c r="I127" s="8"/>
       <c r="J127" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette  Project 2: Digital World Design</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="3">
+      <c r="A128" s="4">
         <v>43003.54181190972</v>
       </c>
       <c r="B128" s="2" t="s">
@@ -5988,19 +5997,19 @@
       <c r="E128" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F128" s="4" t="s">
+      <c r="F128" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="G128" s="5"/>
-      <c r="H128" s="5"/>
-      <c r="I128" s="5"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="8"/>
+      <c r="I128" s="8"/>
       <c r="J128" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 2: Digital World Design</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="3">
+      <c r="A129" s="4">
         <v>43005.50324385417</v>
       </c>
       <c r="B129" s="2" t="s">
@@ -6015,7 +6024,7 @@
       <c r="E129" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F129" s="4" t="s">
+      <c r="F129" s="6" t="s">
         <v>207</v>
       </c>
       <c r="G129" s="2" t="s">
@@ -6033,7 +6042,7 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="3">
+      <c r="A130" s="4">
         <v>43003.910115520834</v>
       </c>
       <c r="B130" s="2" t="s">
@@ -6043,31 +6052,31 @@
         <v>63</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E130" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F130" s="4" t="s">
+      <c r="F130" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="8"/>
+      <c r="I130" s="8"/>
       <c r="J130" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Project 1: Digital Autobiography Critique</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="3">
+      <c r="A131" s="4">
         <v>43005.50431103009</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>166</v>
@@ -6075,7 +6084,7 @@
       <c r="E131" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F131" s="4" t="s">
+      <c r="F131" s="6" t="s">
         <v>212</v>
       </c>
       <c r="G131" s="2" t="s">
@@ -6093,14 +6102,14 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="3">
+      <c r="A132" s="4">
         <v>43005.503540798614</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>166</v>
@@ -6108,7 +6117,7 @@
       <c r="E132" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F132" s="4" t="s">
+      <c r="F132" s="6" t="s">
         <v>216</v>
       </c>
       <c r="G132" s="2" t="s">
@@ -6126,14 +6135,14 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="3">
+      <c r="A133" s="4">
         <v>43004.73214638889</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D133" s="2" t="s">
         <v>166</v>
@@ -6141,26 +6150,26 @@
       <c r="E133" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F133" s="4" t="s">
+      <c r="F133" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="G133" s="5"/>
-      <c r="H133" s="5"/>
-      <c r="I133" s="5"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="8"/>
+      <c r="I133" s="8"/>
       <c r="J133" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 2: Digital World Design</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="3">
+      <c r="A134" s="4">
         <v>43005.5037099537</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>166</v>
@@ -6168,7 +6177,7 @@
       <c r="E134" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F134" s="4" t="s">
+      <c r="F134" s="6" t="s">
         <v>221</v>
       </c>
       <c r="G134" s="2" t="s">
@@ -6186,14 +6195,14 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="3">
+      <c r="A135" s="4">
         <v>43005.504199953706</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>166</v>
@@ -6201,7 +6210,7 @@
       <c r="E135" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F135" s="4" t="s">
+      <c r="F135" s="6" t="s">
         <v>224</v>
       </c>
       <c r="G135" s="2" t="s">
@@ -6219,14 +6228,14 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="3">
+      <c r="A136" s="4">
         <v>43004.79810296296</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>166</v>
@@ -6234,26 +6243,26 @@
       <c r="E136" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F136" s="4" t="s">
+      <c r="F136" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="G136" s="5"/>
-      <c r="H136" s="5"/>
-      <c r="I136" s="5"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="8"/>
+      <c r="I136" s="8"/>
       <c r="J136" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 2: Digital World Design</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="3">
+      <c r="A137" s="4">
         <v>43004.88278158565</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>166</v>
@@ -6261,26 +6270,26 @@
       <c r="E137" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F137" s="4" t="s">
+      <c r="F137" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="G137" s="5"/>
-      <c r="H137" s="5"/>
-      <c r="I137" s="5"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="8"/>
+      <c r="I137" s="8"/>
       <c r="J137" t="str">
         <f t="shared" si="1"/>
         <v>Briana Ruiz Project 2: Digital World Design</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="3">
+      <c r="A138" s="4">
         <v>43004.90225034722</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>166</v>
@@ -6288,26 +6297,26 @@
       <c r="E138" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F138" s="4" t="s">
+      <c r="F138" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="8"/>
+      <c r="I138" s="8"/>
       <c r="J138" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 2: Digital World Design</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="3">
+      <c r="A139" s="4">
         <v>43005.50366528935</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>166</v>
@@ -6315,7 +6324,7 @@
       <c r="E139" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F139" s="4" t="s">
+      <c r="F139" s="6" t="s">
         <v>231</v>
       </c>
       <c r="G139" s="2" t="s">
@@ -6333,14 +6342,14 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="3">
+      <c r="A140" s="4">
         <v>43005.50354509259</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D140" s="2" t="s">
         <v>166</v>
@@ -6348,7 +6357,7 @@
       <c r="E140" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F140" s="4" t="s">
+      <c r="F140" s="6" t="s">
         <v>235</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -6366,14 +6375,14 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="3">
+      <c r="A141" s="4">
         <v>43005.503576296294</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D141" s="2" t="s">
         <v>166</v>
@@ -6381,7 +6390,7 @@
       <c r="E141" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F141" s="4" t="s">
+      <c r="F141" s="6" t="s">
         <v>205</v>
       </c>
       <c r="G141" s="2" t="s">
@@ -6399,14 +6408,14 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="3">
+      <c r="A142" s="4">
         <v>43005.50350979167</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D142" s="2" t="s">
         <v>166</v>
@@ -6414,7 +6423,7 @@
       <c r="E142" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F142" s="4" t="s">
+      <c r="F142" s="6" t="s">
         <v>239</v>
       </c>
       <c r="G142" s="2" t="s">
@@ -6432,14 +6441,14 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="3">
+      <c r="A143" s="4">
         <v>43005.50720474537</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>166</v>
@@ -6447,7 +6456,7 @@
       <c r="E143" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F143" s="4" t="s">
+      <c r="F143" s="6" t="s">
         <v>242</v>
       </c>
       <c r="G143" s="2" t="s">
@@ -6465,14 +6474,14 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="3">
+      <c r="A144" s="4">
         <v>43005.50378284723</v>
       </c>
       <c r="B144" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>166</v>
@@ -6498,14 +6507,14 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="3">
+      <c r="A145" s="4">
         <v>43005.50429373843</v>
       </c>
       <c r="B145" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>166</v>
@@ -6531,14 +6540,14 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="3">
+      <c r="A146" s="4">
         <v>43005.53185990741</v>
       </c>
       <c r="B146" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>166</v>
@@ -6564,11 +6573,11 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="3">
+      <c r="A147" s="4">
         <v>43005.56415423611</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>12</v>
@@ -6597,14 +6606,14 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="3">
+      <c r="A148" s="4">
         <v>43005.58337097222</v>
       </c>
       <c r="B148" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>166</v>
@@ -6630,14 +6639,14 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="3">
+      <c r="A149" s="4">
         <v>43005.77984811342</v>
       </c>
       <c r="B149" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>166</v>
@@ -6663,14 +6672,14 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="3">
+      <c r="A150" s="4">
         <v>43009.545410555555</v>
       </c>
       <c r="B150" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D150" s="2" t="s">
         <v>166</v>
@@ -6696,14 +6705,14 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="3">
+      <c r="A151" s="4">
         <v>43009.99049107639</v>
       </c>
       <c r="B151" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>166</v>
@@ -6729,7 +6738,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="3">
+      <c r="A152" s="4">
         <v>43010.51722775463</v>
       </c>
       <c r="B152" s="2" t="s">
@@ -6762,7 +6771,7 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="3">
+      <c r="A153" s="4">
         <v>43010.52071275463</v>
       </c>
       <c r="B153" s="2" t="s">
@@ -6795,7 +6804,7 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="3">
+      <c r="A154" s="4">
         <v>43010.52400666667</v>
       </c>
       <c r="B154" s="2" t="s">
@@ -6828,7 +6837,7 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="3">
+      <c r="A155" s="4">
         <v>43010.55374548611</v>
       </c>
       <c r="B155" s="2" t="s">
@@ -6861,7 +6870,7 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="3">
+      <c r="A156" s="4">
         <v>43010.5549415625</v>
       </c>
       <c r="B156" s="2" t="s">
@@ -6894,14 +6903,14 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="3">
+      <c r="A157" s="4">
         <v>43010.55524587963</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D157" s="2" t="s">
         <v>166</v>
@@ -6927,14 +6936,14 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="3">
+      <c r="A158" s="4">
         <v>43010.94430621528</v>
       </c>
       <c r="B158" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D158" s="2" t="s">
         <v>166</v>
@@ -6960,7 +6969,7 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="3">
+      <c r="A159" s="4">
         <v>43011.471380462965</v>
       </c>
       <c r="B159" s="2" t="s">
@@ -6993,14 +7002,14 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="3">
+      <c r="A160" s="4">
         <v>43011.589116400464</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D160" s="2" t="s">
         <v>166</v>
@@ -7026,14 +7035,14 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="3">
+      <c r="A161" s="4">
         <v>43011.59041145833</v>
       </c>
       <c r="B161" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D161" s="2" t="s">
         <v>166</v>
@@ -7059,14 +7068,14 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="3">
+      <c r="A162" s="4">
         <v>43011.59107056713</v>
       </c>
       <c r="B162" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D162" s="2" t="s">
         <v>166</v>
@@ -7092,14 +7101,14 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="3">
+      <c r="A163" s="4">
         <v>43011.7673365625</v>
       </c>
       <c r="B163" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D163" s="2" t="s">
         <v>166</v>
@@ -7125,14 +7134,14 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="3">
+      <c r="A164" s="4">
         <v>43011.9846315162</v>
       </c>
       <c r="B164" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>166</v>
@@ -7158,11 +7167,11 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="3">
+      <c r="A165" s="4">
         <v>43012.00973524306</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>12</v>
@@ -7191,14 +7200,14 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="3">
+      <c r="A166" s="4">
         <v>43012.068620011574</v>
       </c>
       <c r="B166" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>166</v>
@@ -7224,14 +7233,14 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="3">
+      <c r="A167" s="4">
         <v>43012.38656850695</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>166</v>
@@ -7257,14 +7266,14 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="3">
+      <c r="A168" s="4">
         <v>43012.435817233796</v>
       </c>
       <c r="B168" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D168" s="2" t="s">
         <v>166</v>
@@ -7290,14 +7299,14 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="3">
+      <c r="A169" s="4">
         <v>43012.44082270833</v>
       </c>
       <c r="B169" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>166</v>
@@ -7323,14 +7332,14 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="3">
+      <c r="A170" s="4">
         <v>43012.46554774306</v>
       </c>
       <c r="B170" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D170" s="2" t="s">
         <v>166</v>
@@ -7356,14 +7365,14 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="3">
+      <c r="A171" s="4">
         <v>43012.49022175926</v>
       </c>
       <c r="B171" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D171" s="2" t="s">
         <v>166</v>
@@ -7389,14 +7398,14 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="3">
+      <c r="A172" s="4">
         <v>43012.51250438657</v>
       </c>
       <c r="B172" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D172" s="2" t="s">
         <v>166</v>
@@ -7422,7 +7431,7 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="3">
+      <c r="A173" s="4">
         <v>43012.51441134259</v>
       </c>
       <c r="B173" s="2" t="s">
@@ -7455,11 +7464,11 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="3">
+      <c r="A174" s="4">
         <v>43012.570735960646</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>12</v>
@@ -7488,14 +7497,14 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="3">
+      <c r="A175" s="4">
         <v>43012.65116015046</v>
       </c>
       <c r="B175" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>166</v>
@@ -7521,14 +7530,14 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="3">
+      <c r="A176" s="4">
         <v>43012.783497638884</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D176" s="2" t="s">
         <v>312</v>
@@ -7554,14 +7563,14 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="3">
+      <c r="A177" s="4">
         <v>43013.44444622685</v>
       </c>
       <c r="B177" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D177" s="2" t="s">
         <v>166</v>
@@ -7587,11 +7596,11 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="3">
+      <c r="A178" s="4">
         <v>43019.547127337966</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>318</v>
@@ -7620,14 +7629,14 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="3">
+      <c r="A179" s="4">
         <v>43013.83130535879</v>
       </c>
       <c r="B179" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>312</v>
@@ -7653,14 +7662,14 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="3">
+      <c r="A180" s="4">
         <v>43013.90081957176</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>166</v>
@@ -7686,14 +7695,14 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="3">
+      <c r="A181" s="4">
         <v>43019.546787060186</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>312</v>
@@ -7719,14 +7728,14 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="3">
+      <c r="A182" s="4">
         <v>43014.993305254626</v>
       </c>
       <c r="B182" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>166</v>
@@ -7752,14 +7761,14 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="3">
+      <c r="A183" s="4">
         <v>43015.00131944445</v>
       </c>
       <c r="B183" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>166</v>
@@ -7785,14 +7794,14 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="3">
+      <c r="A184" s="4">
         <v>43015.006222199074</v>
       </c>
       <c r="B184" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>166</v>
@@ -7818,14 +7827,14 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="3">
+      <c r="A185" s="4">
         <v>43017.579228125</v>
       </c>
       <c r="B185" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>312</v>
@@ -7851,14 +7860,14 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="3">
+      <c r="A186" s="4">
         <v>43017.60535539352</v>
       </c>
       <c r="B186" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D186" s="2" t="s">
         <v>312</v>
@@ -7884,14 +7893,14 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="3">
+      <c r="A187" s="4">
         <v>43017.99478155092</v>
       </c>
       <c r="B187" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>312</v>
@@ -7917,14 +7926,14 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="3">
+      <c r="A188" s="4">
         <v>43026.54158099537</v>
       </c>
       <c r="B188" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D188" s="2" t="s">
         <v>166</v>
@@ -7950,14 +7959,14 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="3">
+      <c r="A189" s="4">
         <v>43018.717048819446</v>
       </c>
       <c r="B189" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C189" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>166</v>
@@ -7983,14 +7992,14 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="3">
+      <c r="A190" s="4">
         <v>43018.74108216436</v>
       </c>
       <c r="B190" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D190" s="2" t="s">
         <v>312</v>
@@ -8016,14 +8025,14 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="3">
+      <c r="A191" s="4">
         <v>43018.744236666666</v>
       </c>
       <c r="B191" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D191" s="2" t="s">
         <v>312</v>
@@ -8049,14 +8058,14 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="3">
+      <c r="A192" s="4">
         <v>43018.85538133101</v>
       </c>
       <c r="B192" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>312</v>
@@ -8082,14 +8091,14 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="3">
+      <c r="A193" s="4">
         <v>43018.869787592594</v>
       </c>
       <c r="B193" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>312</v>
@@ -8115,14 +8124,14 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="3">
+      <c r="A194" s="4">
         <v>43019.5480981713</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D194" s="2" t="s">
         <v>312</v>
@@ -8148,14 +8157,14 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="3">
+      <c r="A195" s="4">
         <v>43018.923878368056</v>
       </c>
       <c r="B195" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D195" s="2" t="s">
         <v>312</v>
@@ -8181,14 +8190,14 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="3">
+      <c r="A196" s="4">
         <v>43018.924242928246</v>
       </c>
       <c r="B196" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D196" s="2" t="s">
         <v>166</v>
@@ -8214,14 +8223,14 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="3">
+      <c r="A197" s="4">
         <v>43018.93092641204</v>
       </c>
       <c r="B197" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D197" s="2" t="s">
         <v>312</v>
@@ -8247,14 +8256,14 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="3">
+      <c r="A198" s="4">
         <v>43019.01685533565</v>
       </c>
       <c r="B198" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D198" s="2" t="s">
         <v>312</v>
@@ -8280,14 +8289,14 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="3">
+      <c r="A199" s="4">
         <v>43019.41689545139</v>
       </c>
       <c r="B199" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>312</v>
@@ -8313,14 +8322,14 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="3">
+      <c r="A200" s="4">
         <v>43019.50744347222</v>
       </c>
       <c r="B200" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D200" s="2" t="s">
         <v>312</v>
@@ -8342,7 +8351,7 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="3">
+      <c r="A201" s="4">
         <v>43019.51188740741</v>
       </c>
       <c r="B201" s="2" t="s">
@@ -8371,14 +8380,14 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="3">
+      <c r="A202" s="4">
         <v>43019.51382144676</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D202" s="2" t="s">
         <v>312</v>
@@ -8400,14 +8409,14 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="3">
+      <c r="A203" s="4">
         <v>43019.51391576389</v>
       </c>
       <c r="B203" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D203" s="2" t="s">
         <v>166</v>
@@ -8429,7 +8438,7 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="3">
+      <c r="A204" s="4">
         <v>43019.516128449075</v>
       </c>
       <c r="B204" s="2" t="s">
@@ -8458,7 +8467,7 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="3">
+      <c r="A205" s="4">
         <v>43019.52330152778</v>
       </c>
       <c r="B205" s="2" t="s">
@@ -8487,14 +8496,14 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="3">
+      <c r="A206" s="4">
         <v>43019.536861863424</v>
       </c>
       <c r="B206" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D206" s="2" t="s">
         <v>312</v>
@@ -8516,14 +8525,14 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="3">
+      <c r="A207" s="4">
         <v>43019.54587099537</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D207" s="2" t="s">
         <v>312</v>
@@ -8545,14 +8554,14 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="3">
+      <c r="A208" s="4">
         <v>43019.547844050925</v>
       </c>
       <c r="B208" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D208" s="2" t="s">
         <v>312</v>
@@ -8565,14 +8574,14 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="3">
+      <c r="A209" s="4">
         <v>43019.55115490741</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>312</v>
@@ -8585,14 +8594,14 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="3">
+      <c r="A210" s="4">
         <v>43019.55569923611</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D210" s="2" t="s">
         <v>312</v>
@@ -8614,7 +8623,7 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="3">
+      <c r="A211" s="4">
         <v>43019.561216608796</v>
       </c>
       <c r="B211" s="2" t="s">
@@ -8634,14 +8643,14 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="3">
+      <c r="A212" s="4">
         <v>43019.562005879634</v>
       </c>
       <c r="B212" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>312</v>
@@ -8654,7 +8663,7 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="3">
+      <c r="A213" s="4">
         <v>43019.562426793986</v>
       </c>
       <c r="B213" s="2" t="s">
@@ -8674,14 +8683,14 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="3">
+      <c r="A214" s="4">
         <v>43019.56519538195</v>
       </c>
       <c r="B214" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D214" s="2" t="s">
         <v>312</v>
@@ -8703,7 +8712,7 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="3">
+      <c r="A215" s="4">
         <v>43019.57211138889</v>
       </c>
       <c r="B215" s="2" t="s">
@@ -8732,14 +8741,14 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="3">
+      <c r="A216" s="4">
         <v>43019.5753684838</v>
       </c>
       <c r="B216" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>312</v>
@@ -8761,7 +8770,7 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="3">
+      <c r="A217" s="4">
         <v>43019.63576039352</v>
       </c>
       <c r="B217" s="2" t="s">
@@ -8790,14 +8799,14 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="3">
+      <c r="A218" s="4">
         <v>43019.65219359954</v>
       </c>
       <c r="B218" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D218" s="2" t="s">
         <v>312</v>
@@ -8819,14 +8828,14 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="3">
+      <c r="A219" s="4">
         <v>43019.858925162036</v>
       </c>
       <c r="B219" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>312</v>
@@ -8839,14 +8848,14 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="3">
+      <c r="A220" s="4">
         <v>43020.002041631946</v>
       </c>
       <c r="B220" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D220" s="2" t="s">
         <v>312</v>
@@ -8868,14 +8877,14 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="3">
+      <c r="A221" s="4">
         <v>43020.03231289352</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D221" s="2" t="s">
         <v>312</v>
@@ -8897,14 +8906,14 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="3">
+      <c r="A222" s="4">
         <v>43020.0329134375</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>312</v>
@@ -8917,14 +8926,14 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="3">
+      <c r="A223" s="4">
         <v>43020.462382638885</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D223" s="2" t="s">
         <v>312</v>
@@ -8937,14 +8946,14 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="3">
+      <c r="A224" s="4">
         <v>43020.463665393516</v>
       </c>
       <c r="B224" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D224" s="2" t="s">
         <v>312</v>
@@ -8966,7 +8975,7 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="3">
+      <c r="A225" s="4">
         <v>43020.616478275464</v>
       </c>
       <c r="B225" s="2" t="s">
@@ -8995,14 +9004,14 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="3">
+      <c r="A226" s="4">
         <v>43020.66075369213</v>
       </c>
       <c r="B226" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>312</v>
@@ -9015,14 +9024,14 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="3">
+      <c r="A227" s="4">
         <v>43026.54439957176</v>
       </c>
       <c r="B227" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D227" s="2" t="s">
         <v>312</v>
@@ -9035,14 +9044,14 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="3">
+      <c r="A228" s="4">
         <v>43020.84590479167</v>
       </c>
       <c r="B228" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>312</v>
@@ -9055,14 +9064,14 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="3">
+      <c r="A229" s="4">
         <v>43020.89322266204</v>
       </c>
       <c r="B229" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>312</v>
@@ -9075,14 +9084,14 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="3">
+      <c r="A230" s="4">
         <v>43021.435977754634</v>
       </c>
       <c r="B230" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>312</v>
@@ -9095,14 +9104,14 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="3">
+      <c r="A231" s="4">
         <v>43021.526422407405</v>
       </c>
       <c r="B231" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>312</v>
@@ -9115,7 +9124,7 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="3">
+      <c r="A232" s="4">
         <v>43021.64554784722</v>
       </c>
       <c r="B232" s="2" t="s">
@@ -9144,7 +9153,7 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="3">
+      <c r="A233" s="4">
         <v>43021.79754672454</v>
       </c>
       <c r="B233" s="2" t="s">
@@ -9164,14 +9173,14 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="3">
+      <c r="A234" s="4">
         <v>43021.8395447338</v>
       </c>
       <c r="B234" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D234" s="2" t="s">
         <v>312</v>
@@ -9184,14 +9193,14 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="3">
+      <c r="A235" s="4">
         <v>43021.84116202546</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D235" s="2" t="s">
         <v>312</v>
@@ -9213,14 +9222,14 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="3">
+      <c r="A236" s="4">
         <v>43021.84535013889</v>
       </c>
       <c r="B236" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>312</v>
@@ -9233,14 +9242,14 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="3">
+      <c r="A237" s="4">
         <v>43021.896234479165</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D237" s="2" t="s">
         <v>312</v>
@@ -9262,14 +9271,14 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="3">
+      <c r="A238" s="4">
         <v>43021.89728605324</v>
       </c>
       <c r="B238" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D238" s="2" t="s">
         <v>312</v>
@@ -9282,14 +9291,14 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="3">
+      <c r="A239" s="4">
         <v>43021.90280473379</v>
       </c>
       <c r="B239" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>312</v>
@@ -9311,14 +9320,14 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="3">
+      <c r="A240" s="4">
         <v>43021.90302092592</v>
       </c>
       <c r="B240" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>312</v>
@@ -9331,14 +9340,14 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="3">
+      <c r="A241" s="4">
         <v>43021.90920052084</v>
       </c>
       <c r="B241" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>312</v>
@@ -9351,7 +9360,7 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="3">
+      <c r="A242" s="4">
         <v>43022.00342447917</v>
       </c>
       <c r="B242" s="2" t="s">
@@ -9371,14 +9380,14 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="3">
+      <c r="A243" s="4">
         <v>43022.00513085648</v>
       </c>
       <c r="B243" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>312</v>
@@ -9391,14 +9400,14 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="3">
+      <c r="A244" s="4">
         <v>43022.074284884264</v>
       </c>
       <c r="B244" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D244" s="2" t="s">
         <v>312</v>
@@ -9411,7 +9420,7 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="3">
+      <c r="A245" s="4">
         <v>43022.628012256944</v>
       </c>
       <c r="B245" s="2" t="s">
@@ -9431,14 +9440,14 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="3">
+      <c r="A246" s="4">
         <v>43023.819614085645</v>
       </c>
       <c r="B246" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D246" s="2" t="s">
         <v>312</v>
@@ -9451,14 +9460,14 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="3">
+      <c r="A247" s="4">
         <v>43023.83268636574</v>
       </c>
       <c r="B247" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D247" s="2" t="s">
         <v>312</v>
@@ -9480,14 +9489,14 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="3">
+      <c r="A248" s="4">
         <v>43024.33152092593</v>
       </c>
       <c r="B248" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D248" s="2" t="s">
         <v>312</v>
@@ -9509,14 +9518,14 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="3">
+      <c r="A249" s="4">
         <v>43024.44808800926</v>
       </c>
       <c r="B249" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>312</v>
@@ -9538,7 +9547,7 @@
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="3">
+      <c r="A250" s="4">
         <v>43024.48969649305</v>
       </c>
       <c r="B250" s="2" t="s">
@@ -9558,14 +9567,14 @@
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="3">
+      <c r="A251" s="4">
         <v>43024.49883965278</v>
       </c>
       <c r="B251" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D251" s="2" t="s">
         <v>312</v>
@@ -9587,14 +9596,14 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="3">
+      <c r="A252" s="4">
         <v>43024.50035461805</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>312</v>
@@ -9607,14 +9616,14 @@
       </c>
     </row>
     <row r="253">
-      <c r="A253" s="3">
+      <c r="A253" s="4">
         <v>43024.501311099535</v>
       </c>
       <c r="B253" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D253" s="2" t="s">
         <v>312</v>
@@ -9627,14 +9636,14 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" s="3">
+      <c r="A254" s="4">
         <v>43024.52253594907</v>
       </c>
       <c r="B254" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>312</v>
@@ -9656,14 +9665,14 @@
       </c>
     </row>
     <row r="255">
-      <c r="A255" s="3">
+      <c r="A255" s="4">
         <v>43024.555921747684</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D255" s="2" t="s">
         <v>312</v>
@@ -9685,7 +9694,7 @@
       </c>
     </row>
     <row r="256">
-      <c r="A256" s="3">
+      <c r="A256" s="4">
         <v>43024.68594789352</v>
       </c>
       <c r="B256" s="2" t="s">
@@ -9714,14 +9723,14 @@
       </c>
     </row>
     <row r="257">
-      <c r="A257" s="3">
+      <c r="A257" s="4">
         <v>43024.91192126158</v>
       </c>
       <c r="B257" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>312</v>
@@ -9743,11 +9752,11 @@
       </c>
     </row>
     <row r="258">
-      <c r="A258" s="3">
+      <c r="A258" s="4">
         <v>43025.37717532407</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>12</v>
@@ -9763,14 +9772,14 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" s="3">
+      <c r="A259" s="4">
         <v>43026.54074780093</v>
       </c>
       <c r="B259" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>312</v>
@@ -9792,14 +9801,14 @@
       </c>
     </row>
     <row r="260">
-      <c r="A260" s="3">
+      <c r="A260" s="4">
         <v>43026.425674513885</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D260" s="2" t="s">
         <v>312</v>
@@ -9821,11 +9830,11 @@
       </c>
     </row>
     <row r="261">
-      <c r="A261" s="3">
+      <c r="A261" s="4">
         <v>43026.51953056713</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>12</v>
@@ -9841,14 +9850,14 @@
       </c>
     </row>
     <row r="262">
-      <c r="A262" s="3">
+      <c r="A262" s="4">
         <v>43026.52007337963</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>312</v>
@@ -9861,7 +9870,7 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" s="3">
+      <c r="A263" s="4">
         <v>43026.52280494213</v>
       </c>
       <c r="B263" s="2" t="s">
@@ -9881,14 +9890,14 @@
       </c>
     </row>
     <row r="264">
-      <c r="A264" s="3">
+      <c r="A264" s="4">
         <v>43026.523798483795</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D264" s="2" t="s">
         <v>312</v>
@@ -9901,14 +9910,14 @@
       </c>
     </row>
     <row r="265">
-      <c r="A265" s="3">
+      <c r="A265" s="4">
         <v>43026.52573724537</v>
       </c>
       <c r="B265" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D265" s="2" t="s">
         <v>312</v>
@@ -9921,14 +9930,14 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" s="3">
+      <c r="A266" s="4">
         <v>43026.53666435185</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D266" s="2" t="s">
         <v>312</v>
@@ -9941,14 +9950,14 @@
       </c>
     </row>
     <row r="267">
-      <c r="A267" s="3">
+      <c r="A267" s="4">
         <v>43026.54224909723</v>
       </c>
       <c r="B267" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D267" s="2" t="s">
         <v>312</v>
@@ -9961,14 +9970,14 @@
       </c>
     </row>
     <row r="268">
-      <c r="A268" s="3">
+      <c r="A268" s="4">
         <v>43026.543893194445</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D268" s="2" t="s">
         <v>312</v>
@@ -9981,14 +9990,14 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" s="3">
+      <c r="A269" s="4">
         <v>43026.544518124996</v>
       </c>
       <c r="B269" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D269" s="2" t="s">
         <v>312</v>
@@ -10001,14 +10010,14 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" s="3">
+      <c r="A270" s="4">
         <v>43026.54783081019</v>
       </c>
       <c r="B270" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>312</v>
@@ -10021,14 +10030,14 @@
       </c>
     </row>
     <row r="271">
-      <c r="A271" s="3">
+      <c r="A271" s="4">
         <v>43026.549209791665</v>
       </c>
       <c r="B271" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>312</v>
@@ -10041,14 +10050,14 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" s="3">
+      <c r="A272" s="4">
         <v>43026.55111572916</v>
       </c>
       <c r="B272" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>312</v>
@@ -10061,14 +10070,14 @@
       </c>
     </row>
     <row r="273">
-      <c r="A273" s="3">
+      <c r="A273" s="4">
         <v>43026.55393393518</v>
       </c>
       <c r="B273" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>312</v>
@@ -10081,7 +10090,7 @@
       </c>
     </row>
     <row r="274">
-      <c r="A274" s="3">
+      <c r="A274" s="4">
         <v>43026.55477453704</v>
       </c>
       <c r="B274" s="2" t="s">
@@ -10101,7 +10110,7 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" s="3">
+      <c r="A275" s="4">
         <v>43026.55903909722</v>
       </c>
       <c r="B275" s="2" t="s">
@@ -10111,7 +10120,7 @@
         <v>66</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>459</v>
@@ -10121,14 +10130,14 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" s="3">
+      <c r="A276" s="4">
         <v>43026.5618128125</v>
       </c>
       <c r="B276" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D276" s="2" t="s">
         <v>312</v>
@@ -10141,7 +10150,7 @@
       </c>
     </row>
     <row r="277">
-      <c r="A277" s="3">
+      <c r="A277" s="4">
         <v>43026.563311805556</v>
       </c>
       <c r="B277" s="2" t="s">
@@ -10161,7 +10170,7 @@
       </c>
     </row>
     <row r="278">
-      <c r="A278" s="3">
+      <c r="A278" s="4">
         <v>43026.57119640046</v>
       </c>
       <c r="B278" s="2" t="s">
@@ -10181,14 +10190,14 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" s="3">
+      <c r="A279" s="4">
         <v>43026.57258736111</v>
       </c>
       <c r="B279" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>312</v>
@@ -10201,7 +10210,7 @@
       </c>
     </row>
     <row r="280">
-      <c r="A280" s="3">
+      <c r="A280" s="4">
         <v>43026.69709483796</v>
       </c>
       <c r="B280" s="2" t="s">
@@ -10221,14 +10230,14 @@
       </c>
     </row>
     <row r="281">
-      <c r="A281" s="3">
+      <c r="A281" s="4">
         <v>43028.560511076386</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D281" s="2" t="s">
         <v>312</v>
@@ -10241,14 +10250,14 @@
       </c>
     </row>
     <row r="282">
-      <c r="A282" s="3">
+      <c r="A282" s="4">
         <v>43028.59977497685</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C282" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D282" s="2" t="s">
         <v>478</v>
@@ -10261,7 +10270,7 @@
       </c>
     </row>
     <row r="283">
-      <c r="A283" s="3">
+      <c r="A283" s="4">
         <v>43028.6368469213</v>
       </c>
       <c r="B283" s="2" t="s">
@@ -10281,14 +10290,14 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" s="3">
+      <c r="A284" s="4">
         <v>43031.66131591435</v>
       </c>
       <c r="B284" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D284" s="2" t="s">
         <v>478</v>
@@ -10310,14 +10319,14 @@
       </c>
     </row>
     <row r="285">
-      <c r="A285" s="3">
+      <c r="A285" s="4">
         <v>43028.945846504634</v>
       </c>
       <c r="B285" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>166</v>
@@ -10339,17 +10348,17 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" s="3">
+      <c r="A286" s="4">
         <v>43029.676997511575</v>
       </c>
       <c r="B286" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E286" s="2" t="s">
         <v>146</v>
@@ -10368,14 +10377,14 @@
       </c>
     </row>
     <row r="287">
-      <c r="A287" s="3">
+      <c r="A287" s="4">
         <v>43029.6776196412</v>
       </c>
       <c r="B287" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D287" s="2" t="s">
         <v>166</v>
@@ -10397,14 +10406,14 @@
       </c>
     </row>
     <row r="288">
-      <c r="A288" s="3">
+      <c r="A288" s="4">
         <v>43029.67823138888</v>
       </c>
       <c r="B288" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D288" s="2" t="s">
         <v>312</v>
@@ -10426,7 +10435,7 @@
       </c>
     </row>
     <row r="289">
-      <c r="A289" s="3">
+      <c r="A289" s="4">
         <v>43030.47476391203</v>
       </c>
       <c r="B289" s="2" t="s">
@@ -10446,14 +10455,14 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" s="3">
+      <c r="A290" s="4">
         <v>43030.49553944444</v>
       </c>
       <c r="B290" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D290" s="2" t="s">
         <v>478</v>
@@ -10466,14 +10475,14 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" s="3">
+      <c r="A291" s="4">
         <v>43030.58100958333</v>
       </c>
       <c r="B291" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D291" s="2" t="s">
         <v>478</v>
@@ -10486,7 +10495,7 @@
       </c>
     </row>
     <row r="292">
-      <c r="A292" s="3">
+      <c r="A292" s="4">
         <v>43030.67156337963</v>
       </c>
       <c r="B292" s="2" t="s">
@@ -10506,14 +10515,14 @@
       </c>
     </row>
     <row r="293">
-      <c r="A293" s="3">
+      <c r="A293" s="4">
         <v>43030.73747548611</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D293" s="2" t="s">
         <v>478</v>
@@ -10535,14 +10544,14 @@
       </c>
     </row>
     <row r="294">
-      <c r="A294" s="3">
+      <c r="A294" s="4">
         <v>43030.74758064815</v>
       </c>
       <c r="B294" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>478</v>
@@ -10555,14 +10564,14 @@
       </c>
     </row>
     <row r="295">
-      <c r="A295" s="3">
+      <c r="A295" s="4">
         <v>43030.85618753472</v>
       </c>
       <c r="B295" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>312</v>
@@ -10575,14 +10584,14 @@
       </c>
     </row>
     <row r="296">
-      <c r="A296" s="3">
+      <c r="A296" s="4">
         <v>43030.87422673611</v>
       </c>
       <c r="B296" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D296" s="2" t="s">
         <v>312</v>
@@ -10595,7 +10604,7 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" s="3">
+      <c r="A297" s="4">
         <v>43030.9195615162</v>
       </c>
       <c r="B297" s="2" t="s">
@@ -10615,14 +10624,14 @@
       </c>
     </row>
     <row r="298">
-      <c r="A298" s="3">
+      <c r="A298" s="4">
         <v>43031.19446233797</v>
       </c>
       <c r="B298" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>312</v>
@@ -10635,14 +10644,14 @@
       </c>
     </row>
     <row r="299">
-      <c r="A299" s="3">
+      <c r="A299" s="4">
         <v>43031.19700688658</v>
       </c>
       <c r="B299" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>312</v>
@@ -10655,14 +10664,14 @@
       </c>
     </row>
     <row r="300">
-      <c r="A300" s="3">
+      <c r="A300" s="4">
         <v>43031.41916146991</v>
       </c>
       <c r="B300" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D300" s="2" t="s">
         <v>478</v>
@@ -10675,14 +10684,14 @@
       </c>
     </row>
     <row r="301">
-      <c r="A301" s="3">
+      <c r="A301" s="4">
         <v>43031.42140475694</v>
       </c>
       <c r="B301" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D301" s="2" t="s">
         <v>312</v>
@@ -10695,14 +10704,14 @@
       </c>
     </row>
     <row r="302">
-      <c r="A302" s="3">
+      <c r="A302" s="4">
         <v>43031.43852675926</v>
       </c>
       <c r="B302" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>312</v>
@@ -10715,11 +10724,11 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" s="3">
+      <c r="A303" s="4">
         <v>43031.48629148148</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>12</v>
@@ -10735,7 +10744,7 @@
       </c>
     </row>
     <row r="304">
-      <c r="A304" s="3">
+      <c r="A304" s="4">
         <v>43031.49697032408</v>
       </c>
       <c r="B304" s="2" t="s">
@@ -10764,14 +10773,14 @@
       </c>
     </row>
     <row r="305">
-      <c r="A305" s="3">
+      <c r="A305" s="4">
         <v>43031.497684988426</v>
       </c>
       <c r="B305" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>478</v>
@@ -10784,14 +10793,14 @@
       </c>
     </row>
     <row r="306">
-      <c r="A306" s="3">
+      <c r="A306" s="4">
         <v>43031.50041255787</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D306" s="2" t="s">
         <v>312</v>
@@ -10804,14 +10813,14 @@
       </c>
     </row>
     <row r="307">
-      <c r="A307" s="3">
+      <c r="A307" s="4">
         <v>43031.50455438657</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D307" s="2" t="s">
         <v>478</v>
@@ -10824,14 +10833,14 @@
       </c>
     </row>
     <row r="308">
-      <c r="A308" s="3">
+      <c r="A308" s="4">
         <v>43031.50925232639</v>
       </c>
       <c r="B308" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D308" s="2" t="s">
         <v>478</v>
@@ -10844,14 +10853,14 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" s="3">
+      <c r="A309" s="4">
         <v>43031.561786412036</v>
       </c>
       <c r="B309" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D309" s="2" t="s">
         <v>478</v>
@@ -10864,14 +10873,14 @@
       </c>
     </row>
     <row r="310">
-      <c r="A310" s="3">
+      <c r="A310" s="4">
         <v>43031.61383609954</v>
       </c>
       <c r="B310" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>478</v>
@@ -10884,14 +10893,14 @@
       </c>
     </row>
     <row r="311">
-      <c r="A311" s="3">
+      <c r="A311" s="4">
         <v>43031.912585868056</v>
       </c>
       <c r="B311" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>478</v>
@@ -10904,14 +10913,14 @@
       </c>
     </row>
     <row r="312">
-      <c r="A312" s="3">
+      <c r="A312" s="4">
         <v>43032.5206047338</v>
       </c>
       <c r="B312" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D312" s="2" t="s">
         <v>478</v>
@@ -10924,14 +10933,14 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" s="3">
+      <c r="A313" s="4">
         <v>43032.99550744213</v>
       </c>
       <c r="B313" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D313" s="2" t="s">
         <v>478</v>
@@ -10944,14 +10953,14 @@
       </c>
     </row>
     <row r="314">
-      <c r="A314" s="3">
+      <c r="A314" s="4">
         <v>43032.99762083333</v>
       </c>
       <c r="B314" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>478</v>
@@ -10973,14 +10982,14 @@
       </c>
     </row>
     <row r="315">
-      <c r="A315" s="3">
+      <c r="A315" s="4">
         <v>43033.358326608795</v>
       </c>
       <c r="B315" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>478</v>
@@ -10993,7 +11002,7 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" s="3">
+      <c r="A316" s="4">
         <v>43033.54516336806</v>
       </c>
       <c r="B316" s="2" t="s">
@@ -11013,7 +11022,7 @@
       </c>
     </row>
     <row r="317">
-      <c r="A317" s="3">
+      <c r="A317" s="4">
         <v>43033.646682569444</v>
       </c>
       <c r="B317" s="2" t="s">
@@ -11042,14 +11051,14 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="3">
+      <c r="A318" s="4">
         <v>43034.77754913195</v>
       </c>
       <c r="B318" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D318" s="2" t="s">
         <v>478</v>
@@ -11071,14 +11080,14 @@
       </c>
     </row>
     <row r="319">
-      <c r="A319" s="3">
+      <c r="A319" s="4">
         <v>43034.87407457176</v>
       </c>
       <c r="B319" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D319" s="2" t="s">
         <v>478</v>
@@ -11091,14 +11100,14 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="3">
+      <c r="A320" s="4">
         <v>43034.95555796297</v>
       </c>
       <c r="B320" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D320" s="2" t="s">
         <v>478</v>
@@ -11111,14 +11120,14 @@
       </c>
     </row>
     <row r="321">
-      <c r="A321" s="3">
+      <c r="A321" s="4">
         <v>43035.488702511575</v>
       </c>
       <c r="B321" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>478</v>
@@ -11140,14 +11149,14 @@
       </c>
     </row>
     <row r="322">
-      <c r="A322" s="3">
+      <c r="A322" s="4">
         <v>43035.58076141204</v>
       </c>
       <c r="B322" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D322" s="2" t="s">
         <v>478</v>
@@ -11169,14 +11178,14 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="3">
+      <c r="A323" s="4">
         <v>43035.89623333333</v>
       </c>
       <c r="B323" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D323" s="2" t="s">
         <v>478</v>
@@ -11198,14 +11207,14 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" s="3">
+      <c r="A324" s="4">
         <v>43035.95083642361</v>
       </c>
       <c r="B324" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>478</v>
@@ -11227,14 +11236,14 @@
       </c>
     </row>
     <row r="325">
-      <c r="A325" s="3">
+      <c r="A325" s="4">
         <v>43035.97062211805</v>
       </c>
       <c r="B325" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D325" s="2" t="s">
         <v>478</v>
@@ -11256,14 +11265,14 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="3">
+      <c r="A326" s="4">
         <v>43036.08861064815</v>
       </c>
       <c r="B326" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C326" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D326" s="2" t="s">
         <v>478</v>
@@ -11285,14 +11294,14 @@
       </c>
     </row>
     <row r="327">
-      <c r="A327" s="3">
+      <c r="A327" s="4">
         <v>43036.61391186343</v>
       </c>
       <c r="B327" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D327" s="2" t="s">
         <v>478</v>
@@ -11314,14 +11323,14 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="3">
+      <c r="A328" s="4">
         <v>43037.58854268519</v>
       </c>
       <c r="B328" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D328" s="2" t="s">
         <v>478</v>
@@ -11343,14 +11352,14 @@
       </c>
     </row>
     <row r="329">
-      <c r="A329" s="3">
+      <c r="A329" s="4">
         <v>43037.789648101854</v>
       </c>
       <c r="B329" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D329" s="2" t="s">
         <v>478</v>
@@ -11372,11 +11381,11 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" s="3">
+      <c r="A330" s="4">
         <v>43038.450335625</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C330" s="2" t="s">
         <v>12</v>
@@ -11392,7 +11401,7 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="3">
+      <c r="A331" s="4">
         <v>43038.50887469907</v>
       </c>
       <c r="B331" s="2" t="s">
@@ -11421,14 +11430,14 @@
       </c>
     </row>
     <row r="332">
-      <c r="A332" s="3">
+      <c r="A332" s="4">
         <v>43038.572815555555</v>
       </c>
       <c r="B332" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>478</v>
@@ -11450,14 +11459,14 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="3">
+      <c r="A333" s="4">
         <v>43039.47887841435</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D333" s="2" t="s">
         <v>478</v>
@@ -11479,14 +11488,14 @@
       </c>
     </row>
     <row r="334">
-      <c r="A334" s="3">
+      <c r="A334" s="4">
         <v>43040.444380127316</v>
       </c>
       <c r="B334" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>478</v>
@@ -11508,14 +11517,14 @@
       </c>
     </row>
     <row r="335">
-      <c r="A335" s="3">
+      <c r="A335" s="4">
         <v>43040.54547708333</v>
       </c>
       <c r="B335" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D335" s="2" t="s">
         <v>478</v>
@@ -11537,11 +11546,11 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="3">
+      <c r="A336" s="4">
         <v>43040.567200590274</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>12</v>
@@ -11566,14 +11575,14 @@
       </c>
     </row>
     <row r="337">
-      <c r="A337" s="3">
+      <c r="A337" s="4">
         <v>43040.66362327547</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D337" s="2" t="s">
         <v>478</v>
@@ -11586,11 +11595,11 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="3">
+      <c r="A338" s="4">
         <v>43040.78313142361</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>12</v>
@@ -11615,7 +11624,7 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" s="3">
+      <c r="A339" s="4">
         <v>43042.563635370374</v>
       </c>
       <c r="B339" s="2" t="s">
@@ -11635,11 +11644,11 @@
       </c>
     </row>
     <row r="340">
-      <c r="A340" s="3">
+      <c r="A340" s="4">
         <v>43043.92511630787</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>12</v>
@@ -11664,7 +11673,7 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="3">
+      <c r="A341" s="4">
         <v>43044.63906642361</v>
       </c>
       <c r="B341" s="2" t="s">
@@ -11684,7 +11693,7 @@
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="3">
+      <c r="A342" s="4">
         <v>43044.8148319676</v>
       </c>
       <c r="B342" s="2" t="s">
@@ -11704,14 +11713,14 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="3">
+      <c r="A343" s="4">
         <v>43044.96002486111</v>
       </c>
       <c r="B343" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D343" s="2" t="s">
         <v>478</v>
@@ -11724,14 +11733,14 @@
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="3">
+      <c r="A344" s="4">
         <v>43045.00009217593</v>
       </c>
       <c r="B344" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>478</v>
@@ -11744,7 +11753,7 @@
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="3">
+      <c r="A345" s="4">
         <v>43045.38586394676</v>
       </c>
       <c r="B345" s="2" t="s">
@@ -11764,14 +11773,14 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="3">
+      <c r="A346" s="4">
         <v>43045.38966777778</v>
       </c>
       <c r="B346" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D346" s="2" t="s">
         <v>478</v>
@@ -11784,14 +11793,14 @@
       </c>
     </row>
     <row r="347">
-      <c r="A347" s="3">
+      <c r="A347" s="4">
         <v>43045.41269819444</v>
       </c>
       <c r="B347" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D347" s="2" t="s">
         <v>478</v>
@@ -11804,14 +11813,14 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="3">
+      <c r="A348" s="4">
         <v>43045.41414998843</v>
       </c>
       <c r="B348" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D348" s="2" t="s">
         <v>478</v>
@@ -11824,14 +11833,14 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" s="3">
+      <c r="A349" s="4">
         <v>43045.43686393519</v>
       </c>
       <c r="B349" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>478</v>
@@ -11844,7 +11853,7 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" s="3">
+      <c r="A350" s="4">
         <v>43045.44946429398</v>
       </c>
       <c r="B350" s="2" t="s">
@@ -11864,14 +11873,14 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="3">
+      <c r="A351" s="4">
         <v>43045.65402591435</v>
       </c>
       <c r="B351" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D351" s="2" t="s">
         <v>478</v>
@@ -11884,7 +11893,7 @@
       </c>
     </row>
     <row r="352">
-      <c r="A352" s="3">
+      <c r="A352" s="4">
         <v>43045.51156105324</v>
       </c>
       <c r="B352" s="2" t="s">
@@ -11913,14 +11922,14 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="3">
+      <c r="A353" s="4">
         <v>43045.51345013889</v>
       </c>
       <c r="B353" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>478</v>
@@ -11933,14 +11942,14 @@
       </c>
     </row>
     <row r="354">
-      <c r="A354" s="3">
+      <c r="A354" s="4">
         <v>43045.52378555556</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D354" s="2" t="s">
         <v>478</v>
@@ -11953,11 +11962,11 @@
       </c>
     </row>
     <row r="355">
-      <c r="A355" s="3">
+      <c r="A355" s="4">
         <v>43045.52861920139</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>12</v>
@@ -11973,14 +11982,14 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="3">
+      <c r="A356" s="4">
         <v>43045.586945312505</v>
       </c>
       <c r="B356" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D356" s="2" t="s">
         <v>478</v>
@@ -11993,14 +12002,14 @@
       </c>
     </row>
     <row r="357">
-      <c r="A357" s="3">
+      <c r="A357" s="4">
         <v>43045.97632221065</v>
       </c>
       <c r="B357" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>478</v>
@@ -12013,14 +12022,14 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="3">
+      <c r="A358" s="4">
         <v>43045.99785025463</v>
       </c>
       <c r="B358" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>478</v>
@@ -12033,14 +12042,14 @@
       </c>
     </row>
     <row r="359">
-      <c r="A359" s="3">
+      <c r="A359" s="4">
         <v>43046.86798005787</v>
       </c>
       <c r="B359" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D359" s="2" t="s">
         <v>478</v>
@@ -12053,14 +12062,14 @@
       </c>
     </row>
     <row r="360">
-      <c r="A360" s="3">
+      <c r="A360" s="4">
         <v>43047.4243496875</v>
       </c>
       <c r="B360" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D360" s="2" t="s">
         <v>478</v>
@@ -12082,14 +12091,14 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="3">
+      <c r="A361" s="4">
         <v>43047.434439398145</v>
       </c>
       <c r="B361" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D361" s="2" t="s">
         <v>478</v>
@@ -12102,14 +12111,14 @@
       </c>
     </row>
     <row r="362">
-      <c r="A362" s="3">
+      <c r="A362" s="4">
         <v>43047.50520775463</v>
       </c>
       <c r="B362" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>478</v>
@@ -12131,14 +12140,14 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="3">
+      <c r="A363" s="4">
         <v>43047.519528530094</v>
       </c>
       <c r="B363" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C363" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D363" s="2" t="s">
         <v>478</v>
@@ -12160,7 +12169,7 @@
       </c>
     </row>
     <row r="364">
-      <c r="A364" s="3">
+      <c r="A364" s="4">
         <v>43047.540973483796</v>
       </c>
       <c r="B364" s="2" t="s">
@@ -12189,14 +12198,14 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" s="3">
+      <c r="A365" s="4">
         <v>43047.57144770834</v>
       </c>
       <c r="B365" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C365" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D365" s="2" t="s">
         <v>478</v>
@@ -12218,7 +12227,7 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="3">
+      <c r="A366" s="4">
         <v>43047.57513902777</v>
       </c>
       <c r="B366" s="2" t="s">
@@ -12247,14 +12256,14 @@
       </c>
     </row>
     <row r="367">
-      <c r="A367" s="3">
+      <c r="A367" s="4">
         <v>43047.575841956015</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C367" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D367" s="2" t="s">
         <v>478</v>
@@ -12276,14 +12285,14 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="3">
+      <c r="A368" s="4">
         <v>43047.651928287036</v>
       </c>
       <c r="B368" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C368" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D368" s="2" t="s">
         <v>594</v>
@@ -12296,14 +12305,14 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" s="3">
+      <c r="A369" s="4">
         <v>43047.795450439815</v>
       </c>
       <c r="B369" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C369" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D369" s="2" t="s">
         <v>478</v>
@@ -12325,14 +12334,14 @@
       </c>
     </row>
     <row r="370">
-      <c r="A370" s="3">
+      <c r="A370" s="4">
         <v>43047.87969291667</v>
       </c>
       <c r="B370" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>478</v>
@@ -12354,14 +12363,14 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="3">
+      <c r="A371" s="4">
         <v>43047.91191354167</v>
       </c>
       <c r="B371" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>478</v>
@@ -12383,11 +12392,11 @@
       </c>
     </row>
     <row r="372">
-      <c r="A372" s="3">
+      <c r="A372" s="4">
         <v>43047.9770677662</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C372" s="2" t="s">
         <v>318</v>
@@ -12412,14 +12421,14 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="3">
+      <c r="A373" s="4">
         <v>43048.00483693287</v>
       </c>
       <c r="B373" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C373" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D373" s="2" t="s">
         <v>478</v>
@@ -12441,7 +12450,7 @@
       </c>
     </row>
     <row r="374">
-      <c r="A374" s="3">
+      <c r="A374" s="4">
         <v>43051.62869398148</v>
       </c>
       <c r="B374" s="2" t="s">
@@ -12470,14 +12479,14 @@
       </c>
     </row>
     <row r="375">
-      <c r="A375" s="3">
+      <c r="A375" s="4">
         <v>43051.66866548611</v>
       </c>
       <c r="B375" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C375" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D375" s="2" t="s">
         <v>478</v>
@@ -12499,14 +12508,14 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="3">
+      <c r="A376" s="4">
         <v>43052.51854121528</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C376" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D376" s="2" t="s">
         <v>594</v>
@@ -12519,14 +12528,14 @@
       </c>
     </row>
     <row r="377">
-      <c r="A377" s="3">
+      <c r="A377" s="4">
         <v>43052.53387097223</v>
       </c>
       <c r="B377" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>594</v>
@@ -12539,14 +12548,14 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="3">
+      <c r="A378" s="4">
         <v>43052.53607833333</v>
       </c>
       <c r="B378" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C378" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D378" s="2" t="s">
         <v>594</v>
@@ -12559,7 +12568,7 @@
       </c>
     </row>
     <row r="379">
-      <c r="A379" s="3">
+      <c r="A379" s="4">
         <v>43052.536592951394</v>
       </c>
       <c r="B379" s="2" t="s">
@@ -12579,14 +12588,14 @@
       </c>
     </row>
     <row r="380">
-      <c r="A380" s="3">
+      <c r="A380" s="4">
         <v>43052.53835965278</v>
       </c>
       <c r="B380" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C380" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D380" s="2" t="s">
         <v>594</v>
@@ -12599,14 +12608,14 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="3">
+      <c r="A381" s="4">
         <v>43052.53864890046</v>
       </c>
       <c r="B381" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>594</v>
@@ -12619,14 +12628,14 @@
       </c>
     </row>
     <row r="382">
-      <c r="A382" s="3">
+      <c r="A382" s="4">
         <v>43052.54150814815</v>
       </c>
       <c r="B382" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C382" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D382" s="2" t="s">
         <v>594</v>
@@ -12639,14 +12648,14 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="3">
+      <c r="A383" s="4">
         <v>43052.54220011574</v>
       </c>
       <c r="B383" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C383" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D383" s="2" t="s">
         <v>594</v>
@@ -12659,11 +12668,11 @@
       </c>
     </row>
     <row r="384">
-      <c r="A384" s="3">
+      <c r="A384" s="4">
         <v>43052.543441331014</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C384" s="2" t="s">
         <v>12</v>
@@ -12679,14 +12688,14 @@
       </c>
     </row>
     <row r="385">
-      <c r="A385" s="3">
+      <c r="A385" s="4">
         <v>43052.545527002316</v>
       </c>
       <c r="B385" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>594</v>
@@ -12699,7 +12708,7 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="3">
+      <c r="A386" s="4">
         <v>43052.55542392361</v>
       </c>
       <c r="B386" s="2" t="s">
@@ -12719,7 +12728,7 @@
       </c>
     </row>
     <row r="387">
-      <c r="A387" s="3">
+      <c r="A387" s="4">
         <v>43052.55634836806</v>
       </c>
       <c r="B387" s="2" t="s">
@@ -12739,14 +12748,14 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="3">
+      <c r="A388" s="4">
         <v>43052.561686817135</v>
       </c>
       <c r="B388" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D388" s="2" t="s">
         <v>594</v>
@@ -12759,14 +12768,14 @@
       </c>
     </row>
     <row r="389">
-      <c r="A389" s="3">
+      <c r="A389" s="4">
         <v>43052.56469395834</v>
       </c>
       <c r="B389" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D389" s="2" t="s">
         <v>594</v>
@@ -12779,14 +12788,14 @@
       </c>
     </row>
     <row r="390">
-      <c r="A390" s="3">
+      <c r="A390" s="4">
         <v>43052.566043831015</v>
       </c>
       <c r="B390" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>594</v>
@@ -12799,14 +12808,14 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="3">
+      <c r="A391" s="4">
         <v>43052.89890017361</v>
       </c>
       <c r="B391" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>594</v>
@@ -12819,14 +12828,14 @@
       </c>
     </row>
     <row r="392">
-      <c r="A392" s="3">
+      <c r="A392" s="4">
         <v>43052.944222175924</v>
       </c>
       <c r="B392" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D392" s="2" t="s">
         <v>594</v>
@@ -12839,14 +12848,14 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="3">
+      <c r="A393" s="4">
         <v>43054.49057556713</v>
       </c>
       <c r="B393" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>594</v>
@@ -12859,14 +12868,14 @@
       </c>
     </row>
     <row r="394">
-      <c r="A394" s="3">
+      <c r="A394" s="4">
         <v>43054.52588543981</v>
       </c>
       <c r="B394" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D394" s="2" t="s">
         <v>594</v>
@@ -12879,7 +12888,7 @@
       </c>
     </row>
     <row r="395">
-      <c r="A395" s="3">
+      <c r="A395" s="4">
         <v>43054.526605983796</v>
       </c>
       <c r="B395" s="2" t="s">
@@ -12908,14 +12917,14 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="3">
+      <c r="A396" s="4">
         <v>43054.52734673611</v>
       </c>
       <c r="B396" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D396" s="2" t="s">
         <v>594</v>
@@ -12928,7 +12937,7 @@
       </c>
     </row>
     <row r="397">
-      <c r="A397" s="3">
+      <c r="A397" s="4">
         <v>43054.54825180555</v>
       </c>
       <c r="B397" s="2" t="s">
@@ -12957,14 +12966,14 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="3">
+      <c r="A398" s="4">
         <v>43054.549208530094</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D398" s="2" t="s">
         <v>594</v>
@@ -12977,14 +12986,14 @@
       </c>
     </row>
     <row r="399">
-      <c r="A399" s="3">
+      <c r="A399" s="4">
         <v>43054.54994515046</v>
       </c>
       <c r="B399" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D399" s="2" t="s">
         <v>594</v>
@@ -13006,14 +13015,14 @@
       </c>
     </row>
     <row r="400">
-      <c r="A400" s="3">
+      <c r="A400" s="4">
         <v>43054.928422557874</v>
       </c>
       <c r="B400" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D400" s="2" t="s">
         <v>594</v>
@@ -13035,14 +13044,14 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="3">
+      <c r="A401" s="4">
         <v>43054.99740569445</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D401" s="2" t="s">
         <v>594</v>
@@ -13064,14 +13073,14 @@
       </c>
     </row>
     <row r="402">
-      <c r="A402" s="3">
+      <c r="A402" s="4">
         <v>43055.000045925924</v>
       </c>
       <c r="B402" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>594</v>
@@ -13093,14 +13102,14 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="3">
+      <c r="A403" s="4">
         <v>43056.63682659723</v>
       </c>
       <c r="B403" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D403" s="2" t="s">
         <v>478</v>
@@ -13122,14 +13131,14 @@
       </c>
     </row>
     <row r="404">
-      <c r="A404" s="3">
+      <c r="A404" s="4">
         <v>43056.971715844906</v>
       </c>
       <c r="B404" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D404" s="2" t="s">
         <v>594</v>
@@ -13151,14 +13160,14 @@
       </c>
     </row>
     <row r="405">
-      <c r="A405" s="3">
+      <c r="A405" s="4">
         <v>43059.4973124074</v>
       </c>
       <c r="B405" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D405" s="2" t="s">
         <v>594</v>
@@ -13180,14 +13189,14 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="3">
+      <c r="A406" s="4">
         <v>43059.165201932876</v>
       </c>
       <c r="B406" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D406" s="2" t="s">
         <v>594</v>
@@ -13209,14 +13218,14 @@
       </c>
     </row>
     <row r="407">
-      <c r="A407" s="3">
+      <c r="A407" s="4">
         <v>43059.41277306713</v>
       </c>
       <c r="B407" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>594</v>
@@ -13238,14 +13247,14 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="3">
+      <c r="A408" s="4">
         <v>43059.439957372684</v>
       </c>
       <c r="B408" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>594</v>
@@ -13267,14 +13276,14 @@
       </c>
     </row>
     <row r="409">
-      <c r="A409" s="3">
+      <c r="A409" s="4">
         <v>43059.46703878472</v>
       </c>
       <c r="B409" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D409" s="2" t="s">
         <v>594</v>
@@ -13296,14 +13305,14 @@
       </c>
     </row>
     <row r="410">
-      <c r="A410" s="3">
+      <c r="A410" s="4">
         <v>43059.46734488426</v>
       </c>
       <c r="B410" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D410" s="2" t="s">
         <v>594</v>
@@ -13325,14 +13334,14 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="3">
+      <c r="A411" s="4">
         <v>43059.493680659725</v>
       </c>
       <c r="B411" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>594</v>
@@ -13354,14 +13363,14 @@
       </c>
     </row>
     <row r="412">
-      <c r="A412" s="3">
+      <c r="A412" s="4">
         <v>43059.4982827662</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D412" s="2" t="s">
         <v>594</v>
@@ -13383,14 +13392,14 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="3">
+      <c r="A413" s="4">
         <v>43059.50196253472</v>
       </c>
       <c r="B413" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>594</v>
@@ -13412,14 +13421,14 @@
       </c>
     </row>
     <row r="414">
-      <c r="A414" s="3">
+      <c r="A414" s="4">
         <v>43059.502047835645</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D414" s="2" t="s">
         <v>594</v>
@@ -13432,7 +13441,7 @@
       </c>
     </row>
     <row r="415">
-      <c r="A415" s="3">
+      <c r="A415" s="4">
         <v>43059.505162789355</v>
       </c>
       <c r="B415" s="2" t="s">
@@ -13461,14 +13470,14 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="3">
+      <c r="A416" s="4">
         <v>43059.51192844908</v>
       </c>
       <c r="B416" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D416" s="2" t="s">
         <v>594</v>
@@ -13490,7 +13499,7 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" s="3">
+      <c r="A417" s="4">
         <v>43059.51377266204</v>
       </c>
       <c r="B417" s="2" t="s">
@@ -13510,7 +13519,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="3">
+      <c r="A418" s="4">
         <v>43059.513889131944</v>
       </c>
       <c r="B418" s="2" t="s">
@@ -13539,14 +13548,14 @@
       </c>
     </row>
     <row r="419">
-      <c r="A419" s="3">
+      <c r="A419" s="4">
         <v>43059.51641927083</v>
       </c>
       <c r="B419" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D419" s="2" t="s">
         <v>594</v>
@@ -13568,14 +13577,14 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" s="3">
+      <c r="A420" s="4">
         <v>43059.534291874996</v>
       </c>
       <c r="B420" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D420" s="2" t="s">
         <v>594</v>
@@ -13597,14 +13606,14 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="3">
+      <c r="A421" s="4">
         <v>43059.5343033449</v>
       </c>
       <c r="B421" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>594</v>
@@ -13626,14 +13635,14 @@
       </c>
     </row>
     <row r="422">
-      <c r="A422" s="3">
+      <c r="A422" s="4">
         <v>43065.74079520833</v>
       </c>
       <c r="B422" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C422" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D422" s="2" t="s">
         <v>594</v>
@@ -13655,11 +13664,11 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="3">
+      <c r="A423" s="4">
         <v>43066.51617924769</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C423" s="2" t="s">
         <v>12</v>
@@ -13684,7 +13693,33 @@
       </c>
     </row>
     <row r="424">
-      <c r="F424" s="1"/>
+      <c r="A424" s="4">
+        <v>43066.5253565625</v>
+      </c>
+      <c r="B424" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C424" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D424" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E424" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F424" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="G424" s="2" t="s">
+        <v>528</v>
+      </c>
+      <c r="H424" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="I424" s="2" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="425">
       <c r="F425" s="1"/>
@@ -13982,6 +14017,9 @@
     </row>
     <row r="523">
       <c r="F523" s="1"/>
+    </row>
+    <row r="524">
+      <c r="F524" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14409,9 +14447,10 @@
     <hyperlink r:id="rId423" ref="F421"/>
     <hyperlink r:id="rId424" ref="F422"/>
     <hyperlink r:id="rId425" ref="F423"/>
+    <hyperlink r:id="rId426" ref="F424"/>
   </hyperlinks>
-  <drawing r:id="rId426"/>
-  <legacyDrawing r:id="rId427"/>
+  <drawing r:id="rId427"/>
+  <legacyDrawing r:id="rId428"/>
 </worksheet>
 </file>
 
@@ -14432,7 +14471,7 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>2.0</v>
@@ -14520,7 +14559,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B13">
         <v>18.0</v>
@@ -14536,15 +14575,15 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="B15">
-        <v>19.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B16">
         <v>20.0</v>
@@ -14552,7 +14591,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B17">
         <v>20.0</v>
@@ -14560,7 +14599,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="B18">
         <v>20.0</v>
@@ -14584,7 +14623,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B21">
         <v>22.0</v>
@@ -14632,10 +14671,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="B27">
-        <v>422.0</v>
+        <v>423.0</v>
       </c>
     </row>
   </sheetData>
@@ -14652,111 +14691,111 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
         <v>1.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" s="2">
         <v>1.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5">
         <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B9" s="2">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="7">
         <v>3.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" s="9">
         <v>3.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5">
         <v>4.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B14" s="2">
         <v>4.0</v>
@@ -14764,39 +14803,39 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="2">
         <v>4.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B16" s="6">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
         <v>4.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2">
         <v>5.0</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
         <v>5.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B19" s="2">
         <v>5.0</v>
@@ -14804,31 +14843,31 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2">
         <v>5.0</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3">
         <v>6.0</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="8">
+      <c r="A22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="7">
         <v>6.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B23" s="2">
         <v>6.0</v>
@@ -14836,7 +14875,7 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="B24" s="2">
         <v>6.0</v>

--- a/dox/COM106 - Share Submissions (Responses).xlsx
+++ b/dox/COM106 - Share Submissions (Responses).xlsx
@@ -257,7 +257,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2698" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2749" uniqueCount="697">
   <si>
     <t>Timestamp</t>
   </si>
@@ -277,12 +277,12 @@
     <t>Link</t>
   </si>
   <si>
+    <t>who</t>
+  </si>
+  <si>
     <t>Principle of Design 1</t>
   </si>
   <si>
-    <t>who</t>
-  </si>
-  <si>
     <t>Principle of Design 2</t>
   </si>
   <si>
@@ -322,27 +322,27 @@
     <t>Testing</t>
   </si>
   <si>
+    <t>Michael Robinson</t>
+  </si>
+  <si>
+    <t>Thomas Gross</t>
+  </si>
+  <si>
+    <t>Brandon Lavoie</t>
+  </si>
+  <si>
+    <t>chris</t>
+  </si>
+  <si>
+    <t>Devonte Griffiths</t>
+  </si>
+  <si>
+    <t>Ismar Omeragic</t>
+  </si>
+  <si>
     <t>https://goo.gl/forms/xgsoWet1RtWZtliT2</t>
   </si>
   <si>
-    <t>Michael Robinson</t>
-  </si>
-  <si>
-    <t>Thomas Gross</t>
-  </si>
-  <si>
-    <t>Brandon Lavoie</t>
-  </si>
-  <si>
-    <t>chris</t>
-  </si>
-  <si>
-    <t>Devonte Griffiths</t>
-  </si>
-  <si>
-    <t>Ismar Omeragic</t>
-  </si>
-  <si>
     <t>Jacob Rush</t>
   </si>
   <si>
@@ -2318,6 +2318,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Inverted pyramid</t>
+  </si>
+  <si>
+    <t>https://www.scirra.com/arcade/other-games/volleyball-pong-23390?action=updated</t>
+  </si>
+  <si>
+    <t>https://imgur.com/a/5txfV</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1cSqRE7igNbdhzI6cmrAozXQKJqwX2s1Y44slzS6npZw/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://www.scirra.com/arcade/action-games/halo-ish-23570</t>
+  </si>
+  <si>
+    <t>https://sethvmotivator.weebly.com/</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/a/sunyit.edu/document/d/11WF9e6od8hJpZkJdLGHcTCsjj-JWj0KPHQ9CrhxVZRU/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1bJrPtnIvX-vOvbRIKfY857HGKZAahWD4IdJsve_vNoQ/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/a/sunyit.edu/presentation/d/1ARM5P-1exgb_BC_ylzPYXfjWAKcd-gnD8vzTc4q9YzU/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>http://people.sunyit.edu/~omeragi/MyReviews.html</t>
   </si>
   <si>
     <t>Grand Total</t>
@@ -2409,16 +2436,16 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -2561,7 +2588,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>8</v>
@@ -2589,12 +2616,12 @@
       <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
       <c r="J2" t="str">
         <f t="shared" ref="J2:J199" si="1">C2&amp;" "&amp;D2&amp;" "&amp;E2</f>
         <v>Steve Schneider Testing the forms submissions Testing</v>
@@ -2616,12 +2643,12 @@
       <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
       <c r="J3" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Testing the forms submissions Testing</v>
@@ -2643,12 +2670,12 @@
       <c r="E4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
       <c r="J4" t="str">
         <f t="shared" si="1"/>
         <v>Steve Schneider Testing the forms submissions Testing</v>
@@ -2670,12 +2697,12 @@
       <c r="E5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
       <c r="J5" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks`` Testing the forms submissions Testing</v>
@@ -2697,12 +2724,12 @@
       <c r="E6" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
       <c r="J6" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Testing</v>
@@ -2724,12 +2751,12 @@
       <c r="E7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Testing</v>
@@ -2751,12 +2778,12 @@
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
       <c r="J8" t="str">
         <f t="shared" si="1"/>
         <v>Briana Ruiz Project 1: Digital Autobiography Testing</v>
@@ -2778,12 +2805,12 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
       <c r="J9" t="str">
         <f t="shared" si="1"/>
         <v>Cesar Marte Testing the forms submissions Testing</v>
@@ -2797,7 +2824,7 @@
         <v>56</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>19</v>
@@ -2805,12 +2832,12 @@
       <c r="E10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
       <c r="J10" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Testing the forms submissions Testing</v>
@@ -2824,7 +2851,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
@@ -2832,12 +2859,12 @@
       <c r="E11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
       <c r="J11" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Testing the forms submissions Testing</v>
@@ -2859,12 +2886,12 @@
       <c r="E12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
       <c r="J12" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 1: Digital Autobiography Testing</v>
@@ -2886,12 +2913,12 @@
       <c r="E13" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
       <c r="J13" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Testing the forms submissions Testing</v>
@@ -2913,12 +2940,12 @@
       <c r="E14" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
       <c r="J14" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Conceptualization</v>
@@ -2940,12 +2967,12 @@
       <c r="E15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
       <c r="J15" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 1: Digital Autobiography Testing</v>
@@ -2967,12 +2994,12 @@
       <c r="E16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
       <c r="J16" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Testing the forms submissions Testing</v>
@@ -2994,12 +3021,12 @@
       <c r="E17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
       <c r="J17" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Testing the forms submissions Testing</v>
@@ -3021,12 +3048,12 @@
       <c r="E18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
       <c r="J18" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Testing</v>
@@ -3048,12 +3075,12 @@
       <c r="E19" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
       <c r="J19" t="str">
         <f t="shared" si="1"/>
         <v>Justin Cristaldi Project 1: Digital Autobiography Conceptualization</v>
@@ -3075,12 +3102,12 @@
       <c r="E20" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
       <c r="J20" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Conceptualization</v>
@@ -3102,12 +3129,12 @@
       <c r="E21" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
       <c r="J21" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 1: Digital Autobiography Conceptualization</v>
@@ -3129,12 +3156,12 @@
       <c r="E22" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
       <c r="J22" t="str">
         <f t="shared" si="1"/>
         <v>Justin Delossantos Project 1: Digital Autobiography Conceptualization</v>
@@ -3156,12 +3183,12 @@
       <c r="E23" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
       <c r="J23" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 1: Digital Autobiography Conceptualization</v>
@@ -3183,12 +3210,12 @@
       <c r="E24" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="G24" s="8"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
       <c r="J24" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 1: Digital Autobiography Conceptualization</v>
@@ -3210,12 +3237,12 @@
       <c r="E25" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
       <c r="J25" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks Project 1: Digital Autobiography Conceptualization</v>
@@ -3237,12 +3264,12 @@
       <c r="E26" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
       <c r="J26" t="str">
         <f t="shared" si="1"/>
         <v>Briana Ruiz Project 1: Digital Autobiography Conceptualization</v>
@@ -3264,12 +3291,12 @@
       <c r="E27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F27" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
       <c r="J27" t="str">
         <f t="shared" si="1"/>
         <v>Reynaldo Mercado Project 1: Digital Autobiography Conceptualization</v>
@@ -3291,12 +3318,12 @@
       <c r="E28" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
       <c r="J28" t="str">
         <f t="shared" si="1"/>
         <v>Cesar Marte Project 1: Digital Autobiography Conceptualization</v>
@@ -3318,12 +3345,12 @@
       <c r="E29" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
       <c r="J29" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Conceptualization</v>
@@ -3337,7 +3364,7 @@
         <v>92</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>47</v>
@@ -3345,12 +3372,12 @@
       <c r="E30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
       <c r="J30" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Conceptualization</v>
@@ -3372,12 +3399,12 @@
       <c r="E31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-      <c r="I31" s="8"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
       <c r="J31" t="str">
         <f t="shared" si="1"/>
         <v>Justin Cristaldi Project 1: Digital Autobiography Conceptualization</v>
@@ -3399,12 +3426,12 @@
       <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="6" t="s">
+      <c r="F32" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
       <c r="J32" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Conceptualization</v>
@@ -3426,12 +3453,12 @@
       <c r="E33" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="6" t="s">
+      <c r="F33" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="8"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
       <c r="J33" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Conceptualization</v>
@@ -3445,7 +3472,7 @@
         <v>56</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>47</v>
@@ -3453,12 +3480,12 @@
       <c r="E34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F34" s="6" t="s">
+      <c r="F34" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="8"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
       <c r="J34" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 1: Digital Autobiography Conceptualization</v>
@@ -3480,12 +3507,12 @@
       <c r="E35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F35" s="6" t="s">
+      <c r="F35" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-      <c r="I35" s="8"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
       <c r="J35" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington  Project 1: Digital Autobiography Conceptualization</v>
@@ -3499,7 +3526,7 @@
         <v>58</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>47</v>
@@ -3507,12 +3534,12 @@
       <c r="E36" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F36" s="6" t="s">
+      <c r="F36" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
       <c r="J36" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 1: Digital Autobiography Conceptualization</v>
@@ -3526,7 +3553,7 @@
         <v>101</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>47</v>
@@ -3534,12 +3561,12 @@
       <c r="E37" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
       <c r="J37" t="str">
         <f t="shared" si="1"/>
         <v>Devonte Griffiths Project 1: Digital Autobiography Conceptualization</v>
@@ -3561,12 +3588,12 @@
       <c r="E38" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F38" s="6" t="s">
+      <c r="F38" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-      <c r="I38" s="8"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
       <c r="J38" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Design</v>
@@ -3588,12 +3615,12 @@
       <c r="E39" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-      <c r="I39" s="8"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
       <c r="J39" t="str">
         <f t="shared" si="1"/>
         <v>Jacob Rush Project 1: Digital Autobiography Conceptualization</v>
@@ -3615,12 +3642,12 @@
       <c r="E40" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F40" s="6" t="s">
+      <c r="F40" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
       <c r="J40" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 1: Digital Autobiography Conceptualization</v>
@@ -3642,12 +3669,12 @@
       <c r="E41" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="6" t="s">
+      <c r="F41" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-      <c r="I41" s="8"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
       <c r="J41" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 1: Digital Autobiography Design</v>
@@ -3669,12 +3696,12 @@
       <c r="E42" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F42" s="6" t="s">
+      <c r="F42" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-      <c r="I42" s="8"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
       <c r="J42" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Project 1: Digital Autobiography Conceptualization</v>
@@ -3688,7 +3715,7 @@
         <v>112</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>47</v>
@@ -3696,12 +3723,12 @@
       <c r="E43" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F43" s="6" t="s">
+      <c r="F43" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
       <c r="J43" t="str">
         <f t="shared" si="1"/>
         <v>Brandon Lavoie Project 1: Digital Autobiography Conceptualization</v>
@@ -3723,12 +3750,12 @@
       <c r="E44" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F44" s="6" t="s">
+      <c r="F44" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-      <c r="I44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
       <c r="J44" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Design</v>
@@ -3750,12 +3777,12 @@
       <c r="E45" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F45" s="6" t="s">
+      <c r="F45" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
       <c r="J45" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Design</v>
@@ -3769,7 +3796,7 @@
         <v>56</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>47</v>
@@ -3777,12 +3804,12 @@
       <c r="E46" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F46" s="6" t="s">
+      <c r="F46" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
       <c r="J46" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 1: Digital Autobiography Design</v>
@@ -3804,12 +3831,12 @@
       <c r="E47" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F47" s="6" t="s">
+      <c r="F47" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
       <c r="J47" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 1: Digital Autobiography Design</v>
@@ -3831,12 +3858,12 @@
       <c r="E48" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F48" s="6" t="s">
+      <c r="F48" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="8"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9"/>
+      <c r="I48" s="9"/>
       <c r="J48" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 1: Digital Autobiography Design</v>
@@ -3858,12 +3885,12 @@
       <c r="E49" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F49" s="6" t="s">
+      <c r="F49" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
       <c r="J49" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Design</v>
@@ -3885,12 +3912,12 @@
       <c r="E50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F50" s="6" t="s">
+      <c r="F50" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9"/>
+      <c r="I50" s="9"/>
       <c r="J50" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 1: Digital Autobiography Design</v>
@@ -3912,12 +3939,12 @@
       <c r="E51" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F51" s="6" t="s">
+      <c r="F51" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+      <c r="I51" s="9"/>
       <c r="J51" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 1: Digital Autobiography Design</v>
@@ -3931,7 +3958,7 @@
         <v>58</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>47</v>
@@ -3939,12 +3966,12 @@
       <c r="E52" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F52" s="6" t="s">
+      <c r="F52" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-      <c r="I52" s="8"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9"/>
+      <c r="I52" s="9"/>
       <c r="J52" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 1: Digital Autobiography Design</v>
@@ -3966,12 +3993,12 @@
       <c r="E53" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F53" s="6" t="s">
+      <c r="F53" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-      <c r="I53" s="8"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
       <c r="J53" t="str">
         <f t="shared" si="1"/>
         <v>Briana Ruiz Project 1: Digital Autobiography Design</v>
@@ -3993,12 +4020,12 @@
       <c r="E54" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F54" s="6" t="s">
+      <c r="F54" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-      <c r="I54" s="8"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
       <c r="J54" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Project 1: Digital Autobiography Design</v>
@@ -4020,12 +4047,12 @@
       <c r="E55" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F55" s="6" t="s">
+      <c r="F55" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-      <c r="I55" s="8"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
       <c r="J55" t="str">
         <f t="shared" si="1"/>
         <v>Jacob Rush Project 1: Digital Autobiography Design</v>
@@ -4047,12 +4074,12 @@
       <c r="E56" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="6" t="s">
+      <c r="F56" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
       <c r="J56" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Design</v>
@@ -4074,12 +4101,12 @@
       <c r="E57" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="6" t="s">
+      <c r="F57" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
       <c r="J57" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 1: Digital Autobiography Design</v>
@@ -4101,12 +4128,12 @@
       <c r="E58" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="6" t="s">
+      <c r="F58" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
       <c r="J58" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks Project 1: Digital Autobiography Design</v>
@@ -4120,7 +4147,7 @@
         <v>92</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>47</v>
@@ -4128,12 +4155,12 @@
       <c r="E59" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F59" s="6" t="s">
+      <c r="F59" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
       <c r="J59" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Design</v>
@@ -4155,12 +4182,12 @@
       <c r="E60" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F60" s="6" t="s">
+      <c r="F60" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-      <c r="I60" s="8"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
       <c r="J60" t="str">
         <f t="shared" si="1"/>
         <v>Reynaldo Mercado Project 1: Digital Autobiography Design</v>
@@ -4174,7 +4201,7 @@
         <v>101</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D61" s="2" t="s">
         <v>47</v>
@@ -4182,12 +4209,12 @@
       <c r="E61" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F61" s="6" t="s">
+      <c r="F61" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-      <c r="I61" s="8"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
       <c r="J61" t="str">
         <f t="shared" si="1"/>
         <v>Devonte Griffiths Project 1: Digital Autobiography Design</v>
@@ -4201,7 +4228,7 @@
         <v>112</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>47</v>
@@ -4209,12 +4236,12 @@
       <c r="E62" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F62" s="6" t="s">
+      <c r="F62" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-      <c r="I62" s="8"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
       <c r="J62" t="str">
         <f t="shared" si="1"/>
         <v>Brandon Lavoie Project 1: Digital Autobiography Design</v>
@@ -4236,12 +4263,12 @@
       <c r="E63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F63" s="6" t="s">
+      <c r="F63" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
       <c r="J63" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Production</v>
@@ -4263,12 +4290,12 @@
       <c r="E64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F64" s="6" t="s">
+      <c r="F64" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="G64" s="8"/>
-      <c r="H64" s="8"/>
-      <c r="I64" s="8"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
       <c r="J64" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 1: Digital Autobiography Production</v>
@@ -4290,12 +4317,12 @@
       <c r="E65" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F65" s="6" t="s">
+      <c r="F65" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="G65" s="8"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
       <c r="J65" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Production</v>
@@ -4317,12 +4344,12 @@
       <c r="E66" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F66" s="6" t="s">
+      <c r="F66" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="G66" s="8"/>
-      <c r="H66" s="8"/>
-      <c r="I66" s="8"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
       <c r="J66" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek (Part 2) Project 1: Digital Autobiography Production</v>
@@ -4344,12 +4371,12 @@
       <c r="E67" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F67" s="6" t="s">
+      <c r="F67" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
       <c r="J67" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 1: Digital Autobiography Production</v>
@@ -4363,7 +4390,7 @@
         <v>58</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>47</v>
@@ -4371,12 +4398,12 @@
       <c r="E68" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F68" s="6" t="s">
+      <c r="F68" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="G68" s="8"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
       <c r="J68" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 1: Digital Autobiography Production</v>
@@ -4398,12 +4425,12 @@
       <c r="E69" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F69" s="6" t="s">
+      <c r="F69" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
       <c r="J69" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks Project 1: Digital Autobiography Production</v>
@@ -4425,12 +4452,12 @@
       <c r="E70" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F70" s="6" t="s">
+      <c r="F70" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
       <c r="J70" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDFerbeck Project 1: Digital Autobiography Production</v>
@@ -4452,12 +4479,12 @@
       <c r="E71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F71" s="6" t="s">
+      <c r="F71" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G71" s="8"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
       <c r="J71" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 1: Digital Autobiography Production</v>
@@ -4479,12 +4506,12 @@
       <c r="E72" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F72" s="6" t="s">
+      <c r="F72" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="G72" s="8"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
       <c r="J72" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 1: Digital Autobiography Production</v>
@@ -4506,12 +4533,12 @@
       <c r="E73" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F73" s="6" t="s">
+      <c r="F73" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="G73" s="8"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
       <c r="J73" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 1: Digital Autobiography Production</v>
@@ -4525,7 +4552,7 @@
         <v>56</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>47</v>
@@ -4533,12 +4560,12 @@
       <c r="E74" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F74" s="6" t="s">
+      <c r="F74" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="G74" s="8"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
       <c r="J74" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 1: Digital Autobiography Production</v>
@@ -4560,12 +4587,12 @@
       <c r="E75" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F75" s="6" t="s">
+      <c r="F75" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G75" s="8"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
       <c r="J75" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 1: Digital Autobiography Critique</v>
@@ -4587,12 +4614,12 @@
       <c r="E76" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F76" s="6" t="s">
+      <c r="F76" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
       <c r="J76" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 1: Digital Autobiography Design</v>
@@ -4614,12 +4641,12 @@
       <c r="E77" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F77" s="6" t="s">
+      <c r="F77" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="G77" s="8"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
       <c r="J77" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 1: Digital Autobiography Conceptualization</v>
@@ -4641,12 +4668,12 @@
       <c r="E78" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F78" s="6" t="s">
+      <c r="F78" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
       <c r="J78" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Production</v>
@@ -4668,12 +4695,12 @@
       <c r="E79" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F79" s="6" t="s">
+      <c r="F79" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
       <c r="J79" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 1: Digital Autobiography Critique</v>
@@ -4695,12 +4722,12 @@
       <c r="E80" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F80" s="6" t="s">
+      <c r="F80" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
       <c r="J80" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Production</v>
@@ -4722,12 +4749,12 @@
       <c r="E81" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F81" s="6" t="s">
+      <c r="F81" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
       <c r="J81" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Production</v>
@@ -4749,12 +4776,12 @@
       <c r="E82" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F82" s="6" t="s">
+      <c r="F82" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
       <c r="J82" t="str">
         <f t="shared" si="1"/>
         <v>Reynaldo Mercado Project 1: Digital Autobiography Production</v>
@@ -4768,7 +4795,7 @@
         <v>92</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>47</v>
@@ -4776,12 +4803,12 @@
       <c r="E83" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F83" s="6" t="s">
+      <c r="F83" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
       <c r="J83" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Production</v>
@@ -4795,7 +4822,7 @@
         <v>92</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>47</v>
@@ -4803,12 +4830,12 @@
       <c r="E84" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F84" s="6" t="s">
+      <c r="F84" s="8" t="s">
         <v>156</v>
       </c>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
       <c r="J84" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Production</v>
@@ -4830,12 +4857,12 @@
       <c r="E85" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F85" s="6" t="s">
+      <c r="F85" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
       <c r="J85" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 1: Digital Autobiography Critique</v>
@@ -4857,12 +4884,12 @@
       <c r="E86" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F86" s="6" t="s">
+      <c r="F86" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
       <c r="J86" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 1: Digital Autobiography Critique</v>
@@ -4876,7 +4903,7 @@
         <v>58</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>47</v>
@@ -4884,12 +4911,12 @@
       <c r="E87" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F87" s="6" t="s">
+      <c r="F87" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
       <c r="J87" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 1: Digital Autobiography Critique</v>
@@ -4911,12 +4938,12 @@
       <c r="E88" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F88" s="6" t="s">
+      <c r="F88" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
       <c r="J88" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 1: Digital Autobiography Critique</v>
@@ -4938,12 +4965,12 @@
       <c r="E89" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F89" s="6" t="s">
+      <c r="F89" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
       <c r="J89" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 1: Digital Autobiography Critique</v>
@@ -4957,7 +4984,7 @@
         <v>56</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>47</v>
@@ -4965,12 +4992,12 @@
       <c r="E90" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F90" s="6" t="s">
+      <c r="F90" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
       <c r="J90" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 1: Digital Autobiography Critique</v>
@@ -4992,12 +5019,12 @@
       <c r="E91" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F91" s="6" t="s">
+      <c r="F91" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
       <c r="J91" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 1: Digital Autobiography Critique</v>
@@ -5011,7 +5038,7 @@
         <v>92</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>47</v>
@@ -5019,12 +5046,12 @@
       <c r="E92" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F92" s="6" t="s">
+      <c r="F92" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
       <c r="J92" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 1: Digital Autobiography Critique</v>
@@ -5046,12 +5073,12 @@
       <c r="E93" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F93" s="6" t="s">
+      <c r="F93" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
       <c r="J93" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 1: Digital Autobiography Critique</v>
@@ -5073,12 +5100,12 @@
       <c r="E94" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F94" s="6" t="s">
+      <c r="F94" s="8" t="s">
         <v>167</v>
       </c>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
       <c r="J94" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 2: Digital World Testing</v>
@@ -5100,12 +5127,12 @@
       <c r="E95" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F95" s="6" t="s">
+      <c r="F95" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
       <c r="J95" t="str">
         <f t="shared" si="1"/>
         <v>Jacob Rush Project 1: Digital Autobiography Production</v>
@@ -5127,12 +5154,12 @@
       <c r="E96" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F96" s="6" t="s">
+      <c r="F96" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
       <c r="J96" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 1: Digital Autobiography Production</v>
@@ -5154,12 +5181,12 @@
       <c r="E97" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F97" s="6" t="s">
+      <c r="F97" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
       <c r="J97" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 1: Digital Autobiography Critique</v>
@@ -5173,7 +5200,7 @@
         <v>58</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>166</v>
@@ -5181,12 +5208,12 @@
       <c r="E98" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F98" s="6" t="s">
+      <c r="F98" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="G98" s="8"/>
-      <c r="H98" s="8"/>
-      <c r="I98" s="8"/>
+      <c r="G98" s="9"/>
+      <c r="H98" s="9"/>
+      <c r="I98" s="9"/>
       <c r="J98" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinson Project 2: Digital World Conceptualization</v>
@@ -5208,12 +5235,12 @@
       <c r="E99" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F99" s="6" t="s">
+      <c r="F99" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="G99" s="8"/>
-      <c r="H99" s="8"/>
-      <c r="I99" s="8"/>
+      <c r="G99" s="9"/>
+      <c r="H99" s="9"/>
+      <c r="I99" s="9"/>
       <c r="J99" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 2: Digital World Conceptualization</v>
@@ -5235,12 +5262,12 @@
       <c r="E100" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F100" s="6" t="s">
+      <c r="F100" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="G100" s="8"/>
-      <c r="H100" s="8"/>
-      <c r="I100" s="8"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9"/>
+      <c r="I100" s="9"/>
       <c r="J100" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Project 1: Digital Autobiography Production</v>
@@ -5262,12 +5289,12 @@
       <c r="E101" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F101" s="6" t="s">
+      <c r="F101" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8"/>
-      <c r="I101" s="8"/>
+      <c r="G101" s="9"/>
+      <c r="H101" s="9"/>
+      <c r="I101" s="9"/>
       <c r="J101" t="str">
         <f t="shared" si="1"/>
         <v>Christopher Gill Project 2: Digital World Conceptualization</v>
@@ -5289,12 +5316,12 @@
       <c r="E102" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F102" s="6" t="s">
+      <c r="F102" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
+      <c r="G102" s="9"/>
+      <c r="H102" s="9"/>
+      <c r="I102" s="9"/>
       <c r="J102" t="str">
         <f t="shared" si="1"/>
         <v>Samantha Rishe Project 2: Digital World Conceptualization</v>
@@ -5316,7 +5343,7 @@
       <c r="E103" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F103" s="6" t="s">
+      <c r="F103" s="8" t="s">
         <v>176</v>
       </c>
       <c r="G103" s="2" t="s">
@@ -5349,12 +5376,12 @@
       <c r="E104" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F104" s="6" t="s">
+      <c r="F104" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G104" s="8"/>
-      <c r="H104" s="8"/>
-      <c r="I104" s="8"/>
+      <c r="G104" s="9"/>
+      <c r="H104" s="9"/>
+      <c r="I104" s="9"/>
       <c r="J104" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 2: Digital World Conceptualization</v>
@@ -5376,12 +5403,12 @@
       <c r="E105" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F105" s="6" t="s">
+      <c r="F105" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G105" s="8"/>
-      <c r="H105" s="8"/>
-      <c r="I105" s="8"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9"/>
+      <c r="I105" s="9"/>
       <c r="J105" t="str">
         <f t="shared" si="1"/>
         <v>Joseph Elahi Project 2: Digital World Conceptualization</v>
@@ -5403,12 +5430,12 @@
       <c r="E106" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F106" s="6" t="s">
+      <c r="F106" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="G106" s="8"/>
-      <c r="H106" s="8"/>
-      <c r="I106" s="8"/>
+      <c r="G106" s="9"/>
+      <c r="H106" s="9"/>
+      <c r="I106" s="9"/>
       <c r="J106" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette Project 2: Digital World Conceptualization</v>
@@ -5430,12 +5457,12 @@
       <c r="E107" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F107" s="6" t="s">
+      <c r="F107" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G107" s="8"/>
-      <c r="H107" s="8"/>
-      <c r="I107" s="8"/>
+      <c r="G107" s="9"/>
+      <c r="H107" s="9"/>
+      <c r="I107" s="9"/>
       <c r="J107" t="str">
         <f t="shared" si="1"/>
         <v>Justin Delossantos Project 2: Digital World Conceptualization</v>
@@ -5457,12 +5484,12 @@
       <c r="E108" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F108" s="6" t="s">
+      <c r="F108" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G108" s="8"/>
-      <c r="H108" s="8"/>
-      <c r="I108" s="8"/>
+      <c r="G108" s="9"/>
+      <c r="H108" s="9"/>
+      <c r="I108" s="9"/>
       <c r="J108" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 2: Digital World Conceptualization</v>
@@ -5484,12 +5511,12 @@
       <c r="E109" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F109" s="6" t="s">
+      <c r="F109" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="G109" s="8"/>
-      <c r="H109" s="8"/>
-      <c r="I109" s="8"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="9"/>
+      <c r="I109" s="9"/>
       <c r="J109" t="str">
         <f t="shared" si="1"/>
         <v>Robert Santos Project 2: Digital World Conceptualization</v>
@@ -5511,12 +5538,12 @@
       <c r="E110" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F110" s="6" t="s">
+      <c r="F110" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="G110" s="8"/>
-      <c r="H110" s="8"/>
-      <c r="I110" s="8"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="9"/>
+      <c r="I110" s="9"/>
       <c r="J110" t="str">
         <f t="shared" si="1"/>
         <v>Michael Robinsom Project 2: Digital World Conceptualization</v>
@@ -5538,12 +5565,12 @@
       <c r="E111" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F111" s="6" t="s">
+      <c r="F111" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="G111" s="8"/>
-      <c r="H111" s="8"/>
-      <c r="I111" s="8"/>
+      <c r="G111" s="9"/>
+      <c r="H111" s="9"/>
+      <c r="I111" s="9"/>
       <c r="J111" t="str">
         <f t="shared" si="1"/>
         <v>Briana Project 2: Digital World Conceptualization</v>
@@ -5557,7 +5584,7 @@
         <v>101</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D112" s="2" t="s">
         <v>166</v>
@@ -5565,12 +5592,12 @@
       <c r="E112" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F112" s="6" t="s">
+      <c r="F112" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="G112" s="8"/>
-      <c r="H112" s="8"/>
-      <c r="I112" s="8"/>
+      <c r="G112" s="9"/>
+      <c r="H112" s="9"/>
+      <c r="I112" s="9"/>
       <c r="J112" t="str">
         <f t="shared" si="1"/>
         <v>Devonte Griffiths Project 2: Digital World Conceptualization</v>
@@ -5584,7 +5611,7 @@
         <v>92</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D113" s="2" t="s">
         <v>166</v>
@@ -5592,12 +5619,12 @@
       <c r="E113" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F113" s="6" t="s">
+      <c r="F113" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G113" s="8"/>
-      <c r="H113" s="8"/>
-      <c r="I113" s="8"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="9"/>
+      <c r="I113" s="9"/>
       <c r="J113" t="str">
         <f t="shared" si="1"/>
         <v>Ismar Omeragic Project 2: Digital World Conceptualization</v>
@@ -5619,12 +5646,12 @@
       <c r="E114" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F114" s="6" t="s">
+      <c r="F114" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="G114" s="8"/>
-      <c r="H114" s="8"/>
-      <c r="I114" s="8"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="9"/>
+      <c r="I114" s="9"/>
       <c r="J114" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 2: Digital World Conceptualization</v>
@@ -5646,12 +5673,12 @@
       <c r="E115" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F115" s="6" t="s">
+      <c r="F115" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G115" s="8"/>
-      <c r="H115" s="8"/>
-      <c r="I115" s="8"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="9"/>
+      <c r="I115" s="9"/>
       <c r="J115" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 2: Digital World Conceptualization</v>
@@ -5673,12 +5700,12 @@
       <c r="E116" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F116" s="6" t="s">
+      <c r="F116" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="G116" s="8"/>
-      <c r="H116" s="8"/>
-      <c r="I116" s="8"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="9"/>
+      <c r="I116" s="9"/>
       <c r="J116" t="str">
         <f t="shared" si="1"/>
         <v>Aleksander Parks Project 2: Digital World Conceptualization</v>
@@ -5700,12 +5727,12 @@
       <c r="E117" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F117" s="6" t="s">
+      <c r="F117" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="G117" s="8"/>
-      <c r="H117" s="8"/>
-      <c r="I117" s="8"/>
+      <c r="G117" s="9"/>
+      <c r="H117" s="9"/>
+      <c r="I117" s="9"/>
       <c r="J117" t="str">
         <f t="shared" si="1"/>
         <v>Nicholas A. Miller Project 1: Digital Autobiography Critique</v>
@@ -5719,7 +5746,7 @@
         <v>56</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D118" s="2" t="s">
         <v>166</v>
@@ -5727,12 +5754,12 @@
       <c r="E118" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F118" s="6" t="s">
+      <c r="F118" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="G118" s="8"/>
-      <c r="H118" s="8"/>
-      <c r="I118" s="8"/>
+      <c r="G118" s="9"/>
+      <c r="H118" s="9"/>
+      <c r="I118" s="9"/>
       <c r="J118" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Gross Project 2: Digital World Conceptualization</v>
@@ -5754,12 +5781,12 @@
       <c r="E119" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F119" s="6" t="s">
+      <c r="F119" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="G119" s="8"/>
-      <c r="H119" s="8"/>
-      <c r="I119" s="8"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="9"/>
       <c r="J119" t="str">
         <f t="shared" si="1"/>
         <v>Briana Project 1: Digital Autobiography Production</v>
@@ -5781,12 +5808,12 @@
       <c r="E120" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F120" s="6" t="s">
+      <c r="F120" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="G120" s="8"/>
-      <c r="H120" s="8"/>
-      <c r="I120" s="8"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="9"/>
       <c r="J120" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 2: Digital World Conceptualization</v>
@@ -5808,12 +5835,12 @@
       <c r="E121" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F121" s="6" t="s">
+      <c r="F121" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="G121" s="8"/>
-      <c r="H121" s="8"/>
-      <c r="I121" s="8"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="9"/>
       <c r="J121" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 1: Digital Autobiography Critique</v>
@@ -5827,7 +5854,7 @@
         <v>101</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>47</v>
@@ -5835,12 +5862,12 @@
       <c r="E122" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F122" s="6" t="s">
+      <c r="F122" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="G122" s="8"/>
-      <c r="H122" s="8"/>
-      <c r="I122" s="8"/>
+      <c r="G122" s="9"/>
+      <c r="H122" s="9"/>
+      <c r="I122" s="9"/>
       <c r="J122" t="str">
         <f t="shared" si="1"/>
         <v>Devonte Griffiths Project 1: Digital Autobiography Production</v>
@@ -5862,12 +5889,12 @@
       <c r="E123" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F123" s="6" t="s">
+      <c r="F123" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G123" s="8"/>
-      <c r="H123" s="8"/>
-      <c r="I123" s="8"/>
+      <c r="G123" s="9"/>
+      <c r="H123" s="9"/>
+      <c r="I123" s="9"/>
       <c r="J123" t="str">
         <f t="shared" si="1"/>
         <v>Reynaldo Mercado Project 2: Digital World Conceptualization</v>
@@ -5889,12 +5916,12 @@
       <c r="E124" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F124" s="6" t="s">
+      <c r="F124" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="G124" s="8"/>
-      <c r="H124" s="8"/>
-      <c r="I124" s="8"/>
+      <c r="G124" s="9"/>
+      <c r="H124" s="9"/>
+      <c r="I124" s="9"/>
       <c r="J124" t="str">
         <f t="shared" si="1"/>
         <v>Jacob Rush Project 2: Digital World Conceptualization</v>
@@ -5916,12 +5943,12 @@
       <c r="E125" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F125" s="6" t="s">
+      <c r="F125" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="G125" s="8"/>
-      <c r="H125" s="8"/>
-      <c r="I125" s="8"/>
+      <c r="G125" s="9"/>
+      <c r="H125" s="9"/>
+      <c r="I125" s="9"/>
       <c r="J125" t="str">
         <f t="shared" si="1"/>
         <v>Joshua Moskowitz Project 2: Digital World Conceptualization</v>
@@ -5935,7 +5962,7 @@
         <v>112</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>166</v>
@@ -5943,12 +5970,12 @@
       <c r="E126" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F126" s="6" t="s">
+      <c r="F126" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="G126" s="8"/>
-      <c r="H126" s="8"/>
-      <c r="I126" s="8"/>
+      <c r="G126" s="9"/>
+      <c r="H126" s="9"/>
+      <c r="I126" s="9"/>
       <c r="J126" t="str">
         <f t="shared" si="1"/>
         <v>Brandon Lavoie Project 2: Digital World Conceptualization</v>
@@ -5970,12 +5997,12 @@
       <c r="E127" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F127" s="6" t="s">
+      <c r="F127" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="G127" s="8"/>
-      <c r="H127" s="8"/>
-      <c r="I127" s="8"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="9"/>
+      <c r="I127" s="9"/>
       <c r="J127" t="str">
         <f t="shared" si="1"/>
         <v>Kyle Frenette  Project 2: Digital World Design</v>
@@ -5997,12 +6024,12 @@
       <c r="E128" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F128" s="6" t="s">
+      <c r="F128" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="G128" s="8"/>
-      <c r="H128" s="8"/>
-      <c r="I128" s="8"/>
+      <c r="G128" s="9"/>
+      <c r="H128" s="9"/>
+      <c r="I128" s="9"/>
       <c r="J128" t="str">
         <f t="shared" si="1"/>
         <v>Max Gasstrom Project 2: Digital World Design</v>
@@ -6024,7 +6051,7 @@
       <c r="E129" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F129" s="6" t="s">
+      <c r="F129" s="8" t="s">
         <v>207</v>
       </c>
       <c r="G129" s="2" t="s">
@@ -6057,12 +6084,12 @@
       <c r="E130" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="F130" s="6" t="s">
+      <c r="F130" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="G130" s="8"/>
-      <c r="H130" s="8"/>
-      <c r="I130" s="8"/>
+      <c r="G130" s="9"/>
+      <c r="H130" s="9"/>
+      <c r="I130" s="9"/>
       <c r="J130" t="str">
         <f t="shared" si="1"/>
         <v>Thomas Frederick Project 1: Digital Autobiography Critique</v>
@@ -6084,7 +6111,7 @@
       <c r="E131" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F131" s="6" t="s">
+      <c r="F131" s="8" t="s">
         <v>212</v>
       </c>
       <c r="G131" s="2" t="s">
@@ -6117,7 +6144,7 @@
       <c r="E132" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F132" s="6" t="s">
+      <c r="F132" s="8" t="s">
         <v>216</v>
       </c>
       <c r="G132" s="2" t="s">
@@ -6150,12 +6177,12 @@
       <c r="E133" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F133" s="6" t="s">
+      <c r="F133" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="G133" s="8"/>
-      <c r="H133" s="8"/>
-      <c r="I133" s="8"/>
+      <c r="G133" s="9"/>
+      <c r="H133" s="9"/>
+      <c r="I133" s="9"/>
       <c r="J133" t="str">
         <f t="shared" si="1"/>
         <v>Lorenzo Kwolek Project 2: Digital World Design</v>
@@ -6169,7 +6196,7 @@
         <v>92</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>166</v>
@@ -6177,7 +6204,7 @@
       <c r="E134" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F134" s="6" t="s">
+      <c r="F134" s="8" t="s">
         <v>221</v>
       </c>
       <c r="G134" s="2" t="s">
@@ -6210,7 +6237,7 @@
       <c r="E135" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F135" s="6" t="s">
+      <c r="F135" s="8" t="s">
         <v>224</v>
       </c>
       <c r="G135" s="2" t="s">
@@ -6243,12 +6270,12 @@
       <c r="E136" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F136" s="6" t="s">
+      <c r="F136" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="G136" s="8"/>
-      <c r="H136" s="8"/>
-      <c r="I136" s="8"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="9"/>
+      <c r="I136" s="9"/>
       <c r="J136" t="str">
         <f t="shared" si="1"/>
         <v>Seth VanDerbeck Project 2: Digital World Design</v>
@@ -6270,12 +6297,12 @@
       <c r="E137" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F137" s="6" t="s">
+      <c r="F137" s="8" t="s">
         <v>229</v>
       </c>
-      <c r="G137" s="8"/>
-      <c r="H137" s="8"/>
-      <c r="I137" s="8"/>
+      <c r="G137" s="9"/>
+      <c r="H137" s="9"/>
+      <c r="I137" s="9"/>
       <c r="J137" t="str">
         <f t="shared" si="1"/>
         <v>Briana Ruiz Project 2: Digital World Design</v>
@@ -6297,12 +6324,12 @@
       <c r="E138" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F138" s="6" t="s">
+      <c r="F138" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="G138" s="8"/>
-      <c r="H138" s="8"/>
-      <c r="I138" s="8"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="9"/>
+      <c r="I138" s="9"/>
       <c r="J138" t="str">
         <f t="shared" si="1"/>
         <v>Jason Harrington Project 2: Digital World Design</v>
@@ -6316,7 +6343,7 @@
         <v>58</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>166</v>
@@ -6324,7 +6351,7 @@
       <c r="E139" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F139" s="6" t="s">
+      <c r="F139" s="8" t="s">
         <v>231</v>
       </c>
       <c r="G139" s="2" t="s">
@@ -6357,7 +6384,7 @@
       <c r="E140" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F140" s="6" t="s">
+      <c r="F140" s="8" t="s">
         <v>235</v>
       </c>
       <c r="G140" s="2" t="s">
@@ -6390,7 +6417,7 @@
       <c r="E141" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F141" s="6" t="s">
+      <c r="F141" s="8" t="s">
         <v>205</v>
       </c>
       <c r="G141" s="2" t="s">
@@ -6423,7 +6450,7 @@
       <c r="E142" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F142" s="6" t="s">
+      <c r="F142" s="8" t="s">
         <v>239</v>
       </c>
       <c r="G142" s="2" t="s">
@@ -6448,7 +6475,7 @@
         <v>101</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>166</v>
@@ -6456,7 +6483,7 @@
       <c r="E143" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="F143" s="6" t="s">
+      <c r="F143" s="8" t="s">
         <v>242</v>
       </c>
       <c r="G143" s="2" t="s">
@@ -6547,7 +6574,7 @@
         <v>112</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>166</v>
@@ -6646,7 +6673,7 @@
         <v>56</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>166</v>
@@ -6712,7 +6739,7 @@
         <v>112</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D151" s="2" t="s">
         <v>166</v>
@@ -7141,7 +7168,7 @@
         <v>92</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D164" s="2" t="s">
         <v>166</v>
@@ -7207,7 +7234,7 @@
         <v>101</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>166</v>
@@ -7240,7 +7267,7 @@
         <v>58</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D167" s="2" t="s">
         <v>166</v>
@@ -7504,7 +7531,7 @@
         <v>56</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D175" s="2" t="s">
         <v>166</v>
@@ -8065,7 +8092,7 @@
         <v>58</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D192" s="2" t="s">
         <v>312</v>
@@ -8098,7 +8125,7 @@
         <v>58</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D193" s="2" t="s">
         <v>312</v>
@@ -8296,7 +8323,7 @@
         <v>92</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D199" s="2" t="s">
         <v>312</v>
@@ -8650,7 +8677,7 @@
         <v>56</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D212" s="2" t="s">
         <v>312</v>
@@ -8748,7 +8775,7 @@
         <v>56</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D216" s="2" t="s">
         <v>312</v>
@@ -8835,7 +8862,7 @@
         <v>92</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D219" s="2" t="s">
         <v>312</v>
@@ -9051,7 +9078,7 @@
         <v>58</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D228" s="2" t="s">
         <v>312</v>
@@ -9111,7 +9138,7 @@
         <v>58</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D231" s="2" t="s">
         <v>312</v>
@@ -9229,7 +9256,7 @@
         <v>101</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D236" s="2" t="s">
         <v>312</v>
@@ -9347,7 +9374,7 @@
         <v>92</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D241" s="2" t="s">
         <v>312</v>
@@ -9387,7 +9414,7 @@
         <v>101</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>312</v>
@@ -9525,7 +9552,7 @@
         <v>58</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D249" s="2" t="s">
         <v>312</v>
@@ -9603,7 +9630,7 @@
         <v>56</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D252" s="2" t="s">
         <v>312</v>
@@ -9643,7 +9670,7 @@
         <v>56</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D254" s="2" t="s">
         <v>312</v>
@@ -9730,7 +9757,7 @@
         <v>92</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>312</v>
@@ -9857,7 +9884,7 @@
         <v>56</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D262" s="2" t="s">
         <v>312</v>
@@ -10037,7 +10064,7 @@
         <v>112</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D271" s="2" t="s">
         <v>312</v>
@@ -10057,7 +10084,7 @@
         <v>92</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D272" s="2" t="s">
         <v>312</v>
@@ -10077,7 +10104,7 @@
         <v>58</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D273" s="2" t="s">
         <v>312</v>
@@ -10197,7 +10224,7 @@
         <v>101</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D279" s="2" t="s">
         <v>312</v>
@@ -10326,7 +10353,7 @@
         <v>92</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D285" s="2" t="s">
         <v>166</v>
@@ -10551,7 +10578,7 @@
         <v>58</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D294" s="2" t="s">
         <v>478</v>
@@ -10571,7 +10598,7 @@
         <v>92</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D295" s="2" t="s">
         <v>312</v>
@@ -10631,7 +10658,7 @@
         <v>101</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D298" s="2" t="s">
         <v>312</v>
@@ -10651,7 +10678,7 @@
         <v>101</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D299" s="2" t="s">
         <v>312</v>
@@ -10711,7 +10738,7 @@
         <v>92</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>312</v>
@@ -10780,7 +10807,7 @@
         <v>92</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D305" s="2" t="s">
         <v>478</v>
@@ -10880,7 +10907,7 @@
         <v>56</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D310" s="2" t="s">
         <v>478</v>
@@ -10900,7 +10927,7 @@
         <v>112</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D311" s="2" t="s">
         <v>478</v>
@@ -10960,7 +10987,7 @@
         <v>112</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D314" s="2" t="s">
         <v>478</v>
@@ -10989,7 +11016,7 @@
         <v>92</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D315" s="2" t="s">
         <v>478</v>
@@ -11127,7 +11154,7 @@
         <v>58</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D321" s="2" t="s">
         <v>478</v>
@@ -11214,7 +11241,7 @@
         <v>92</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D324" s="2" t="s">
         <v>478</v>
@@ -11437,7 +11464,7 @@
         <v>56</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D332" s="2" t="s">
         <v>478</v>
@@ -11495,7 +11522,7 @@
         <v>101</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D334" s="2" t="s">
         <v>478</v>
@@ -11740,7 +11767,7 @@
         <v>58</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D344" s="2" t="s">
         <v>478</v>
@@ -11840,7 +11867,7 @@
         <v>101</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D349" s="2" t="s">
         <v>478</v>
@@ -11929,7 +11956,7 @@
         <v>56</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D353" s="2" t="s">
         <v>478</v>
@@ -12009,7 +12036,7 @@
         <v>92</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D357" s="2" t="s">
         <v>478</v>
@@ -12029,7 +12056,7 @@
         <v>101</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D358" s="2" t="s">
         <v>478</v>
@@ -12118,7 +12145,7 @@
         <v>58</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D362" s="2" t="s">
         <v>478</v>
@@ -12341,7 +12368,7 @@
         <v>101</v>
       </c>
       <c r="C370" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D370" s="2" t="s">
         <v>478</v>
@@ -12370,7 +12397,7 @@
         <v>92</v>
       </c>
       <c r="C371" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D371" s="2" t="s">
         <v>478</v>
@@ -12535,7 +12562,7 @@
         <v>56</v>
       </c>
       <c r="C377" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D377" s="2" t="s">
         <v>594</v>
@@ -12615,7 +12642,7 @@
         <v>58</v>
       </c>
       <c r="C381" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D381" s="2" t="s">
         <v>594</v>
@@ -12695,7 +12722,7 @@
         <v>92</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D385" s="2" t="s">
         <v>594</v>
@@ -12795,7 +12822,7 @@
         <v>92</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D390" s="2" t="s">
         <v>594</v>
@@ -12815,7 +12842,7 @@
         <v>101</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D391" s="2" t="s">
         <v>594</v>
@@ -12855,7 +12882,7 @@
         <v>58</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D393" s="2" t="s">
         <v>594</v>
@@ -13080,7 +13107,7 @@
         <v>101</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D402" s="2" t="s">
         <v>594</v>
@@ -13225,7 +13252,7 @@
         <v>112</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D407" s="2" t="s">
         <v>594</v>
@@ -13254,7 +13281,7 @@
         <v>112</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D408" s="2" t="s">
         <v>594</v>
@@ -13341,7 +13368,7 @@
         <v>58</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D411" s="2" t="s">
         <v>594</v>
@@ -13399,7 +13426,7 @@
         <v>56</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D413" s="2" t="s">
         <v>594</v>
@@ -13613,7 +13640,7 @@
         <v>92</v>
       </c>
       <c r="C421" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D421" s="2" t="s">
         <v>594</v>
@@ -13722,31 +13749,202 @@
       </c>
     </row>
     <row r="425">
-      <c r="F425" s="1"/>
+      <c r="A425" s="4">
+        <v>43066.801800092595</v>
+      </c>
+      <c r="B425" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C425" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D425" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E425" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F425" s="10" t="s">
+        <v>687</v>
+      </c>
     </row>
     <row r="426">
-      <c r="F426" s="1"/>
+      <c r="A426" s="4">
+        <v>43070.819994606485</v>
+      </c>
+      <c r="B426" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C426" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D426" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E426" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F426" s="10" t="s">
+        <v>688</v>
+      </c>
     </row>
     <row r="427">
-      <c r="F427" s="1"/>
+      <c r="A427" s="4">
+        <v>43070.92457582176</v>
+      </c>
+      <c r="B427" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C427" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D427" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E427" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F427" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="G427" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="H427" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="I427" s="2" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="428">
-      <c r="F428" s="1"/>
+      <c r="A428" s="4">
+        <v>43072.77567451389</v>
+      </c>
+      <c r="B428" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C428" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D428" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E428" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F428" s="10" t="s">
+        <v>690</v>
+      </c>
     </row>
     <row r="429">
-      <c r="F429" s="1"/>
+      <c r="A429" s="4">
+        <v>43072.939942453704</v>
+      </c>
+      <c r="B429" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C429" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D429" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E429" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F429" s="10" t="s">
+        <v>691</v>
+      </c>
     </row>
     <row r="430">
-      <c r="F430" s="1"/>
+      <c r="A430" s="4">
+        <v>43072.98016759259</v>
+      </c>
+      <c r="B430" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C430" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D430" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E430" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F430" s="10" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="431">
-      <c r="F431" s="1"/>
+      <c r="A431" s="4">
+        <v>43073.20338140047</v>
+      </c>
+      <c r="B431" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C431" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D431" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E431" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F431" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="G431" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H431" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="I431" s="2" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="432">
-      <c r="F432" s="1"/>
+      <c r="A432" s="4">
+        <v>43073.465048287035</v>
+      </c>
+      <c r="B432" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C432" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E432" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F432" s="10" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="433">
-      <c r="F433" s="1"/>
+      <c r="A433" s="4">
+        <v>43073.47994319444</v>
+      </c>
+      <c r="B433" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C433" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="E433" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F433" s="10" t="s">
+        <v>695</v>
+      </c>
     </row>
     <row r="434">
       <c r="F434" s="1"/>
@@ -14020,6 +14218,33 @@
     </row>
     <row r="524">
       <c r="F524" s="1"/>
+    </row>
+    <row r="525">
+      <c r="F525" s="1"/>
+    </row>
+    <row r="526">
+      <c r="F526" s="1"/>
+    </row>
+    <row r="527">
+      <c r="F527" s="1"/>
+    </row>
+    <row r="528">
+      <c r="F528" s="1"/>
+    </row>
+    <row r="529">
+      <c r="F529" s="1"/>
+    </row>
+    <row r="530">
+      <c r="F530" s="1"/>
+    </row>
+    <row r="531">
+      <c r="F531" s="1"/>
+    </row>
+    <row r="532">
+      <c r="F532" s="1"/>
+    </row>
+    <row r="533">
+      <c r="F533" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -14448,9 +14673,18 @@
     <hyperlink r:id="rId424" ref="F422"/>
     <hyperlink r:id="rId425" ref="F423"/>
     <hyperlink r:id="rId426" ref="F424"/>
+    <hyperlink r:id="rId427" ref="F425"/>
+    <hyperlink r:id="rId428" ref="F426"/>
+    <hyperlink r:id="rId429" ref="F427"/>
+    <hyperlink r:id="rId430" ref="F428"/>
+    <hyperlink r:id="rId431" ref="F429"/>
+    <hyperlink r:id="rId432" ref="F430"/>
+    <hyperlink r:id="rId433" ref="F431"/>
+    <hyperlink r:id="rId434" ref="F432"/>
+    <hyperlink r:id="rId435" ref="F433"/>
   </hyperlinks>
-  <drawing r:id="rId427"/>
-  <legacyDrawing r:id="rId428"/>
+  <drawing r:id="rId436"/>
+  <legacyDrawing r:id="rId437"/>
 </worksheet>
 </file>
 
@@ -14506,7 +14740,7 @@
         <v>112</v>
       </c>
       <c r="B6">
-        <v>11.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="7">
@@ -14514,7 +14748,7 @@
         <v>62</v>
       </c>
       <c r="B7">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
     </row>
     <row r="8">
@@ -14535,15 +14769,15 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B10">
-        <v>17.0</v>
+        <v>18.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="B11">
         <v>18.0</v>
@@ -14551,7 +14785,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>80</v>
       </c>
       <c r="B12">
         <v>18.0</v>
@@ -14559,15 +14793,15 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B13">
-        <v>18.0</v>
+        <v>19.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B14">
         <v>19.0</v>
@@ -14575,7 +14809,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B15">
         <v>20.0</v>
@@ -14583,7 +14817,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="B16">
         <v>20.0</v>
@@ -14591,7 +14825,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>148</v>
       </c>
       <c r="B17">
         <v>20.0</v>
@@ -14599,10 +14833,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>46</v>
       </c>
       <c r="B18">
-        <v>20.0</v>
+        <v>21.0</v>
       </c>
     </row>
     <row r="19">
@@ -14615,7 +14849,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B20">
         <v>22.0</v>
@@ -14623,7 +14857,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>22.0</v>
@@ -14631,23 +14865,23 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="B22">
-        <v>22.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B23">
-        <v>23.0</v>
+        <v>24.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B24">
         <v>24.0</v>
@@ -14658,7 +14892,7 @@
         <v>92</v>
       </c>
       <c r="B25">
-        <v>24.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
@@ -14671,10 +14905,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B27">
-        <v>423.0</v>
+        <v>432.0</v>
       </c>
     </row>
   </sheetData>
@@ -14691,7 +14925,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -14739,7 +14973,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5">
         <v>2.0</v>
@@ -14747,7 +14981,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5">
         <v>2.0</v>
@@ -14755,7 +14989,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="2">
         <v>3.0</v>
@@ -14763,25 +14997,25 @@
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="3">
         <v>3.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>3.0</v>
       </c>
     </row>
@@ -14858,10 +15092,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <v>6.0</v>
       </c>
     </row>
